--- a/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
+++ b/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Source\Repos\ECE1718H\goldendata\Assigment3_E1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikhan1\Source\Repo_1\ECE1718H\goldendata\Assigment3_E1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7968" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CIF - bitcount" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -139,15 +139,26 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Bitcount per</a:t>
+              <a:t>CIF Bitcount per Frame</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rate</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Frame - CIF Rate Control</a:t>
+              <a:t> Control with 2.4 mbps Target Bitrate</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -294,7 +305,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8073-48B5-8EBC-7D949E03E640}"/>
             </c:ext>
@@ -411,7 +422,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8073-48B5-8EBC-7D949E03E640}"/>
             </c:ext>
@@ -528,7 +539,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8073-48B5-8EBC-7D949E03E640}"/>
             </c:ext>
@@ -544,16 +555,72 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472469928"/>
-        <c:axId val="472471568"/>
+        <c:axId val="371754352"/>
+        <c:axId val="371746904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="472469928"/>
+        <c:axId val="371754352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frame</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -590,7 +657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472471568"/>
+        <c:crossAx val="371746904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -598,9 +665,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="472471568"/>
+        <c:axId val="371746904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="60000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -618,6 +686,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bitcount</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -649,7 +773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472469928"/>
+        <c:crossAx val="371754352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -662,7 +786,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -730,7 +855,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -764,16 +889,33 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Bitcount per</a:t>
+              <a:t>QCIF</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Frame - QCIF Rate Control</a:t>
+              <a:t> Bitcount Per Frame</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rate Control with</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 960 kbps Target Bitrate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -920,7 +1062,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2401-4774-B09A-99796626A598}"/>
             </c:ext>
@@ -1037,7 +1179,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2401-4774-B09A-99796626A598}"/>
             </c:ext>
@@ -1154,7 +1296,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2401-4774-B09A-99796626A598}"/>
             </c:ext>
@@ -1170,16 +1312,72 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472469928"/>
-        <c:axId val="472471568"/>
+        <c:axId val="371748080"/>
+        <c:axId val="371753176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="472469928"/>
+        <c:axId val="371748080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frame</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1216,7 +1414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472471568"/>
+        <c:crossAx val="371753176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1224,9 +1422,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="472471568"/>
+        <c:axId val="371753176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="20000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1244,6 +1443,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bitcount</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1275,7 +1530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472469928"/>
+        <c:crossAx val="371748080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1288,7 +1543,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1356,7 +1612,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1390,16 +1646,28 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>PSRN per</a:t>
+              <a:t>CIF PSNR per Frame</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Frame - CIF Rate Control</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Rate Control with 2.4 mbps Target Bitrate</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2456559596717077"/>
+          <c:y val="3.9753528125621149E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1546,7 +1814,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6A2C-4216-BE11-04657B9942C4}"/>
             </c:ext>
@@ -1663,7 +1931,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6A2C-4216-BE11-04657B9942C4}"/>
             </c:ext>
@@ -1780,7 +2048,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6A2C-4216-BE11-04657B9942C4}"/>
             </c:ext>
@@ -1796,16 +2064,72 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472469928"/>
-        <c:axId val="472471568"/>
+        <c:axId val="373191904"/>
+        <c:axId val="373194256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="472469928"/>
+        <c:axId val="373191904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frame</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1842,7 +2166,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472471568"/>
+        <c:crossAx val="373194256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1850,9 +2174,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="472471568"/>
+        <c:axId val="373194256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1870,6 +2195,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1901,7 +2282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472469928"/>
+        <c:crossAx val="373191904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1914,7 +2295,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25405457651126945"/>
+          <c:y val="0.88175623496818645"/>
+          <c:w val="0.52575328083989503"/>
+          <c:h val="6.9103700046979716E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1982,7 +2373,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2016,16 +2407,21 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>PSRN per</a:t>
+              <a:t>QCIF PSNR per Frame</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Frame - QCIF Rate Control</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Rate Control with 960 kbps Target Bitrate</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2172,7 +2568,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-198D-4628-9217-65C85412046C}"/>
             </c:ext>
@@ -2289,7 +2685,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-198D-4628-9217-65C85412046C}"/>
             </c:ext>
@@ -2406,7 +2802,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-198D-4628-9217-65C85412046C}"/>
             </c:ext>
@@ -2422,16 +2818,72 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472469928"/>
-        <c:axId val="472471568"/>
+        <c:axId val="373194648"/>
+        <c:axId val="373192296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="472469928"/>
+        <c:axId val="373194648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frame</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2468,7 +2920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472471568"/>
+        <c:crossAx val="373192296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2476,9 +2928,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="472471568"/>
+        <c:axId val="373192296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2496,6 +2949,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PSNR</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (dB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2527,7 +3041,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472469928"/>
+        <c:crossAx val="373194648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2540,7 +3054,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2608,7 +3123,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2642,15 +3157,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Bitcount per</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Frame I-Period_21</a:t>
+              <a:t>CIF Bitcount per Frame with I_Period 21</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2789,7 +3301,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C7DA-46B0-B3A4-E291B99D355C}"/>
             </c:ext>
@@ -2898,7 +3410,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C7DA-46B0-B3A4-E291B99D355C}"/>
             </c:ext>
@@ -2914,16 +3426,72 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472469928"/>
-        <c:axId val="472471568"/>
+        <c:axId val="373196216"/>
+        <c:axId val="373193864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="472469928"/>
+        <c:axId val="373196216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frame</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2960,7 +3528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472471568"/>
+        <c:crossAx val="373193864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2968,7 +3536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="472471568"/>
+        <c:axId val="373193864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2988,6 +3556,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bitcount</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3019,7 +3643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472469928"/>
+        <c:crossAx val="373196216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3032,7 +3656,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3100,7 +3725,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3133,17 +3758,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PSNR per Frame I-Period_21</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>CIF PSNR per Frame I-Period_21</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3282,7 +3903,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F713-4D6A-9FA3-E860749E504A}"/>
             </c:ext>
@@ -3391,7 +4012,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F713-4D6A-9FA3-E860749E504A}"/>
             </c:ext>
@@ -3407,16 +4028,72 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472469928"/>
-        <c:axId val="472471568"/>
+        <c:axId val="373197392"/>
+        <c:axId val="373196608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="472469928"/>
+        <c:axId val="373197392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frame</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3453,7 +4130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472471568"/>
+        <c:crossAx val="373196608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3461,9 +4138,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="472471568"/>
+        <c:axId val="373196608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3481,6 +4159,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3512,7 +4246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472469928"/>
+        <c:crossAx val="373197392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3525,7 +4259,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6854,23 +7589,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>172402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142B6B42-A60F-40C3-B7D9-6E595AF55735}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{142B6B42-A60F-40C3-B7D9-6E595AF55735}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6896,22 +7631,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>581024</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6280FB-87F9-405C-A090-61ADA31C9807}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F6280FB-87F9-405C-A090-61ADA31C9807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6940,21 +7675,21 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83819</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04CAEE3-0F90-4EA5-AE66-F3F142605586}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D04CAEE3-0F90-4EA5-AE66-F3F142605586}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6982,22 +7717,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>295274</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FA466A-6EE6-4C88-8D4D-43D014D8EF0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2FA466A-6EE6-4C88-8D4D-43D014D8EF0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7024,23 +7759,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>121919</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE3E938-8689-4F50-883F-C57EE6C3B466}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE3E938-8689-4F50-883F-C57EE6C3B466}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7073,17 +7808,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DADDA05-2F4D-4CC4-8AA5-CEAA532A74AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DADDA05-2F4D-4CC4-8AA5-CEAA532A74AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7405,13 +8140,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7422,7 +8157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7442,7 +8177,7 @@
         <v>81342</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7462,7 +8197,7 @@
         <v>78199</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7482,7 +8217,7 @@
         <v>81695</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7502,7 +8237,7 @@
         <v>81021</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7522,7 +8257,7 @@
         <v>79009</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7542,7 +8277,7 @@
         <v>81037</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7562,7 +8297,7 @@
         <v>79972</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7582,7 +8317,7 @@
         <v>80522</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7602,7 +8337,7 @@
         <v>79832</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7622,7 +8357,7 @@
         <v>81977</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7642,7 +8377,7 @@
         <v>76938</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -7662,7 +8397,7 @@
         <v>81716</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7682,7 +8417,7 @@
         <v>73925</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -7702,7 +8437,7 @@
         <v>82606</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -7722,7 +8457,7 @@
         <v>81339</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -7742,7 +8477,7 @@
         <v>80225</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -7762,7 +8497,7 @@
         <v>80798</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -7782,7 +8517,7 @@
         <v>84661</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -7802,7 +8537,7 @@
         <v>82641</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -7822,7 +8557,7 @@
         <v>81634</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -7853,12 +8588,12 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F22"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7869,7 +8604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7889,7 +8624,7 @@
         <v>31324</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7909,7 +8644,7 @@
         <v>31651</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7929,7 +8664,7 @@
         <v>32240</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7949,7 +8684,7 @@
         <v>31098</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7969,7 +8704,7 @@
         <v>31407</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7989,7 +8724,7 @@
         <v>31751</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8009,7 +8744,7 @@
         <v>32790</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8029,7 +8764,7 @@
         <v>32421</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8049,7 +8784,7 @@
         <v>33397</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8069,7 +8804,7 @@
         <v>31886</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8089,7 +8824,7 @@
         <v>34355</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8109,7 +8844,7 @@
         <v>32826</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8129,7 +8864,7 @@
         <v>30940</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8149,7 +8884,7 @@
         <v>26603</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8169,7 +8904,7 @@
         <v>52535</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8189,7 +8924,7 @@
         <v>32219</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8209,7 +8944,7 @@
         <v>31424</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8229,7 +8964,7 @@
         <v>31743</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8249,7 +8984,7 @@
         <v>33054</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8269,7 +9004,7 @@
         <v>32373</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8300,12 +9035,12 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F22"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8316,7 +9051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8336,7 +9071,7 @@
         <v>32.922676000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8356,7 +9091,7 @@
         <v>32.792614</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8376,7 +9111,7 @@
         <v>33.232483000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8396,7 +9131,7 @@
         <v>33.418678</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8416,7 +9151,7 @@
         <v>33.284270999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8436,7 +9171,7 @@
         <v>33.123874999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8456,7 +9191,7 @@
         <v>33.753342000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8476,7 +9211,7 @@
         <v>22.994844000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8496,7 +9231,7 @@
         <v>29.168758</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8516,7 +9251,7 @@
         <v>32.136276000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8536,7 +9271,7 @@
         <v>33.205719000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8556,7 +9291,7 @@
         <v>34.017895000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8576,7 +9311,7 @@
         <v>34.439681999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8596,7 +9331,7 @@
         <v>34.759304</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8616,7 +9351,7 @@
         <v>20.805440999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8636,7 +9371,7 @@
         <v>25.39809</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8656,7 +9391,7 @@
         <v>27.031410000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8676,7 +9411,7 @@
         <v>28.770468000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8696,7 +9431,7 @@
         <v>29.359988999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8716,7 +9451,7 @@
         <v>29.705095</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8750,9 +9485,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8763,7 +9498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8783,7 +9518,7 @@
         <v>32.892646999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8803,7 +9538,7 @@
         <v>33.456001000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8823,7 +9558,7 @@
         <v>34.168976000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8843,7 +9578,7 @@
         <v>34.502116999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8863,7 +9598,7 @@
         <v>34.494083000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8883,7 +9618,7 @@
         <v>34.523617000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8903,7 +9638,7 @@
         <v>35.091895999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8923,7 +9658,7 @@
         <v>24.018940000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8943,7 +9678,7 @@
         <v>30.361965000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8963,7 +9698,7 @@
         <v>32.183281000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8983,7 +9718,7 @@
         <v>34.727454999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9003,7 +9738,7 @@
         <v>35.920475000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9023,7 +9758,7 @@
         <v>36.406334000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -9043,7 +9778,7 @@
         <v>36.957703000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9063,7 +9798,7 @@
         <v>21.222179000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9083,7 +9818,7 @@
         <v>26.213009</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -9103,7 +9838,7 @@
         <v>28.358971</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -9123,7 +9858,7 @@
         <v>29.705147</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9143,7 +9878,7 @@
         <v>30.502040999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9163,7 +9898,7 @@
         <v>30.806025999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9193,13 +9928,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -9210,7 +9945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0</v>
       </c>
@@ -9251,7 +9986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -9283,7 +10018,7 @@
         <v>81342</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9315,7 +10050,7 @@
         <v>78199</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9347,7 +10082,7 @@
         <v>81695</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9379,7 +10114,7 @@
         <v>81021</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9411,7 +10146,7 @@
         <v>79009</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9443,7 +10178,7 @@
         <v>81037</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9475,7 +10210,7 @@
         <v>79972</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -9507,7 +10242,7 @@
         <v>80522</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -9539,7 +10274,7 @@
         <v>79832</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -9571,7 +10306,7 @@
         <v>81977</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -9603,7 +10338,7 @@
         <v>76938</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -9635,7 +10370,7 @@
         <v>81716</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -9667,7 +10402,7 @@
         <v>73925</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -9699,7 +10434,7 @@
         <v>82606</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -9731,7 +10466,7 @@
         <v>81339</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -9763,7 +10498,7 @@
         <v>80225</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -9795,7 +10530,7 @@
         <v>80798</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -9827,7 +10562,7 @@
         <v>84661</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -9859,7 +10594,7 @@
         <v>82641</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -9891,7 +10626,7 @@
         <v>81634</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -9923,7 +10658,7 @@
         <v>80497</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24">
         <f>SUM(B3:B23)</f>
         <v>7528643</v>
@@ -9985,7 +10720,7 @@
         <v>1691586</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25">
         <f>P24/B24</f>
         <v>0.22468670648880548</v>
@@ -10025,13 +10760,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -10042,7 +10777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10053,7 +10788,7 @@
         <v>32.922676000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10064,7 +10799,7 @@
         <v>32.792614</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10075,7 +10810,7 @@
         <v>33.232483000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10086,7 +10821,7 @@
         <v>33.418678</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10097,7 +10832,7 @@
         <v>33.284270999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10108,7 +10843,7 @@
         <v>33.123874999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10119,7 +10854,7 @@
         <v>33.753342000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10130,7 +10865,7 @@
         <v>22.994844000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10141,7 +10876,7 @@
         <v>29.168758</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10152,7 +10887,7 @@
         <v>32.136276000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10163,7 +10898,7 @@
         <v>33.205719000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10174,7 +10909,7 @@
         <v>34.017895000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10185,7 +10920,7 @@
         <v>34.439681999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10196,7 +10931,7 @@
         <v>34.759304</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -10207,7 +10942,7 @@
         <v>20.805440999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10218,7 +10953,7 @@
         <v>25.39809</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -10229,7 +10964,7 @@
         <v>27.031410000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -10240,7 +10975,7 @@
         <v>28.770468000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -10251,7 +10986,7 @@
         <v>29.359988999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -10262,7 +10997,7 @@
         <v>29.705095</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>

--- a/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
+++ b/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
@@ -214,67 +214,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>83873</c:v>
+                  <c:v>81342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81650</c:v>
+                  <c:v>83421</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81698</c:v>
+                  <c:v>83438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82079</c:v>
+                  <c:v>83654</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81876</c:v>
+                  <c:v>83823</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81631</c:v>
+                  <c:v>83061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81785</c:v>
+                  <c:v>80278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61195</c:v>
+                  <c:v>77594</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62623</c:v>
+                  <c:v>77068</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61637</c:v>
+                  <c:v>78766</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62660</c:v>
+                  <c:v>78626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61612</c:v>
+                  <c:v>78581</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61094</c:v>
+                  <c:v>78908</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60562</c:v>
+                  <c:v>78545</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83790</c:v>
+                  <c:v>82980</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84187</c:v>
+                  <c:v>80967</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83177</c:v>
+                  <c:v>83880</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83341</c:v>
+                  <c:v>79939</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84568</c:v>
+                  <c:v>80709</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>86108</c:v>
+                  <c:v>81513</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>85554</c:v>
+                  <c:v>82126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -331,67 +331,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>83873</c:v>
+                  <c:v>81342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69603</c:v>
+                  <c:v>78199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64558</c:v>
+                  <c:v>81695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59142</c:v>
+                  <c:v>81021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81876</c:v>
+                  <c:v>83823</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70167</c:v>
+                  <c:v>78171</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53893</c:v>
+                  <c:v>80134</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>160540</c:v>
+                  <c:v>80059</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62623</c:v>
+                  <c:v>77068</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40564</c:v>
+                  <c:v>74409</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38869</c:v>
+                  <c:v>73624</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37317</c:v>
+                  <c:v>72091</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61094</c:v>
+                  <c:v>78908</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43085</c:v>
+                  <c:v>76290</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>173372</c:v>
+                  <c:v>122776</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84144</c:v>
+                  <c:v>79490</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83177</c:v>
+                  <c:v>83880</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>73676</c:v>
+                  <c:v>80757</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70616</c:v>
+                  <c:v>84001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>67970</c:v>
+                  <c:v>83352</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>85554</c:v>
+                  <c:v>82126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -448,67 +448,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>83873</c:v>
+                  <c:v>81342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69603</c:v>
+                  <c:v>78199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64558</c:v>
+                  <c:v>81695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59142</c:v>
+                  <c:v>81021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64302</c:v>
+                  <c:v>79009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65438</c:v>
+                  <c:v>81037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53513</c:v>
+                  <c:v>79972</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>161619</c:v>
+                  <c:v>80522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44083</c:v>
+                  <c:v>79832</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32142</c:v>
+                  <c:v>81977</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27760</c:v>
+                  <c:v>76938</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25489</c:v>
+                  <c:v>81716</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23290</c:v>
+                  <c:v>73925</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21426</c:v>
+                  <c:v>82606</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>176026</c:v>
+                  <c:v>81339</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82512</c:v>
+                  <c:v>80225</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74467</c:v>
+                  <c:v>80798</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>68746</c:v>
+                  <c:v>84661</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67903</c:v>
+                  <c:v>82641</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>65891</c:v>
+                  <c:v>81634</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>67312</c:v>
+                  <c:v>80497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,67 +840,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>29701</c:v>
+                  <c:v>31324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29225</c:v>
+                  <c:v>31502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29517</c:v>
+                  <c:v>31696</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29652</c:v>
+                  <c:v>31765</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29887</c:v>
+                  <c:v>32071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30331</c:v>
+                  <c:v>31714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29476</c:v>
+                  <c:v>32238</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22210</c:v>
+                  <c:v>30294</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22715</c:v>
+                  <c:v>30265</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22463</c:v>
+                  <c:v>30907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22488</c:v>
+                  <c:v>30705</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22500</c:v>
+                  <c:v>30553</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22756</c:v>
+                  <c:v>30610</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22410</c:v>
+                  <c:v>30679</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29964</c:v>
+                  <c:v>32126</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30196</c:v>
+                  <c:v>31387</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30541</c:v>
+                  <c:v>32671</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30653</c:v>
+                  <c:v>32542</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31130</c:v>
+                  <c:v>32337</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31458</c:v>
+                  <c:v>32326</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31581</c:v>
+                  <c:v>32467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,67 +957,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>29701</c:v>
+                  <c:v>31324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20933</c:v>
+                  <c:v>31651</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19289</c:v>
+                  <c:v>32240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16751</c:v>
+                  <c:v>31098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29887</c:v>
+                  <c:v>32071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17633</c:v>
+                  <c:v>30555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15642</c:v>
+                  <c:v>30749</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46264</c:v>
+                  <c:v>31997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22715</c:v>
+                  <c:v>30265</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11274</c:v>
+                  <c:v>32920</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9140</c:v>
+                  <c:v>28797</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9332</c:v>
+                  <c:v>26747</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22756</c:v>
+                  <c:v>30610</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11678</c:v>
+                  <c:v>30576</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50466</c:v>
+                  <c:v>32500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24108</c:v>
+                  <c:v>31960</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30541</c:v>
+                  <c:v>32671</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20489</c:v>
+                  <c:v>32546</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19545</c:v>
+                  <c:v>31626</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21572</c:v>
+                  <c:v>32290</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31581</c:v>
+                  <c:v>32467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,67 +1074,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>29701</c:v>
+                  <c:v>31324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20933</c:v>
+                  <c:v>31651</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19289</c:v>
+                  <c:v>32240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16751</c:v>
+                  <c:v>31098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18263</c:v>
+                  <c:v>31407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17610</c:v>
+                  <c:v>31751</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15897</c:v>
+                  <c:v>32790</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46395</c:v>
+                  <c:v>32421</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11946</c:v>
+                  <c:v>33397</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9057</c:v>
+                  <c:v>31886</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8001</c:v>
+                  <c:v>34355</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8379</c:v>
+                  <c:v>32826</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8242</c:v>
+                  <c:v>30940</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6871</c:v>
+                  <c:v>26603</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51000</c:v>
+                  <c:v>52535</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23224</c:v>
+                  <c:v>32219</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21119</c:v>
+                  <c:v>31424</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21081</c:v>
+                  <c:v>31743</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21191</c:v>
+                  <c:v>33054</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21675</c:v>
+                  <c:v>32373</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21802</c:v>
+                  <c:v>32286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,67 +1466,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33.654021999999998</c:v>
+                  <c:v>32.922676000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.708754999999996</c:v>
+                  <c:v>31.373069999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.760139000000002</c:v>
+                  <c:v>31.095580999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.721733</c:v>
+                  <c:v>31.294239000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.733348999999997</c:v>
+                  <c:v>31.085417</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.680495999999998</c:v>
+                  <c:v>31.188818000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.682056000000003</c:v>
+                  <c:v>31.16696</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.356228000000002</c:v>
+                  <c:v>36.570141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.383006999999999</c:v>
+                  <c:v>36.549689999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.353642000000001</c:v>
+                  <c:v>36.718273000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.379105000000003</c:v>
+                  <c:v>36.736449999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.377887999999999</c:v>
+                  <c:v>36.768166000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.452171</c:v>
+                  <c:v>36.814216999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.426453000000002</c:v>
+                  <c:v>36.797150000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33.683318999999997</c:v>
+                  <c:v>30.933146000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.678863999999997</c:v>
+                  <c:v>31.153697999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33.642029000000001</c:v>
+                  <c:v>30.899647000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.607470999999997</c:v>
+                  <c:v>30.831762000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.540855000000001</c:v>
+                  <c:v>30.786688000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.517620000000001</c:v>
+                  <c:v>30.791183</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.467350000000003</c:v>
+                  <c:v>30.580539999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,67 +1583,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33.654021999999998</c:v>
+                  <c:v>32.922676000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.832417</c:v>
+                  <c:v>32.792614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.763565</c:v>
+                  <c:v>33.232483000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.776321000000003</c:v>
+                  <c:v>33.418678</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.733348999999997</c:v>
+                  <c:v>31.085417</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.882762999999997</c:v>
+                  <c:v>32.239235000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.926208000000003</c:v>
+                  <c:v>33.238807999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.76708</c:v>
+                  <c:v>22.919419999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.383006999999999</c:v>
+                  <c:v>36.549689999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.762630000000001</c:v>
+                  <c:v>38.256050000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.875450000000001</c:v>
+                  <c:v>39.004283999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.966576000000003</c:v>
+                  <c:v>39.247245999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.452171</c:v>
+                  <c:v>36.814216999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.854115</c:v>
+                  <c:v>38.412365000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.658626999999999</c:v>
+                  <c:v>21.073996999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.031544</c:v>
+                  <c:v>26.352744999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33.642029000000001</c:v>
+                  <c:v>30.899647000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.793998999999999</c:v>
+                  <c:v>32.086844999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.751159999999999</c:v>
+                  <c:v>32.393700000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.613621000000002</c:v>
+                  <c:v>32.549030000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.467350000000003</c:v>
+                  <c:v>30.580539999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1700,67 +1700,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33.654021999999998</c:v>
+                  <c:v>32.922676000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.832417</c:v>
+                  <c:v>32.792614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.763565</c:v>
+                  <c:v>33.232483000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.776321000000003</c:v>
+                  <c:v>33.418678</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.721691</c:v>
+                  <c:v>33.284270999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.596901000000003</c:v>
+                  <c:v>33.123874999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.680523000000001</c:v>
+                  <c:v>33.753342000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.603543999999999</c:v>
+                  <c:v>22.994844000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.480953</c:v>
+                  <c:v>29.168758</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.097985999999999</c:v>
+                  <c:v>32.136276000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.399291999999999</c:v>
+                  <c:v>33.205719000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.589500000000001</c:v>
+                  <c:v>34.017895000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.729956000000001</c:v>
+                  <c:v>34.439681999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.826536000000001</c:v>
+                  <c:v>34.759304</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.317527999999999</c:v>
+                  <c:v>20.805440999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.531122</c:v>
+                  <c:v>25.39809</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.914370999999999</c:v>
+                  <c:v>27.031410000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.1511</c:v>
+                  <c:v>28.770468000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.318769</c:v>
+                  <c:v>29.359988999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.407647999999998</c:v>
+                  <c:v>29.705095</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.475828</c:v>
+                  <c:v>29.865494000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1839,7 +1839,6 @@
         <c:axId val="472471568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2093,67 +2092,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>32.648063999999998</c:v>
+                  <c:v>32.892646999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.633194000000003</c:v>
+                  <c:v>29.850273000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.743873999999998</c:v>
+                  <c:v>29.829595999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.678683999999997</c:v>
+                  <c:v>29.877098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.656384000000003</c:v>
+                  <c:v>29.718741999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.684479000000003</c:v>
+                  <c:v>29.699404000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.651062000000003</c:v>
+                  <c:v>29.683685000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.198588999999998</c:v>
+                  <c:v>35.040691000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.212685</c:v>
+                  <c:v>35.052055000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.219101000000002</c:v>
+                  <c:v>35.014301000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.184334</c:v>
+                  <c:v>35.010815000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.235016000000002</c:v>
+                  <c:v>35.026440000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.215752000000002</c:v>
+                  <c:v>35.042693999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.192917000000001</c:v>
+                  <c:v>34.995995000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.567386999999997</c:v>
+                  <c:v>29.619909</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.550078999999997</c:v>
+                  <c:v>29.190318999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.591354000000003</c:v>
+                  <c:v>29.182279999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.579734999999999</c:v>
+                  <c:v>29.235727000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.460121000000001</c:v>
+                  <c:v>29.139481</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32.561461999999999</c:v>
+                  <c:v>29.256661999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.511471</c:v>
+                  <c:v>29.063071999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2210,67 +2209,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>32.648063999999998</c:v>
+                  <c:v>32.892646999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.990870999999999</c:v>
+                  <c:v>33.456001000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.951118000000001</c:v>
+                  <c:v>34.168976000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.037177999999997</c:v>
+                  <c:v>34.502116999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.656384000000003</c:v>
+                  <c:v>29.718741999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.010207999999999</c:v>
+                  <c:v>32.801926000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.989372000000003</c:v>
+                  <c:v>34.135883</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.103304000000001</c:v>
+                  <c:v>23.665482000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.212685</c:v>
+                  <c:v>35.052055000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.433135999999998</c:v>
+                  <c:v>37.925635999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.498759999999997</c:v>
+                  <c:v>39.509425999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.573020999999997</c:v>
+                  <c:v>40.210692999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.215752000000002</c:v>
+                  <c:v>35.042693999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.483459000000003</c:v>
+                  <c:v>37.853518999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.416142000000001</c:v>
+                  <c:v>20.299306999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.118883</c:v>
+                  <c:v>24.367775000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.591354000000003</c:v>
+                  <c:v>29.182279999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.938308999999997</c:v>
+                  <c:v>32.058422</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.965606999999999</c:v>
+                  <c:v>32.7729</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32.823310999999997</c:v>
+                  <c:v>33.134014000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.511471</c:v>
+                  <c:v>29.063071999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,67 +2326,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>32.648063999999998</c:v>
+                  <c:v>32.892646999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.990870999999999</c:v>
+                  <c:v>33.456001000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.951118000000001</c:v>
+                  <c:v>34.168976000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.037177999999997</c:v>
+                  <c:v>34.502116999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.939033999999999</c:v>
+                  <c:v>34.494083000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.909892999999997</c:v>
+                  <c:v>34.523617000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.927956000000002</c:v>
+                  <c:v>35.091895999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.952656000000001</c:v>
+                  <c:v>24.018940000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.649708</c:v>
+                  <c:v>30.361965000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.863710000000001</c:v>
+                  <c:v>32.183281000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.991879999999998</c:v>
+                  <c:v>34.727454999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.050298999999999</c:v>
+                  <c:v>35.920475000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.088282</c:v>
+                  <c:v>36.406334000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.111031000000001</c:v>
+                  <c:v>36.957703000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.616150000000001</c:v>
+                  <c:v>21.222179000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.219684999999998</c:v>
+                  <c:v>26.213009</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.403433</c:v>
+                  <c:v>28.358971</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.507545</c:v>
+                  <c:v>29.705147</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.561672000000002</c:v>
+                  <c:v>30.502040999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.560247</c:v>
+                  <c:v>30.806025999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.658581000000002</c:v>
+                  <c:v>30.855761000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2466,7 +2465,6 @@
         <c:axId val="472471568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5237,7 +5235,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F22"/>
+      <selection activeCell="F2" sqref="F2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5258,19 +5256,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>83873</v>
+        <v>81342</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>83873</v>
+        <v>81342</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>83873</v>
+        <v>81342</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5278,19 +5276,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>81650</v>
+        <v>83421</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>69603</v>
+        <v>78199</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>69603</v>
+        <v>78199</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5298,19 +5296,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>81698</v>
+        <v>83438</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>64558</v>
+        <v>81695</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>64558</v>
+        <v>81695</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5318,19 +5316,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>82079</v>
+        <v>83654</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>59142</v>
+        <v>81021</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>59142</v>
+        <v>81021</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5338,19 +5336,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>81876</v>
+        <v>83823</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>81876</v>
+        <v>83823</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>64302</v>
+        <v>79009</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5358,19 +5356,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>81631</v>
+        <v>83061</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>70167</v>
+        <v>78171</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>65438</v>
+        <v>81037</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5378,19 +5376,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>81785</v>
+        <v>80278</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>53893</v>
+        <v>80134</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>53513</v>
+        <v>79972</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5398,19 +5396,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61195</v>
+        <v>77594</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>160540</v>
+        <v>80059</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>161619</v>
+        <v>80522</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5418,19 +5416,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62623</v>
+        <v>77068</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>62623</v>
+        <v>77068</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>44083</v>
+        <v>79832</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5438,19 +5436,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>61637</v>
+        <v>78766</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>40564</v>
+        <v>74409</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>32142</v>
+        <v>81977</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5458,19 +5456,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>62660</v>
+        <v>78626</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>38869</v>
+        <v>73624</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>27760</v>
+        <v>76938</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5478,19 +5476,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61612</v>
+        <v>78581</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>37317</v>
+        <v>72091</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>25489</v>
+        <v>81716</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5498,19 +5496,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>61094</v>
+        <v>78908</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>61094</v>
+        <v>78908</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>23290</v>
+        <v>73925</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5518,19 +5516,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>60562</v>
+        <v>78545</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>43085</v>
+        <v>76290</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>21426</v>
+        <v>82606</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5538,19 +5536,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>83790</v>
+        <v>82980</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>173372</v>
+        <v>122776</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>176026</v>
+        <v>81339</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5558,19 +5556,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>84187</v>
+        <v>80967</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>84144</v>
+        <v>79490</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>82512</v>
+        <v>80225</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5578,19 +5576,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83177</v>
+        <v>83880</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>83177</v>
+        <v>83880</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>74467</v>
+        <v>80798</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5598,19 +5596,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83341</v>
+        <v>79939</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>73676</v>
+        <v>80757</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>68746</v>
+        <v>84661</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5618,19 +5616,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84568</v>
+        <v>80709</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>70616</v>
+        <v>84001</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>67903</v>
+        <v>82641</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5638,19 +5636,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>86108</v>
+        <v>81513</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>67970</v>
+        <v>83352</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>65891</v>
+        <v>81634</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5658,19 +5656,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>85554</v>
+        <v>82126</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>85554</v>
+        <v>82126</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>67312</v>
+        <v>80497</v>
       </c>
     </row>
   </sheetData>
@@ -5684,7 +5682,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F22"/>
+      <selection activeCell="F2" sqref="F2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5705,19 +5703,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29701</v>
+        <v>31324</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>29701</v>
+        <v>31324</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29701</v>
+        <v>31324</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5725,19 +5723,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>29225</v>
+        <v>31502</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>20933</v>
+        <v>31651</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>20933</v>
+        <v>31651</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5745,19 +5743,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29517</v>
+        <v>31696</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>19289</v>
+        <v>32240</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>19289</v>
+        <v>32240</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5765,19 +5763,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29652</v>
+        <v>31765</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>16751</v>
+        <v>31098</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>16751</v>
+        <v>31098</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5785,19 +5783,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29887</v>
+        <v>32071</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>29887</v>
+        <v>32071</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>18263</v>
+        <v>31407</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5805,19 +5803,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30331</v>
+        <v>31714</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>17633</v>
+        <v>30555</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>17610</v>
+        <v>31751</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5825,19 +5823,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29476</v>
+        <v>32238</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>15642</v>
+        <v>30749</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>15897</v>
+        <v>32790</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5845,19 +5843,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22210</v>
+        <v>30294</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>46264</v>
+        <v>31997</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>46395</v>
+        <v>32421</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5865,19 +5863,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22715</v>
+        <v>30265</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>22715</v>
+        <v>30265</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>11946</v>
+        <v>33397</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5885,19 +5883,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22463</v>
+        <v>30907</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>11274</v>
+        <v>32920</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>9057</v>
+        <v>31886</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5905,19 +5903,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22488</v>
+        <v>30705</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>9140</v>
+        <v>28797</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>8001</v>
+        <v>34355</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5925,19 +5923,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22500</v>
+        <v>30553</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>9332</v>
+        <v>26747</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>8379</v>
+        <v>32826</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5945,19 +5943,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22756</v>
+        <v>30610</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>22756</v>
+        <v>30610</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>8242</v>
+        <v>30940</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5965,19 +5963,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22410</v>
+        <v>30679</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>11678</v>
+        <v>30576</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>6871</v>
+        <v>26603</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5985,19 +5983,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29964</v>
+        <v>32126</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>50466</v>
+        <v>32500</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>51000</v>
+        <v>52535</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6005,19 +6003,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30196</v>
+        <v>31387</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>24108</v>
+        <v>31960</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>23224</v>
+        <v>32219</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6025,19 +6023,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30541</v>
+        <v>32671</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>30541</v>
+        <v>32671</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>21119</v>
+        <v>31424</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6045,19 +6043,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30653</v>
+        <v>32542</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>20489</v>
+        <v>32546</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>21081</v>
+        <v>31743</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6065,19 +6063,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31130</v>
+        <v>32337</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>19545</v>
+        <v>31626</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>21191</v>
+        <v>33054</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6085,19 +6083,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31458</v>
+        <v>32326</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>21572</v>
+        <v>32290</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>21675</v>
+        <v>32373</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6105,19 +6103,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31581</v>
+        <v>32467</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>31581</v>
+        <v>32467</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>21802</v>
+        <v>32286</v>
       </c>
     </row>
   </sheetData>
@@ -6131,7 +6129,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="F2" sqref="F2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6152,19 +6150,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.654021999999998</v>
+        <v>32.922676000000003</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>33.654021999999998</v>
+        <v>32.922676000000003</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>33.654021999999998</v>
+        <v>32.922676000000003</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6172,19 +6170,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33.708754999999996</v>
+        <v>31.373069999999998</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>33.832417</v>
+        <v>32.792614</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>33.832417</v>
+        <v>32.792614</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6192,19 +6190,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33.760139000000002</v>
+        <v>31.095580999999999</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>33.763565</v>
+        <v>33.232483000000002</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>33.763565</v>
+        <v>33.232483000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6212,19 +6210,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>33.721733</v>
+        <v>31.294239000000001</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>33.776321000000003</v>
+        <v>33.418678</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>33.776321000000003</v>
+        <v>33.418678</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6232,19 +6230,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>33.733348999999997</v>
+        <v>31.085417</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>33.733348999999997</v>
+        <v>31.085417</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>33.721691</v>
+        <v>33.284270999999997</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6252,19 +6250,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>33.680495999999998</v>
+        <v>31.188818000000001</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>33.882762999999997</v>
+        <v>32.239235000000001</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>33.596901000000003</v>
+        <v>33.123874999999998</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6272,19 +6270,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.682056000000003</v>
+        <v>31.16696</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>33.926208000000003</v>
+        <v>33.238807999999999</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>33.680523000000001</v>
+        <v>33.753342000000004</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6292,19 +6290,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>36.356228000000002</v>
+        <v>36.570141</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>28.76708</v>
+        <v>22.919419999999999</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>28.603543999999999</v>
+        <v>22.994844000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6312,19 +6310,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.383006999999999</v>
+        <v>36.549689999999998</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>36.383006999999999</v>
+        <v>36.549689999999998</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>30.480953</v>
+        <v>29.168758</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6332,19 +6330,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.353642000000001</v>
+        <v>36.718273000000003</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>36.762630000000001</v>
+        <v>38.256050000000002</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>31.097985999999999</v>
+        <v>32.136276000000002</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6352,19 +6350,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.379105000000003</v>
+        <v>36.736449999999998</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>36.875450000000001</v>
+        <v>39.004283999999998</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>31.399291999999999</v>
+        <v>33.205719000000002</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6372,19 +6370,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.377887999999999</v>
+        <v>36.768166000000001</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>36.966576000000003</v>
+        <v>39.247245999999997</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>31.589500000000001</v>
+        <v>34.017895000000003</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6392,19 +6390,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.452171</v>
+        <v>36.814216999999999</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>36.452171</v>
+        <v>36.814216999999999</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>31.729956000000001</v>
+        <v>34.439681999999998</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6412,19 +6410,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.426453000000002</v>
+        <v>36.797150000000002</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>36.854115</v>
+        <v>38.412365000000001</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>31.826536000000001</v>
+        <v>34.759304</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6432,19 +6430,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.683318999999997</v>
+        <v>30.933146000000001</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>28.658626999999999</v>
+        <v>21.073996999999999</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>28.317527999999999</v>
+        <v>20.805440999999998</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6452,19 +6450,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.678863999999997</v>
+        <v>31.153697999999999</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>30.031544</v>
+        <v>26.352744999999999</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>29.531122</v>
+        <v>25.39809</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6472,19 +6470,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.642029000000001</v>
+        <v>30.899647000000002</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>33.642029000000001</v>
+        <v>30.899647000000002</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>29.914370999999999</v>
+        <v>27.031410000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6492,19 +6490,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.607470999999997</v>
+        <v>30.831762000000001</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>33.793998999999999</v>
+        <v>32.086844999999997</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>30.1511</v>
+        <v>28.770468000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6512,19 +6510,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.540855000000001</v>
+        <v>30.786688000000002</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>33.751159999999999</v>
+        <v>32.393700000000003</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>30.318769</v>
+        <v>29.359988999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6532,19 +6530,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.517620000000001</v>
+        <v>30.791183</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>33.613621000000002</v>
+        <v>32.549030000000002</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>30.407647999999998</v>
+        <v>29.705095</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6552,19 +6550,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.467350000000003</v>
+        <v>30.580539999999999</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>33.467350000000003</v>
+        <v>30.580539999999999</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>30.475828</v>
+        <v>29.865494000000002</v>
       </c>
     </row>
   </sheetData>
@@ -6578,7 +6576,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6599,19 +6597,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.648063999999998</v>
+        <v>32.892646999999997</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>32.648063999999998</v>
+        <v>32.892646999999997</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32.648063999999998</v>
+        <v>32.892646999999997</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6619,19 +6617,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>32.633194000000003</v>
+        <v>29.850273000000001</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>32.990870999999999</v>
+        <v>33.456001000000001</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>32.990870999999999</v>
+        <v>33.456001000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6639,19 +6637,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32.743873999999998</v>
+        <v>29.829595999999999</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>32.951118000000001</v>
+        <v>34.168976000000001</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>32.951118000000001</v>
+        <v>34.168976000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6659,19 +6657,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32.678683999999997</v>
+        <v>29.877098</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>33.037177999999997</v>
+        <v>34.502116999999998</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>33.037177999999997</v>
+        <v>34.502116999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6679,19 +6677,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>32.656384000000003</v>
+        <v>29.718741999999999</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>32.656384000000003</v>
+        <v>29.718741999999999</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>32.939033999999999</v>
+        <v>34.494083000000003</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6699,19 +6697,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>32.684479000000003</v>
+        <v>29.699404000000001</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>33.010207999999999</v>
+        <v>32.801926000000002</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>32.909892999999997</v>
+        <v>34.523617000000002</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6719,19 +6717,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32.651062000000003</v>
+        <v>29.683685000000001</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>32.989372000000003</v>
+        <v>34.135883</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>32.927956000000002</v>
+        <v>35.091895999999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6739,19 +6737,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>34.198588999999998</v>
+        <v>35.040691000000002</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>30.103304000000001</v>
+        <v>23.665482000000001</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>29.952656000000001</v>
+        <v>24.018940000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6759,19 +6757,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.212685</v>
+        <v>35.052055000000003</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>34.212685</v>
+        <v>35.052055000000003</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>30.649708</v>
+        <v>30.361965000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6779,19 +6777,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.219101000000002</v>
+        <v>35.014301000000003</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>34.433135999999998</v>
+        <v>37.925635999999997</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>30.863710000000001</v>
+        <v>32.183281000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6799,19 +6797,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.184334</v>
+        <v>35.010815000000001</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>34.498759999999997</v>
+        <v>39.509425999999998</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>30.991879999999998</v>
+        <v>34.727454999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6819,19 +6817,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.235016000000002</v>
+        <v>35.026440000000001</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>34.573020999999997</v>
+        <v>40.210692999999999</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>31.050298999999999</v>
+        <v>35.920475000000003</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6839,19 +6837,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.215752000000002</v>
+        <v>35.042693999999997</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>34.215752000000002</v>
+        <v>35.042693999999997</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>31.088282</v>
+        <v>36.406334000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6859,19 +6857,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.192917000000001</v>
+        <v>34.995995000000001</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>34.483459000000003</v>
+        <v>37.853518999999999</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>31.111031000000001</v>
+        <v>36.957703000000002</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6879,19 +6877,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.567386999999997</v>
+        <v>29.619909</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>29.416142000000001</v>
+        <v>20.299306999999999</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>28.616150000000001</v>
+        <v>21.222179000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6899,19 +6897,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.550078999999997</v>
+        <v>29.190318999999999</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>30.118883</v>
+        <v>24.367775000000002</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>29.219684999999998</v>
+        <v>26.213009</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6919,19 +6917,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.591354000000003</v>
+        <v>29.182279999999999</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>32.591354000000003</v>
+        <v>29.182279999999999</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>29.403433</v>
+        <v>28.358971</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6939,19 +6937,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.579734999999999</v>
+        <v>29.235727000000001</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>32.938308999999997</v>
+        <v>32.058422</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>29.507545</v>
+        <v>29.705147</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6959,19 +6957,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.460121000000001</v>
+        <v>29.139481</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>32.965606999999999</v>
+        <v>32.7729</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>29.561672000000002</v>
+        <v>30.502040999999998</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6979,19 +6977,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.561461999999999</v>
+        <v>29.256661999999999</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>32.823310999999997</v>
+        <v>33.134014000000001</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>29.560247</v>
+        <v>30.806025999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6999,19 +6997,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.511471</v>
+        <v>29.063071999999998</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>32.511471</v>
+        <v>29.063071999999998</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>29.658581000000002</v>
+        <v>30.855761000000001</v>
       </c>
     </row>
   </sheetData>

--- a/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
+++ b/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CIF - bitcount" sheetId="1" r:id="rId1"/>
     <sheet name="QCIF- bitcount" sheetId="2" r:id="rId2"/>
     <sheet name="CIF - psnr" sheetId="4" r:id="rId3"/>
     <sheet name="QCIF - psnr" sheetId="5" r:id="rId4"/>
+    <sheet name="Constant qp BitCount" sheetId="6" r:id="rId5"/>
+    <sheet name="Constant qp PSNR" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>I_PERIOD_1</t>
   </si>
@@ -36,6 +38,18 @@
   </si>
   <si>
     <t>I_PERIOD_21</t>
+  </si>
+  <si>
+    <t>Costant Qp</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Rate control</t>
+  </si>
+  <si>
+    <t>Rate Control</t>
   </si>
 </sst>
 </file>
@@ -129,7 +143,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Frame - CIF</a:t>
+              <a:t> Frame - CIF Rate Control</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -754,7 +768,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Frame - QCIF</a:t>
+              <a:t> Frame - QCIF Rate Control</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1380,7 +1394,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Frame - CIF</a:t>
+              <a:t> Frame - CIF Rate Control</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2006,7 +2020,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Frame - QCIF</a:t>
+              <a:t> Frame - QCIF Rate Control</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2395,6 +2409,991 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-198D-4628-9217-65C85412046C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="472469928"/>
+        <c:axId val="472471568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="472469928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472471568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="472471568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472469928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bitcount per</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Frame I-Period_21</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RateControl</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Constant qp BitCount'!$P$3:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>81342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80522</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79832</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81977</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76938</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81716</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73925</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82606</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81339</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80225</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84661</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>82641</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81634</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7DA-46B0-B3A4-E291B99D355C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>QP-4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Constant qp BitCount'!$F$3:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>83873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65438</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161619</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27760</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25489</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23290</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21426</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>176026</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82512</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74467</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68746</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67903</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65891</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C7DA-46B0-B3A4-E291B99D355C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="472469928"/>
+        <c:axId val="472471568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="472469928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472471568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="472471568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472469928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>PSNR per Frame I-Period_21</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rate Control</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Constant qp PSNR'!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>32.922676000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.792614</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.232483000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.418678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.284270999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.123874999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.753342000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.994844000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.168758</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.136276000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.205719000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.017895000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.439681999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.759304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.805440999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.39809</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.031410000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.770468000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.359988999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.705095</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.865494000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F713-4D6A-9FA3-E860749E504A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>QP-4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Constant qp PSNR'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>33.654021999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.832417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.763565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.776321000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.721691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.596901000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.680523000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.603543999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.480953</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.097985999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.399291999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.589500000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.729956000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.826536000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.317527999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.531122</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.914370999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.1511</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.318769</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.407647999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.475828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F713-4D6A-9FA3-E860749E504A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2753,6 +3752,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4263,6 +5342,1012 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4935,6 +7020,92 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE3E938-8689-4F50-883F-C57EE6C3B466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DADDA05-2F4D-4CC4-8AA5-CEAA532A74AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6575,8 +8746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7016,4 +9187,1094 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>437383</v>
+      </c>
+      <c r="C3">
+        <v>316806</v>
+      </c>
+      <c r="D3">
+        <v>220803</v>
+      </c>
+      <c r="E3">
+        <v>141238</v>
+      </c>
+      <c r="F3">
+        <v>83873</v>
+      </c>
+      <c r="G3">
+        <v>50332</v>
+      </c>
+      <c r="H3">
+        <v>31719</v>
+      </c>
+      <c r="I3">
+        <v>21820</v>
+      </c>
+      <c r="P3">
+        <v>81342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>405329</v>
+      </c>
+      <c r="C4">
+        <v>286482</v>
+      </c>
+      <c r="D4">
+        <v>195337</v>
+      </c>
+      <c r="E4">
+        <v>126466</v>
+      </c>
+      <c r="F4">
+        <v>69603</v>
+      </c>
+      <c r="G4">
+        <v>49151</v>
+      </c>
+      <c r="H4">
+        <v>39783</v>
+      </c>
+      <c r="I4">
+        <v>37467</v>
+      </c>
+      <c r="P4">
+        <v>78199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>400378</v>
+      </c>
+      <c r="C5">
+        <v>283820</v>
+      </c>
+      <c r="D5">
+        <v>188992</v>
+      </c>
+      <c r="E5">
+        <v>115737</v>
+      </c>
+      <c r="F5">
+        <v>64558</v>
+      </c>
+      <c r="G5">
+        <v>43637</v>
+      </c>
+      <c r="H5">
+        <v>35110</v>
+      </c>
+      <c r="I5">
+        <v>35322</v>
+      </c>
+      <c r="P5">
+        <v>81695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>381247</v>
+      </c>
+      <c r="C6">
+        <v>265941</v>
+      </c>
+      <c r="D6">
+        <v>176791</v>
+      </c>
+      <c r="E6">
+        <v>104249</v>
+      </c>
+      <c r="F6">
+        <v>59142</v>
+      </c>
+      <c r="G6">
+        <v>38760</v>
+      </c>
+      <c r="H6">
+        <v>33336</v>
+      </c>
+      <c r="I6">
+        <v>32589</v>
+      </c>
+      <c r="P6">
+        <v>81021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>404870</v>
+      </c>
+      <c r="C7">
+        <v>280502</v>
+      </c>
+      <c r="D7">
+        <v>188152</v>
+      </c>
+      <c r="E7">
+        <v>114378</v>
+      </c>
+      <c r="F7">
+        <v>64302</v>
+      </c>
+      <c r="G7">
+        <v>39236</v>
+      </c>
+      <c r="H7">
+        <v>31801</v>
+      </c>
+      <c r="I7">
+        <v>33020</v>
+      </c>
+      <c r="P7">
+        <v>79009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>404423</v>
+      </c>
+      <c r="C8">
+        <v>281611</v>
+      </c>
+      <c r="D8">
+        <v>191837</v>
+      </c>
+      <c r="E8">
+        <v>116837</v>
+      </c>
+      <c r="F8">
+        <v>65438</v>
+      </c>
+      <c r="G8">
+        <v>38231</v>
+      </c>
+      <c r="H8">
+        <v>32211</v>
+      </c>
+      <c r="I8">
+        <v>31872</v>
+      </c>
+      <c r="P8">
+        <v>81037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>351232</v>
+      </c>
+      <c r="C9">
+        <v>237979</v>
+      </c>
+      <c r="D9">
+        <v>152594</v>
+      </c>
+      <c r="E9">
+        <v>92309</v>
+      </c>
+      <c r="F9">
+        <v>53513</v>
+      </c>
+      <c r="G9">
+        <v>37562</v>
+      </c>
+      <c r="H9">
+        <v>30008</v>
+      </c>
+      <c r="I9">
+        <v>30227</v>
+      </c>
+      <c r="P9">
+        <v>79972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>585636</v>
+      </c>
+      <c r="C10">
+        <v>443583</v>
+      </c>
+      <c r="D10">
+        <v>326211</v>
+      </c>
+      <c r="E10">
+        <v>236491</v>
+      </c>
+      <c r="F10">
+        <v>161619</v>
+      </c>
+      <c r="G10">
+        <v>99147</v>
+      </c>
+      <c r="H10">
+        <v>55450</v>
+      </c>
+      <c r="I10">
+        <v>33008</v>
+      </c>
+      <c r="P10">
+        <v>80522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>199259</v>
+      </c>
+      <c r="C11">
+        <v>131883</v>
+      </c>
+      <c r="D11">
+        <v>97366</v>
+      </c>
+      <c r="E11">
+        <v>63914</v>
+      </c>
+      <c r="F11">
+        <v>44083</v>
+      </c>
+      <c r="G11">
+        <v>33513</v>
+      </c>
+      <c r="H11">
+        <v>28803</v>
+      </c>
+      <c r="I11">
+        <v>24506</v>
+      </c>
+      <c r="P11">
+        <v>79832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>163785</v>
+      </c>
+      <c r="C12">
+        <v>95979</v>
+      </c>
+      <c r="D12">
+        <v>66039</v>
+      </c>
+      <c r="E12">
+        <v>43474</v>
+      </c>
+      <c r="F12">
+        <v>32142</v>
+      </c>
+      <c r="G12">
+        <v>25783</v>
+      </c>
+      <c r="H12">
+        <v>23750</v>
+      </c>
+      <c r="I12">
+        <v>21377</v>
+      </c>
+      <c r="P12">
+        <v>81977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>153023</v>
+      </c>
+      <c r="C13">
+        <v>82899</v>
+      </c>
+      <c r="D13">
+        <v>52984</v>
+      </c>
+      <c r="E13">
+        <v>37430</v>
+      </c>
+      <c r="F13">
+        <v>27760</v>
+      </c>
+      <c r="G13">
+        <v>23758</v>
+      </c>
+      <c r="H13">
+        <v>20918</v>
+      </c>
+      <c r="I13">
+        <v>19422</v>
+      </c>
+      <c r="P13">
+        <v>76938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>151808</v>
+      </c>
+      <c r="C14">
+        <v>80689</v>
+      </c>
+      <c r="D14">
+        <v>49580</v>
+      </c>
+      <c r="E14">
+        <v>35897</v>
+      </c>
+      <c r="F14">
+        <v>25489</v>
+      </c>
+      <c r="G14">
+        <v>22162</v>
+      </c>
+      <c r="H14">
+        <v>19270</v>
+      </c>
+      <c r="I14">
+        <v>17176</v>
+      </c>
+      <c r="P14">
+        <v>81716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>145457</v>
+      </c>
+      <c r="C15">
+        <v>75891</v>
+      </c>
+      <c r="D15">
+        <v>42928</v>
+      </c>
+      <c r="E15">
+        <v>30958</v>
+      </c>
+      <c r="F15">
+        <v>23290</v>
+      </c>
+      <c r="G15">
+        <v>19398</v>
+      </c>
+      <c r="H15">
+        <v>17123</v>
+      </c>
+      <c r="I15">
+        <v>17004</v>
+      </c>
+      <c r="P15">
+        <v>73925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>146647</v>
+      </c>
+      <c r="C16">
+        <v>74525</v>
+      </c>
+      <c r="D16">
+        <v>42069</v>
+      </c>
+      <c r="E16">
+        <v>27722</v>
+      </c>
+      <c r="F16">
+        <v>21426</v>
+      </c>
+      <c r="G16">
+        <v>18565</v>
+      </c>
+      <c r="H16">
+        <v>16255</v>
+      </c>
+      <c r="I16">
+        <v>16459</v>
+      </c>
+      <c r="P16">
+        <v>82606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>635621</v>
+      </c>
+      <c r="C17">
+        <v>485238</v>
+      </c>
+      <c r="D17">
+        <v>356936</v>
+      </c>
+      <c r="E17">
+        <v>257443</v>
+      </c>
+      <c r="F17">
+        <v>176026</v>
+      </c>
+      <c r="G17">
+        <v>107330</v>
+      </c>
+      <c r="H17">
+        <v>58451</v>
+      </c>
+      <c r="I17">
+        <v>34572</v>
+      </c>
+      <c r="P17">
+        <v>81339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>428841</v>
+      </c>
+      <c r="C18">
+        <v>310415</v>
+      </c>
+      <c r="D18">
+        <v>218245</v>
+      </c>
+      <c r="E18">
+        <v>143184</v>
+      </c>
+      <c r="F18">
+        <v>82512</v>
+      </c>
+      <c r="G18">
+        <v>48008</v>
+      </c>
+      <c r="H18">
+        <v>31846</v>
+      </c>
+      <c r="I18">
+        <v>26665</v>
+      </c>
+      <c r="P18">
+        <v>80225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>431949</v>
+      </c>
+      <c r="C19">
+        <v>308809</v>
+      </c>
+      <c r="D19">
+        <v>211765</v>
+      </c>
+      <c r="E19">
+        <v>131762</v>
+      </c>
+      <c r="F19">
+        <v>74467</v>
+      </c>
+      <c r="G19">
+        <v>42582</v>
+      </c>
+      <c r="H19">
+        <v>28672</v>
+      </c>
+      <c r="I19">
+        <v>25374</v>
+      </c>
+      <c r="P19">
+        <v>80798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>422521</v>
+      </c>
+      <c r="C20">
+        <v>301904</v>
+      </c>
+      <c r="D20">
+        <v>204743</v>
+      </c>
+      <c r="E20">
+        <v>124552</v>
+      </c>
+      <c r="F20">
+        <v>68746</v>
+      </c>
+      <c r="G20">
+        <v>37557</v>
+      </c>
+      <c r="H20">
+        <v>27208</v>
+      </c>
+      <c r="I20">
+        <v>23234</v>
+      </c>
+      <c r="P20">
+        <v>84661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>424918</v>
+      </c>
+      <c r="C21">
+        <v>298756</v>
+      </c>
+      <c r="D21">
+        <v>200171</v>
+      </c>
+      <c r="E21">
+        <v>126486</v>
+      </c>
+      <c r="F21">
+        <v>67903</v>
+      </c>
+      <c r="G21">
+        <v>38392</v>
+      </c>
+      <c r="H21">
+        <v>26629</v>
+      </c>
+      <c r="I21">
+        <v>23376</v>
+      </c>
+      <c r="P21">
+        <v>82641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>422774</v>
+      </c>
+      <c r="C22">
+        <v>299169</v>
+      </c>
+      <c r="D22">
+        <v>200113</v>
+      </c>
+      <c r="E22">
+        <v>122565</v>
+      </c>
+      <c r="F22">
+        <v>65891</v>
+      </c>
+      <c r="G22">
+        <v>38226</v>
+      </c>
+      <c r="H22">
+        <v>26597</v>
+      </c>
+      <c r="I22">
+        <v>21917</v>
+      </c>
+      <c r="P22">
+        <v>81634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>431542</v>
+      </c>
+      <c r="C23">
+        <v>302332</v>
+      </c>
+      <c r="D23">
+        <v>202576</v>
+      </c>
+      <c r="E23">
+        <v>123657</v>
+      </c>
+      <c r="F23">
+        <v>67312</v>
+      </c>
+      <c r="G23">
+        <v>38029</v>
+      </c>
+      <c r="H23">
+        <v>26899</v>
+      </c>
+      <c r="I23">
+        <v>23745</v>
+      </c>
+      <c r="P23">
+        <v>80497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B3:B23)</f>
+        <v>7528643</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:P24" si="0">SUM(C3:C23)</f>
+        <v>5245213</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>3586232</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>2316749</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1399095</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>889359</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>641839</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>550152</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>1691586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>P24/B24</f>
+        <v>0.22468670648880548</v>
+      </c>
+      <c r="C25">
+        <f>P24/C24</f>
+        <v>0.32250091655000473</v>
+      </c>
+      <c r="D25">
+        <f>P24/D24</f>
+        <v>0.47168894817736273</v>
+      </c>
+      <c r="E25">
+        <f>P24/E24</f>
+        <v>0.7301550577986653</v>
+      </c>
+      <c r="F25">
+        <f>P24/F24</f>
+        <v>1.2090572834582356</v>
+      </c>
+      <c r="G25">
+        <f>P24/G24</f>
+        <v>1.9020283147750234</v>
+      </c>
+      <c r="H25">
+        <f>P24/H24</f>
+        <v>2.6355300939955346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>33.654021999999998</v>
+      </c>
+      <c r="C2">
+        <v>32.922676000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>33.832417</v>
+      </c>
+      <c r="C3">
+        <v>32.792614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>33.763565</v>
+      </c>
+      <c r="C4">
+        <v>33.232483000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>33.776321000000003</v>
+      </c>
+      <c r="C5">
+        <v>33.418678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>33.721691</v>
+      </c>
+      <c r="C6">
+        <v>33.284270999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>33.596901000000003</v>
+      </c>
+      <c r="C7">
+        <v>33.123874999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>33.680523000000001</v>
+      </c>
+      <c r="C8">
+        <v>33.753342000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>28.603543999999999</v>
+      </c>
+      <c r="C9">
+        <v>22.994844000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>30.480953</v>
+      </c>
+      <c r="C10">
+        <v>29.168758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>31.097985999999999</v>
+      </c>
+      <c r="C11">
+        <v>32.136276000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>31.399291999999999</v>
+      </c>
+      <c r="C12">
+        <v>33.205719000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>31.589500000000001</v>
+      </c>
+      <c r="C13">
+        <v>34.017895000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>31.729956000000001</v>
+      </c>
+      <c r="C14">
+        <v>34.439681999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>31.826536000000001</v>
+      </c>
+      <c r="C15">
+        <v>34.759304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>28.317527999999999</v>
+      </c>
+      <c r="C16">
+        <v>20.805440999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>29.531122</v>
+      </c>
+      <c r="C17">
+        <v>25.39809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>29.914370999999999</v>
+      </c>
+      <c r="C18">
+        <v>27.031410000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>30.1511</v>
+      </c>
+      <c r="C19">
+        <v>28.770468000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>30.318769</v>
+      </c>
+      <c r="C20">
+        <v>29.359988999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>30.407647999999998</v>
+      </c>
+      <c r="C21">
+        <v>29.705095</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>30.475828</v>
+      </c>
+      <c r="C22">
+        <v>29.865494000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
+++ b/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CIF - bitcount" sheetId="1" r:id="rId1"/>
@@ -9193,8 +9193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10025,8 +10025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
+++ b/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Source\Repos\ECE1718H\goldendata\Assigment3_E1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CIF - bitcount" sheetId="1" r:id="rId1"/>
@@ -231,64 +231,64 @@
                   <c:v>81342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83421</c:v>
+                  <c:v>84595</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83438</c:v>
+                  <c:v>80962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83654</c:v>
+                  <c:v>82299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83823</c:v>
+                  <c:v>80978</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83061</c:v>
+                  <c:v>83020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80278</c:v>
+                  <c:v>80925</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77594</c:v>
+                  <c:v>77491</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77068</c:v>
+                  <c:v>75549</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78766</c:v>
+                  <c:v>75578</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78626</c:v>
+                  <c:v>77700</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78581</c:v>
+                  <c:v>76962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78908</c:v>
+                  <c:v>76412</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>78545</c:v>
+                  <c:v>76591</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>82980</c:v>
+                  <c:v>83125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80967</c:v>
+                  <c:v>82578</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83880</c:v>
+                  <c:v>82174</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79939</c:v>
+                  <c:v>83413</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80709</c:v>
+                  <c:v>83933</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81513</c:v>
+                  <c:v>83668</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82126</c:v>
+                  <c:v>80411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -348,64 +348,64 @@
                   <c:v>81342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78199</c:v>
+                  <c:v>79228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81695</c:v>
+                  <c:v>83375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81021</c:v>
+                  <c:v>79187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83823</c:v>
+                  <c:v>80978</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78171</c:v>
+                  <c:v>78584</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80134</c:v>
+                  <c:v>77552</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80059</c:v>
+                  <c:v>80013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77068</c:v>
+                  <c:v>75549</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74409</c:v>
+                  <c:v>74458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73624</c:v>
+                  <c:v>68403</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72091</c:v>
+                  <c:v>64749</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78908</c:v>
+                  <c:v>76412</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76290</c:v>
+                  <c:v>73323</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122776</c:v>
+                  <c:v>80796</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>79490</c:v>
+                  <c:v>81326</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83880</c:v>
+                  <c:v>82174</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>80757</c:v>
+                  <c:v>81990</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84001</c:v>
+                  <c:v>82465</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>83352</c:v>
+                  <c:v>81220</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82126</c:v>
+                  <c:v>80411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -465,64 +465,64 @@
                   <c:v>81342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78199</c:v>
+                  <c:v>79228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81695</c:v>
+                  <c:v>83375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81021</c:v>
+                  <c:v>79187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79009</c:v>
+                  <c:v>83509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81037</c:v>
+                  <c:v>82348</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79972</c:v>
+                  <c:v>78191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80522</c:v>
+                  <c:v>80028</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79832</c:v>
+                  <c:v>80060</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81977</c:v>
+                  <c:v>81075</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76938</c:v>
+                  <c:v>83297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81716</c:v>
+                  <c:v>71991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73925</c:v>
+                  <c:v>77777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>82606</c:v>
+                  <c:v>73438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>81339</c:v>
+                  <c:v>80727</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80225</c:v>
+                  <c:v>83899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80798</c:v>
+                  <c:v>84656</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>84661</c:v>
+                  <c:v>80427</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82641</c:v>
+                  <c:v>82393</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81634</c:v>
+                  <c:v>81979</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80497</c:v>
+                  <c:v>85330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,64 +857,64 @@
                   <c:v>31324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31502</c:v>
+                  <c:v>30939</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31696</c:v>
+                  <c:v>31214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31765</c:v>
+                  <c:v>31400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32071</c:v>
+                  <c:v>31764</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31714</c:v>
+                  <c:v>32130</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32238</c:v>
+                  <c:v>31145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30294</c:v>
+                  <c:v>31572</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30265</c:v>
+                  <c:v>32031</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30907</c:v>
+                  <c:v>31875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30705</c:v>
+                  <c:v>31905</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30553</c:v>
+                  <c:v>31700</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30610</c:v>
+                  <c:v>31855</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30679</c:v>
+                  <c:v>30134</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32126</c:v>
+                  <c:v>31725</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31387</c:v>
+                  <c:v>31970</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32671</c:v>
+                  <c:v>32078</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32542</c:v>
+                  <c:v>32381</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32337</c:v>
+                  <c:v>31587</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32326</c:v>
+                  <c:v>31602</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32467</c:v>
+                  <c:v>32207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,64 +974,64 @@
                   <c:v>31324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31651</c:v>
+                  <c:v>31977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32240</c:v>
+                  <c:v>31787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31098</c:v>
+                  <c:v>32347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32071</c:v>
+                  <c:v>31764</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30555</c:v>
+                  <c:v>30874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30749</c:v>
+                  <c:v>30067</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31997</c:v>
+                  <c:v>32037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30265</c:v>
+                  <c:v>32031</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32920</c:v>
+                  <c:v>27933</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28797</c:v>
+                  <c:v>29900</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26747</c:v>
+                  <c:v>24117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30610</c:v>
+                  <c:v>31855</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30576</c:v>
+                  <c:v>28018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32500</c:v>
+                  <c:v>32249</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31960</c:v>
+                  <c:v>33410</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>32078</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>32671</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>32546</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>31626</c:v>
+                  <c:v>32300</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32290</c:v>
+                  <c:v>31386</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32467</c:v>
+                  <c:v>32207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,64 +1091,64 @@
                   <c:v>31324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31651</c:v>
+                  <c:v>31977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32240</c:v>
+                  <c:v>31787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31098</c:v>
+                  <c:v>32347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31407</c:v>
+                  <c:v>31369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31751</c:v>
+                  <c:v>32987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32790</c:v>
+                  <c:v>30597</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32421</c:v>
+                  <c:v>32213</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33397</c:v>
+                  <c:v>32296</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31886</c:v>
+                  <c:v>33528</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34355</c:v>
+                  <c:v>35328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32826</c:v>
+                  <c:v>32199</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30940</c:v>
+                  <c:v>26898</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26603</c:v>
+                  <c:v>23635</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>52535</c:v>
+                  <c:v>32362</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32219</c:v>
+                  <c:v>32362</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31424</c:v>
+                  <c:v>34667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31743</c:v>
+                  <c:v>30961</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33054</c:v>
+                  <c:v>31734</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32373</c:v>
+                  <c:v>34462</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32286</c:v>
+                  <c:v>32727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1483,64 +1483,64 @@
                   <c:v>32.922676000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.373069999999998</c:v>
+                  <c:v>33.065178000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.095580999999999</c:v>
+                  <c:v>33.111407999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.294239000000001</c:v>
+                  <c:v>33.247089000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.085417</c:v>
+                  <c:v>33.061886000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.188818000000001</c:v>
+                  <c:v>33.189579000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.16696</c:v>
+                  <c:v>32.990250000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.570141</c:v>
+                  <c:v>37.519649999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.549689999999998</c:v>
+                  <c:v>37.477913000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.718273000000003</c:v>
+                  <c:v>37.431870000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.736449999999998</c:v>
+                  <c:v>37.536411000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.768166000000001</c:v>
+                  <c:v>37.600158999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.814216999999999</c:v>
+                  <c:v>37.764488</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.797150000000002</c:v>
+                  <c:v>37.750587000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.933146000000001</c:v>
+                  <c:v>32.999721999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.153697999999999</c:v>
+                  <c:v>32.989418000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.899647000000002</c:v>
+                  <c:v>32.905132000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.831762000000001</c:v>
+                  <c:v>32.944232999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.786688000000002</c:v>
+                  <c:v>32.892417999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.791183</c:v>
+                  <c:v>32.676471999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.580539999999999</c:v>
+                  <c:v>32.626807999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1600,64 +1600,64 @@
                   <c:v>32.922676000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.792614</c:v>
+                  <c:v>33.977221999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.232483000000002</c:v>
+                  <c:v>34.17915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.418678</c:v>
+                  <c:v>34.373299000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.085417</c:v>
+                  <c:v>33.061886000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.239235000000001</c:v>
+                  <c:v>34.032668999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.238807999999999</c:v>
+                  <c:v>34.421059</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.919419999999999</c:v>
+                  <c:v>23.96011</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.549689999999998</c:v>
+                  <c:v>37.477913000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.256050000000002</c:v>
+                  <c:v>39.012096</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.004283999999998</c:v>
+                  <c:v>39.414776000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.247245999999997</c:v>
+                  <c:v>39.556972999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.814216999999999</c:v>
+                  <c:v>37.764488</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.412365000000001</c:v>
+                  <c:v>39.167709000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.073996999999999</c:v>
+                  <c:v>22.779028</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.352744999999999</c:v>
+                  <c:v>27.471257999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.899647000000002</c:v>
+                  <c:v>32.905132000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.086844999999997</c:v>
+                  <c:v>33.956333000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.393700000000003</c:v>
+                  <c:v>34.035122000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32.549030000000002</c:v>
+                  <c:v>34.061698999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.580539999999999</c:v>
+                  <c:v>32.626807999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1717,64 +1717,64 @@
                   <c:v>32.922676000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.792614</c:v>
+                  <c:v>33.977221999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.232483000000002</c:v>
+                  <c:v>34.17915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.418678</c:v>
+                  <c:v>34.373299000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.284270999999997</c:v>
+                  <c:v>34.428963000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.123874999999998</c:v>
+                  <c:v>34.163581999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.753342000000004</c:v>
+                  <c:v>34.500087999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.994844000000001</c:v>
+                  <c:v>23.703171000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.168758</c:v>
+                  <c:v>28.713322000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.136276000000002</c:v>
+                  <c:v>30.99127</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.205719000000002</c:v>
+                  <c:v>32.092789000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.017895000000003</c:v>
+                  <c:v>32.687973</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.439681999999998</c:v>
+                  <c:v>33.095160999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.759304</c:v>
+                  <c:v>33.323334000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.805440999999998</c:v>
+                  <c:v>22.738938999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.39809</c:v>
+                  <c:v>27.305260000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.031410000000001</c:v>
+                  <c:v>28.801749999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.770468000000001</c:v>
+                  <c:v>29.536162999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.359988999999999</c:v>
+                  <c:v>30.126584999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.705095</c:v>
+                  <c:v>30.388870000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.865494000000002</c:v>
+                  <c:v>30.692335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2109,64 +2109,64 @@
                   <c:v>32.892646999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.850273000000001</c:v>
+                  <c:v>32.881531000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.829595999999999</c:v>
+                  <c:v>32.986404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.877098</c:v>
+                  <c:v>32.931587</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.718741999999999</c:v>
+                  <c:v>32.914935999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.699404000000001</c:v>
+                  <c:v>32.921638000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.683685000000001</c:v>
+                  <c:v>32.868858000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.040691000000002</c:v>
+                  <c:v>36.172652999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.052055000000003</c:v>
+                  <c:v>36.181156000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.014301000000003</c:v>
+                  <c:v>36.166392999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.010815000000001</c:v>
+                  <c:v>36.141379999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.026440000000001</c:v>
+                  <c:v>36.221694999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.042693999999997</c:v>
+                  <c:v>36.197647000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.995995000000001</c:v>
+                  <c:v>35.967609000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.619909</c:v>
+                  <c:v>32.800026000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.190318999999999</c:v>
+                  <c:v>32.793658999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.182279999999999</c:v>
+                  <c:v>32.833832000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.235727000000001</c:v>
+                  <c:v>32.843178000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.139481</c:v>
+                  <c:v>32.300201000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.256661999999999</c:v>
+                  <c:v>32.285674999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.063071999999998</c:v>
+                  <c:v>32.268013000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2226,64 +2226,64 @@
                   <c:v>32.892646999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.456001000000001</c:v>
+                  <c:v>34.352325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.168976000000001</c:v>
+                  <c:v>35.006332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.502116999999998</c:v>
+                  <c:v>35.557068000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.718741999999999</c:v>
+                  <c:v>32.914935999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.801926000000002</c:v>
+                  <c:v>34.665264000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.135883</c:v>
+                  <c:v>35.458809000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.665482000000001</c:v>
+                  <c:v>23.881233000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.052055000000003</c:v>
+                  <c:v>36.181156000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.925635999999997</c:v>
+                  <c:v>38.439255000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.509425999999998</c:v>
+                  <c:v>39.893386999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.210692999999999</c:v>
+                  <c:v>40.327922999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.042693999999997</c:v>
+                  <c:v>36.197647000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.853518999999999</c:v>
+                  <c:v>38.604725000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.299306999999999</c:v>
+                  <c:v>23.920334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.367775000000002</c:v>
+                  <c:v>28.541819</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.182279999999999</c:v>
+                  <c:v>32.833832000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.058422</c:v>
+                  <c:v>34.511825999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.7729</c:v>
+                  <c:v>34.956394000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.134014000000001</c:v>
+                  <c:v>34.556598999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.063071999999998</c:v>
+                  <c:v>32.268013000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2343,64 +2343,64 @@
                   <c:v>32.892646999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.456001000000001</c:v>
+                  <c:v>34.352325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.168976000000001</c:v>
+                  <c:v>35.006332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.502116999999998</c:v>
+                  <c:v>35.557068000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.494083000000003</c:v>
+                  <c:v>35.637794</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.523617000000002</c:v>
+                  <c:v>35.687389000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.091895999999998</c:v>
+                  <c:v>35.914794999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.018940000000001</c:v>
+                  <c:v>24.539190000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.361965000000001</c:v>
+                  <c:v>28.903199999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.183281000000001</c:v>
+                  <c:v>33.032898000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.727454999999999</c:v>
+                  <c:v>34.301861000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.920475000000003</c:v>
+                  <c:v>34.770195000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.406334000000001</c:v>
+                  <c:v>35.139763000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.957703000000002</c:v>
+                  <c:v>35.203026000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.222179000000001</c:v>
+                  <c:v>23.242861000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.213009</c:v>
+                  <c:v>27.613441000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.358971</c:v>
+                  <c:v>29.790945000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.705147</c:v>
+                  <c:v>30.262892000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.502040999999998</c:v>
+                  <c:v>30.463058</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.806025999999999</c:v>
+                  <c:v>31.125328</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.855761000000001</c:v>
+                  <c:v>31.308893000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2726,64 +2726,64 @@
                   <c:v>81342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78199</c:v>
+                  <c:v>79228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81695</c:v>
+                  <c:v>83375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81021</c:v>
+                  <c:v>79187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79009</c:v>
+                  <c:v>83509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81037</c:v>
+                  <c:v>82348</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79972</c:v>
+                  <c:v>78191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80522</c:v>
+                  <c:v>80028</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79832</c:v>
+                  <c:v>80060</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81977</c:v>
+                  <c:v>81075</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76938</c:v>
+                  <c:v>83297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81716</c:v>
+                  <c:v>71991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73925</c:v>
+                  <c:v>77777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>82606</c:v>
+                  <c:v>73438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>81339</c:v>
+                  <c:v>80727</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80225</c:v>
+                  <c:v>83899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80798</c:v>
+                  <c:v>84656</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>84661</c:v>
+                  <c:v>80427</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82641</c:v>
+                  <c:v>82393</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81634</c:v>
+                  <c:v>81979</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80497</c:v>
+                  <c:v>85330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3219,64 +3219,64 @@
                   <c:v>32.922676000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.792614</c:v>
+                  <c:v>33.977221999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.232483000000002</c:v>
+                  <c:v>34.17915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.418678</c:v>
+                  <c:v>34.373299000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.284270999999997</c:v>
+                  <c:v>34.428963000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.123874999999998</c:v>
+                  <c:v>34.163581999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.753342000000004</c:v>
+                  <c:v>34.500087999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.994844000000001</c:v>
+                  <c:v>23.703171000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.168758</c:v>
+                  <c:v>28.713322000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.136276000000002</c:v>
+                  <c:v>30.99127</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.205719000000002</c:v>
+                  <c:v>32.092789000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.017895000000003</c:v>
+                  <c:v>32.687973</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.439681999999998</c:v>
+                  <c:v>33.095160999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.759304</c:v>
+                  <c:v>33.323334000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.805440999999998</c:v>
+                  <c:v>22.738938999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.39809</c:v>
+                  <c:v>27.305260000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.031410000000001</c:v>
+                  <c:v>28.801749999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.770468000000001</c:v>
+                  <c:v>29.536162999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.359988999999999</c:v>
+                  <c:v>30.126584999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.705095</c:v>
+                  <c:v>30.388870000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.865494000000002</c:v>
+                  <c:v>30.692335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7024,16 +7024,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7447,19 +7447,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>83421</v>
+        <v>84595</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>78199</v>
+        <v>79228</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>78199</v>
+        <v>79228</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7467,19 +7467,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>83438</v>
+        <v>80962</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>81695</v>
+        <v>83375</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>81695</v>
+        <v>83375</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7487,19 +7487,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>83654</v>
+        <v>82299</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>81021</v>
+        <v>79187</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>81021</v>
+        <v>79187</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7507,19 +7507,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>83823</v>
+        <v>80978</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>83823</v>
+        <v>80978</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>79009</v>
+        <v>83509</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7527,19 +7527,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>83061</v>
+        <v>83020</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>78171</v>
+        <v>78584</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>81037</v>
+        <v>82348</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7547,19 +7547,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80278</v>
+        <v>80925</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>80134</v>
+        <v>77552</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>79972</v>
+        <v>78191</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7567,19 +7567,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>77594</v>
+        <v>77491</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>80059</v>
+        <v>80013</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>80522</v>
+        <v>80028</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7587,19 +7587,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>77068</v>
+        <v>75549</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>77068</v>
+        <v>75549</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>79832</v>
+        <v>80060</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7607,19 +7607,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>78766</v>
+        <v>75578</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>74409</v>
+        <v>74458</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>81977</v>
+        <v>81075</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7627,19 +7627,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>78626</v>
+        <v>77700</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>73624</v>
+        <v>68403</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>76938</v>
+        <v>83297</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7647,19 +7647,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>78581</v>
+        <v>76962</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>72091</v>
+        <v>64749</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>81716</v>
+        <v>71991</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7667,19 +7667,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>78908</v>
+        <v>76412</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>78908</v>
+        <v>76412</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>73925</v>
+        <v>77777</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7687,19 +7687,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>78545</v>
+        <v>76591</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>76290</v>
+        <v>73323</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>82606</v>
+        <v>73438</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7707,19 +7707,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82980</v>
+        <v>83125</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>122776</v>
+        <v>80796</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>81339</v>
+        <v>80727</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7727,19 +7727,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>80967</v>
+        <v>82578</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>79490</v>
+        <v>81326</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>80225</v>
+        <v>83899</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7747,19 +7747,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83880</v>
+        <v>82174</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>83880</v>
+        <v>82174</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>80798</v>
+        <v>84656</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7767,19 +7767,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>79939</v>
+        <v>83413</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>80757</v>
+        <v>81990</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>84661</v>
+        <v>80427</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7787,19 +7787,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>80709</v>
+        <v>83933</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>84001</v>
+        <v>82465</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>82641</v>
+        <v>82393</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7807,19 +7807,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>81513</v>
+        <v>83668</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>83352</v>
+        <v>81220</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>81634</v>
+        <v>81979</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7827,19 +7827,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>82126</v>
+        <v>80411</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>82126</v>
+        <v>80411</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>80497</v>
+        <v>85330</v>
       </c>
     </row>
   </sheetData>
@@ -7853,7 +7853,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F22"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7894,19 +7894,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31502</v>
+        <v>30939</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>31651</v>
+        <v>31977</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>31651</v>
+        <v>31977</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7914,19 +7914,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31696</v>
+        <v>31214</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>32240</v>
+        <v>31787</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>32240</v>
+        <v>31787</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7934,19 +7934,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31765</v>
+        <v>31400</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>31098</v>
+        <v>32347</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>31098</v>
+        <v>32347</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7954,19 +7954,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>32071</v>
+        <v>31764</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>32071</v>
+        <v>31764</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>31407</v>
+        <v>31369</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7974,19 +7974,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31714</v>
+        <v>32130</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>30555</v>
+        <v>30874</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>31751</v>
+        <v>32987</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7994,19 +7994,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32238</v>
+        <v>31145</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>30749</v>
+        <v>30067</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>32790</v>
+        <v>30597</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8014,19 +8014,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30294</v>
+        <v>31572</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>31997</v>
+        <v>32037</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>32421</v>
+        <v>32213</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8034,19 +8034,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30265</v>
+        <v>32031</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>30265</v>
+        <v>32031</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>33397</v>
+        <v>32296</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8054,19 +8054,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30907</v>
+        <v>31875</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>32920</v>
+        <v>27933</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>31886</v>
+        <v>33528</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8074,19 +8074,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30705</v>
+        <v>31905</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>28797</v>
+        <v>29900</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>34355</v>
+        <v>35328</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8094,19 +8094,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30553</v>
+        <v>31700</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>26747</v>
+        <v>24117</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>32826</v>
+        <v>32199</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8114,19 +8114,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30610</v>
+        <v>31855</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>30610</v>
+        <v>31855</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>30940</v>
+        <v>26898</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8134,19 +8134,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30679</v>
+        <v>30134</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>30576</v>
+        <v>28018</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>26603</v>
+        <v>23635</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8154,19 +8154,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32126</v>
+        <v>31725</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>32500</v>
+        <v>32249</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>52535</v>
+        <v>32362</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8174,19 +8174,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31387</v>
+        <v>31970</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>31960</v>
+        <v>33410</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>32219</v>
+        <v>32362</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8194,19 +8194,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32671</v>
+        <v>32078</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>32671</v>
+        <v>32078</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>31424</v>
+        <v>34667</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8214,19 +8214,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32542</v>
+        <v>32381</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>32546</v>
+        <v>32671</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>31743</v>
+        <v>30961</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8234,19 +8234,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32337</v>
+        <v>31587</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>31626</v>
+        <v>32300</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>33054</v>
+        <v>31734</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8254,19 +8254,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32326</v>
+        <v>31602</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>32290</v>
+        <v>31386</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>32373</v>
+        <v>34462</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8274,19 +8274,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32467</v>
+        <v>32207</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>32467</v>
+        <v>32207</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>32286</v>
+        <v>32727</v>
       </c>
     </row>
   </sheetData>
@@ -8341,19 +8341,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.373069999999998</v>
+        <v>33.065178000000003</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>32.792614</v>
+        <v>33.977221999999998</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>32.792614</v>
+        <v>33.977221999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8361,19 +8361,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31.095580999999999</v>
+        <v>33.111407999999997</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>33.232483000000002</v>
+        <v>34.17915</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>33.232483000000002</v>
+        <v>34.17915</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8381,19 +8381,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31.294239000000001</v>
+        <v>33.247089000000003</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>33.418678</v>
+        <v>34.373299000000003</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>33.418678</v>
+        <v>34.373299000000003</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8401,19 +8401,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31.085417</v>
+        <v>33.061886000000001</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>31.085417</v>
+        <v>33.061886000000001</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>33.284270999999997</v>
+        <v>34.428963000000003</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8421,19 +8421,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31.188818000000001</v>
+        <v>33.189579000000002</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>32.239235000000001</v>
+        <v>34.032668999999999</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>33.123874999999998</v>
+        <v>34.163581999999998</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8441,19 +8441,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31.16696</v>
+        <v>32.990250000000003</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>33.238807999999999</v>
+        <v>34.421059</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>33.753342000000004</v>
+        <v>34.500087999999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8461,19 +8461,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>36.570141</v>
+        <v>37.519649999999999</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>22.919419999999999</v>
+        <v>23.96011</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>22.994844000000001</v>
+        <v>23.703171000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8481,19 +8481,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.549689999999998</v>
+        <v>37.477913000000001</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>36.549689999999998</v>
+        <v>37.477913000000001</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>29.168758</v>
+        <v>28.713322000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8501,19 +8501,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.718273000000003</v>
+        <v>37.431870000000004</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>38.256050000000002</v>
+        <v>39.012096</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>32.136276000000002</v>
+        <v>30.99127</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8521,19 +8521,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.736449999999998</v>
+        <v>37.536411000000001</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>39.004283999999998</v>
+        <v>39.414776000000003</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>33.205719000000002</v>
+        <v>32.092789000000003</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8541,19 +8541,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.768166000000001</v>
+        <v>37.600158999999998</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>39.247245999999997</v>
+        <v>39.556972999999999</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>34.017895000000003</v>
+        <v>32.687973</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8561,19 +8561,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.814216999999999</v>
+        <v>37.764488</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>36.814216999999999</v>
+        <v>37.764488</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>34.439681999999998</v>
+        <v>33.095160999999997</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8581,19 +8581,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.797150000000002</v>
+        <v>37.750587000000003</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>38.412365000000001</v>
+        <v>39.167709000000002</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>34.759304</v>
+        <v>33.323334000000003</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8601,19 +8601,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.933146000000001</v>
+        <v>32.999721999999998</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>21.073996999999999</v>
+        <v>22.779028</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>20.805440999999998</v>
+        <v>22.738938999999998</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8621,19 +8621,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.153697999999999</v>
+        <v>32.989418000000001</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>26.352744999999999</v>
+        <v>27.471257999999999</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>25.39809</v>
+        <v>27.305260000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8641,19 +8641,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.899647000000002</v>
+        <v>32.905132000000002</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>30.899647000000002</v>
+        <v>32.905132000000002</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>27.031410000000001</v>
+        <v>28.801749999999998</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8661,19 +8661,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.831762000000001</v>
+        <v>32.944232999999997</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>32.086844999999997</v>
+        <v>33.956333000000001</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>28.770468000000001</v>
+        <v>29.536162999999998</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8681,19 +8681,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.786688000000002</v>
+        <v>32.892417999999999</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>32.393700000000003</v>
+        <v>34.035122000000001</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>29.359988999999999</v>
+        <v>30.126584999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8701,19 +8701,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.791183</v>
+        <v>32.676471999999997</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>32.549030000000002</v>
+        <v>34.061698999999997</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>29.705095</v>
+        <v>30.388870000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8721,19 +8721,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.580539999999999</v>
+        <v>32.626807999999997</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>30.580539999999999</v>
+        <v>32.626807999999997</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>29.865494000000002</v>
+        <v>30.692335</v>
       </c>
     </row>
   </sheetData>
@@ -8747,7 +8747,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F2" sqref="F2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8788,19 +8788,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>29.850273000000001</v>
+        <v>32.881531000000003</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>33.456001000000001</v>
+        <v>34.352325</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>33.456001000000001</v>
+        <v>34.352325</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8808,19 +8808,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.829595999999999</v>
+        <v>32.986404</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>34.168976000000001</v>
+        <v>35.006332</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>34.168976000000001</v>
+        <v>35.006332</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8828,19 +8828,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.877098</v>
+        <v>32.931587</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>34.502116999999998</v>
+        <v>35.557068000000001</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>34.502116999999998</v>
+        <v>35.557068000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8848,19 +8848,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29.718741999999999</v>
+        <v>32.914935999999997</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>29.718741999999999</v>
+        <v>32.914935999999997</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>34.494083000000003</v>
+        <v>35.637794</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8868,19 +8868,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.699404000000001</v>
+        <v>32.921638000000002</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>32.801926000000002</v>
+        <v>34.665264000000001</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>34.523617000000002</v>
+        <v>35.687389000000003</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8888,19 +8888,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.683685000000001</v>
+        <v>32.868858000000003</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>34.135883</v>
+        <v>35.458809000000002</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>35.091895999999998</v>
+        <v>35.914794999999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8908,19 +8908,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35.040691000000002</v>
+        <v>36.172652999999997</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>23.665482000000001</v>
+        <v>23.881233000000002</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>24.018940000000001</v>
+        <v>24.539190000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8928,19 +8928,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.052055000000003</v>
+        <v>36.181156000000001</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>35.052055000000003</v>
+        <v>36.181156000000001</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>30.361965000000001</v>
+        <v>28.903199999999998</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8948,19 +8948,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.014301000000003</v>
+        <v>36.166392999999999</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>37.925635999999997</v>
+        <v>38.439255000000003</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>32.183281000000001</v>
+        <v>33.032898000000003</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8968,19 +8968,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.010815000000001</v>
+        <v>36.141379999999998</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>39.509425999999998</v>
+        <v>39.893386999999997</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>34.727454999999999</v>
+        <v>34.301861000000002</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8988,19 +8988,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.026440000000001</v>
+        <v>36.221694999999997</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>40.210692999999999</v>
+        <v>40.327922999999998</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>35.920475000000003</v>
+        <v>34.770195000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9008,19 +9008,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.042693999999997</v>
+        <v>36.197647000000003</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>35.042693999999997</v>
+        <v>36.197647000000003</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>36.406334000000001</v>
+        <v>35.139763000000002</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9028,19 +9028,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.995995000000001</v>
+        <v>35.967609000000003</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>37.853518999999999</v>
+        <v>38.604725000000002</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>36.957703000000002</v>
+        <v>35.203026000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9048,19 +9048,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.619909</v>
+        <v>32.800026000000003</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>20.299306999999999</v>
+        <v>23.920334</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>21.222179000000001</v>
+        <v>23.242861000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9068,19 +9068,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.190318999999999</v>
+        <v>32.793658999999998</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>24.367775000000002</v>
+        <v>28.541819</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>26.213009</v>
+        <v>27.613441000000002</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9088,19 +9088,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.182279999999999</v>
+        <v>32.833832000000001</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>29.182279999999999</v>
+        <v>32.833832000000001</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>28.358971</v>
+        <v>29.790945000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9108,19 +9108,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.235727000000001</v>
+        <v>32.843178000000002</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>32.058422</v>
+        <v>34.511825999999999</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>29.705147</v>
+        <v>30.262892000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9128,19 +9128,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.139481</v>
+        <v>32.300201000000001</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>32.7729</v>
+        <v>34.956394000000003</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>30.502040999999998</v>
+        <v>30.463058</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9148,19 +9148,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.256661999999999</v>
+        <v>32.285674999999998</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>33.134014000000001</v>
+        <v>34.556598999999999</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>30.806025999999999</v>
+        <v>31.125328</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9168,19 +9168,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.063071999999998</v>
+        <v>32.268013000000003</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>29.063071999999998</v>
+        <v>32.268013000000003</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>30.855761000000001</v>
+        <v>31.308893000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9193,8 +9193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9312,7 +9312,7 @@
         <v>37467</v>
       </c>
       <c r="P4">
-        <v>78199</v>
+        <v>79228</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -9344,7 +9344,7 @@
         <v>35322</v>
       </c>
       <c r="P5">
-        <v>81695</v>
+        <v>83375</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -9376,7 +9376,7 @@
         <v>32589</v>
       </c>
       <c r="P6">
-        <v>81021</v>
+        <v>79187</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -9408,7 +9408,7 @@
         <v>33020</v>
       </c>
       <c r="P7">
-        <v>79009</v>
+        <v>83509</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -9440,7 +9440,7 @@
         <v>31872</v>
       </c>
       <c r="P8">
-        <v>81037</v>
+        <v>82348</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -9472,7 +9472,7 @@
         <v>30227</v>
       </c>
       <c r="P9">
-        <v>79972</v>
+        <v>78191</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -9504,7 +9504,7 @@
         <v>33008</v>
       </c>
       <c r="P10">
-        <v>80522</v>
+        <v>80028</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -9536,7 +9536,7 @@
         <v>24506</v>
       </c>
       <c r="P11">
-        <v>79832</v>
+        <v>80060</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -9568,7 +9568,7 @@
         <v>21377</v>
       </c>
       <c r="P12">
-        <v>81977</v>
+        <v>81075</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -9600,7 +9600,7 @@
         <v>19422</v>
       </c>
       <c r="P13">
-        <v>76938</v>
+        <v>83297</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -9632,7 +9632,7 @@
         <v>17176</v>
       </c>
       <c r="P14">
-        <v>81716</v>
+        <v>71991</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -9664,7 +9664,7 @@
         <v>17004</v>
       </c>
       <c r="P15">
-        <v>73925</v>
+        <v>77777</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -9696,7 +9696,7 @@
         <v>16459</v>
       </c>
       <c r="P16">
-        <v>82606</v>
+        <v>73438</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -9728,7 +9728,7 @@
         <v>34572</v>
       </c>
       <c r="P17">
-        <v>81339</v>
+        <v>80727</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -9760,7 +9760,7 @@
         <v>26665</v>
       </c>
       <c r="P18">
-        <v>80225</v>
+        <v>83899</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -9792,7 +9792,7 @@
         <v>25374</v>
       </c>
       <c r="P19">
-        <v>80798</v>
+        <v>84656</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -9824,7 +9824,7 @@
         <v>23234</v>
       </c>
       <c r="P20">
-        <v>84661</v>
+        <v>80427</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -9856,7 +9856,7 @@
         <v>23376</v>
       </c>
       <c r="P21">
-        <v>82641</v>
+        <v>82393</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -9888,7 +9888,7 @@
         <v>21917</v>
       </c>
       <c r="P22">
-        <v>81634</v>
+        <v>81979</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -9920,7 +9920,7 @@
         <v>23745</v>
       </c>
       <c r="P23">
-        <v>80497</v>
+        <v>85330</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -9982,37 +9982,37 @@
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>1691586</v>
+        <v>1694257</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25">
         <f>P24/B24</f>
-        <v>0.22468670648880548</v>
+        <v>0.22504148489973558</v>
       </c>
       <c r="C25">
         <f>P24/C24</f>
-        <v>0.32250091655000473</v>
+        <v>0.32301014277208573</v>
       </c>
       <c r="D25">
         <f>P24/D24</f>
-        <v>0.47168894817736273</v>
+        <v>0.47243374104073577</v>
       </c>
       <c r="E25">
         <f>P24/E24</f>
-        <v>0.7301550577986653</v>
+        <v>0.73130796646507668</v>
       </c>
       <c r="F25">
         <f>P24/F24</f>
-        <v>1.2090572834582356</v>
+        <v>1.2109663746922117</v>
       </c>
       <c r="G25">
         <f>P24/G24</f>
-        <v>1.9020283147750234</v>
+        <v>1.9050316014118034</v>
       </c>
       <c r="H25">
         <f>P24/H24</f>
-        <v>2.6355300939955346</v>
+        <v>2.6396915737435713</v>
       </c>
     </row>
   </sheetData>
@@ -10025,8 +10025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10061,7 +10061,7 @@
         <v>33.832417</v>
       </c>
       <c r="C3">
-        <v>32.792614</v>
+        <v>33.977221999999998</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10072,7 +10072,7 @@
         <v>33.763565</v>
       </c>
       <c r="C4">
-        <v>33.232483000000002</v>
+        <v>34.17915</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10083,7 +10083,7 @@
         <v>33.776321000000003</v>
       </c>
       <c r="C5">
-        <v>33.418678</v>
+        <v>34.373299000000003</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -10094,7 +10094,7 @@
         <v>33.721691</v>
       </c>
       <c r="C6">
-        <v>33.284270999999997</v>
+        <v>34.428963000000003</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -10105,7 +10105,7 @@
         <v>33.596901000000003</v>
       </c>
       <c r="C7">
-        <v>33.123874999999998</v>
+        <v>34.163581999999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -10116,7 +10116,7 @@
         <v>33.680523000000001</v>
       </c>
       <c r="C8">
-        <v>33.753342000000004</v>
+        <v>34.500087999999998</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -10127,7 +10127,7 @@
         <v>28.603543999999999</v>
       </c>
       <c r="C9">
-        <v>22.994844000000001</v>
+        <v>23.703171000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -10138,7 +10138,7 @@
         <v>30.480953</v>
       </c>
       <c r="C10">
-        <v>29.168758</v>
+        <v>28.713322000000002</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -10149,7 +10149,7 @@
         <v>31.097985999999999</v>
       </c>
       <c r="C11">
-        <v>32.136276000000002</v>
+        <v>30.99127</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -10160,7 +10160,7 @@
         <v>31.399291999999999</v>
       </c>
       <c r="C12">
-        <v>33.205719000000002</v>
+        <v>32.092789000000003</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -10171,7 +10171,7 @@
         <v>31.589500000000001</v>
       </c>
       <c r="C13">
-        <v>34.017895000000003</v>
+        <v>32.687973</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -10182,7 +10182,7 @@
         <v>31.729956000000001</v>
       </c>
       <c r="C14">
-        <v>34.439681999999998</v>
+        <v>33.095160999999997</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -10193,7 +10193,7 @@
         <v>31.826536000000001</v>
       </c>
       <c r="C15">
-        <v>34.759304</v>
+        <v>33.323334000000003</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -10204,7 +10204,7 @@
         <v>28.317527999999999</v>
       </c>
       <c r="C16">
-        <v>20.805440999999998</v>
+        <v>22.738938999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -10215,7 +10215,7 @@
         <v>29.531122</v>
       </c>
       <c r="C17">
-        <v>25.39809</v>
+        <v>27.305260000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -10226,7 +10226,7 @@
         <v>29.914370999999999</v>
       </c>
       <c r="C18">
-        <v>27.031410000000001</v>
+        <v>28.801749999999998</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -10237,7 +10237,7 @@
         <v>30.1511</v>
       </c>
       <c r="C19">
-        <v>28.770468000000001</v>
+        <v>29.536162999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -10248,7 +10248,7 @@
         <v>30.318769</v>
       </c>
       <c r="C20">
-        <v>29.359988999999999</v>
+        <v>30.126584999999999</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -10259,7 +10259,7 @@
         <v>30.407647999999998</v>
       </c>
       <c r="C21">
-        <v>29.705095</v>
+        <v>30.388870000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -10270,7 +10270,7 @@
         <v>30.475828</v>
       </c>
       <c r="C22">
-        <v>29.865494000000002</v>
+        <v>30.692335</v>
       </c>
     </row>
   </sheetData>

--- a/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
+++ b/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikhan1\Source\Repo_1\ECE1718H\goldendata\Assigment3_E1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Source\Repos\ECE1718H\goldendata\Assigment3_E1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7968" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="CIF - bitcount" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Constant qp BitCount" sheetId="6" r:id="rId5"/>
     <sheet name="Constant qp PSNR" sheetId="7" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +108,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -158,7 +161,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -242,70 +244,70 @@
                   <c:v>81342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83421</c:v>
+                  <c:v>84595</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83438</c:v>
+                  <c:v>80962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83654</c:v>
+                  <c:v>82299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83823</c:v>
+                  <c:v>80978</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83061</c:v>
+                  <c:v>83020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80278</c:v>
+                  <c:v>80925</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77594</c:v>
+                  <c:v>77491</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77068</c:v>
+                  <c:v>75549</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78766</c:v>
+                  <c:v>75578</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78626</c:v>
+                  <c:v>77700</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78581</c:v>
+                  <c:v>76962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78908</c:v>
+                  <c:v>76412</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>78545</c:v>
+                  <c:v>76591</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>82980</c:v>
+                  <c:v>83125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80967</c:v>
+                  <c:v>82578</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83880</c:v>
+                  <c:v>82174</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79939</c:v>
+                  <c:v>83413</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80709</c:v>
+                  <c:v>83933</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81513</c:v>
+                  <c:v>83668</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82126</c:v>
+                  <c:v>80411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8073-48B5-8EBC-7D949E03E640}"/>
             </c:ext>
@@ -359,70 +361,70 @@
                   <c:v>81342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78199</c:v>
+                  <c:v>79228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81695</c:v>
+                  <c:v>83375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81021</c:v>
+                  <c:v>79187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83823</c:v>
+                  <c:v>80978</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78171</c:v>
+                  <c:v>78584</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80134</c:v>
+                  <c:v>77552</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80059</c:v>
+                  <c:v>80013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77068</c:v>
+                  <c:v>75549</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74409</c:v>
+                  <c:v>74458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73624</c:v>
+                  <c:v>68403</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72091</c:v>
+                  <c:v>64749</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78908</c:v>
+                  <c:v>76412</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76290</c:v>
+                  <c:v>73323</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122776</c:v>
+                  <c:v>80796</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>79490</c:v>
+                  <c:v>81326</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83880</c:v>
+                  <c:v>82174</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>80757</c:v>
+                  <c:v>81990</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84001</c:v>
+                  <c:v>82465</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>83352</c:v>
+                  <c:v>81220</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82126</c:v>
+                  <c:v>80411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8073-48B5-8EBC-7D949E03E640}"/>
             </c:ext>
@@ -476,70 +478,70 @@
                   <c:v>81342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78199</c:v>
+                  <c:v>79228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81695</c:v>
+                  <c:v>83375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81021</c:v>
+                  <c:v>79187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79009</c:v>
+                  <c:v>83509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81037</c:v>
+                  <c:v>82348</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79972</c:v>
+                  <c:v>78191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80522</c:v>
+                  <c:v>80028</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79832</c:v>
+                  <c:v>80060</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81977</c:v>
+                  <c:v>81075</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76938</c:v>
+                  <c:v>83297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81716</c:v>
+                  <c:v>71991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73925</c:v>
+                  <c:v>77777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>82606</c:v>
+                  <c:v>73438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>81339</c:v>
+                  <c:v>80727</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80225</c:v>
+                  <c:v>83899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80798</c:v>
+                  <c:v>84656</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>84661</c:v>
+                  <c:v>80427</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82641</c:v>
+                  <c:v>82393</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81634</c:v>
+                  <c:v>81979</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80497</c:v>
+                  <c:v>85330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8073-48B5-8EBC-7D949E03E640}"/>
             </c:ext>
@@ -591,7 +593,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -712,7 +713,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -787,7 +787,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -855,7 +854,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -915,7 +914,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -999,70 +997,70 @@
                   <c:v>31324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31502</c:v>
+                  <c:v>30939</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31696</c:v>
+                  <c:v>31214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31765</c:v>
+                  <c:v>31400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32071</c:v>
+                  <c:v>31764</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31714</c:v>
+                  <c:v>32130</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32238</c:v>
+                  <c:v>31145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30294</c:v>
+                  <c:v>31572</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30265</c:v>
+                  <c:v>32031</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30907</c:v>
+                  <c:v>31875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30705</c:v>
+                  <c:v>31905</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30553</c:v>
+                  <c:v>31700</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30610</c:v>
+                  <c:v>31855</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30679</c:v>
+                  <c:v>30134</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32126</c:v>
+                  <c:v>31725</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31387</c:v>
+                  <c:v>31970</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32671</c:v>
+                  <c:v>32078</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32542</c:v>
+                  <c:v>32381</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32337</c:v>
+                  <c:v>31587</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32326</c:v>
+                  <c:v>31602</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32467</c:v>
+                  <c:v>32207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2401-4774-B09A-99796626A598}"/>
             </c:ext>
@@ -1116,70 +1114,70 @@
                   <c:v>31324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31651</c:v>
+                  <c:v>31977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32240</c:v>
+                  <c:v>31787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31098</c:v>
+                  <c:v>32347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32071</c:v>
+                  <c:v>31764</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30555</c:v>
+                  <c:v>30874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30749</c:v>
+                  <c:v>30067</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31997</c:v>
+                  <c:v>32037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30265</c:v>
+                  <c:v>32031</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32920</c:v>
+                  <c:v>27933</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28797</c:v>
+                  <c:v>29900</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26747</c:v>
+                  <c:v>24117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30610</c:v>
+                  <c:v>31855</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30576</c:v>
+                  <c:v>28018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32500</c:v>
+                  <c:v>32249</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31960</c:v>
+                  <c:v>33410</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>32078</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>32671</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>32546</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>31626</c:v>
+                  <c:v>32300</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32290</c:v>
+                  <c:v>31386</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32467</c:v>
+                  <c:v>32207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2401-4774-B09A-99796626A598}"/>
             </c:ext>
@@ -1233,70 +1231,70 @@
                   <c:v>31324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31651</c:v>
+                  <c:v>31977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32240</c:v>
+                  <c:v>31787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31098</c:v>
+                  <c:v>32347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31407</c:v>
+                  <c:v>31369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31751</c:v>
+                  <c:v>32987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32790</c:v>
+                  <c:v>30597</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32421</c:v>
+                  <c:v>32213</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33397</c:v>
+                  <c:v>32296</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31886</c:v>
+                  <c:v>33528</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34355</c:v>
+                  <c:v>35328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32826</c:v>
+                  <c:v>32199</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30940</c:v>
+                  <c:v>26898</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26603</c:v>
+                  <c:v>23635</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>52535</c:v>
+                  <c:v>32362</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32219</c:v>
+                  <c:v>32362</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31424</c:v>
+                  <c:v>34667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31743</c:v>
+                  <c:v>30961</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33054</c:v>
+                  <c:v>31734</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32373</c:v>
+                  <c:v>34462</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32286</c:v>
+                  <c:v>32727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2401-4774-B09A-99796626A598}"/>
             </c:ext>
@@ -1348,7 +1346,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1469,7 +1466,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1544,7 +1540,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1612,7 +1607,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1751,70 +1746,70 @@
                   <c:v>32.922676000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.373069999999998</c:v>
+                  <c:v>33.065178000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.095580999999999</c:v>
+                  <c:v>33.111407999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.294239000000001</c:v>
+                  <c:v>33.247089000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.085417</c:v>
+                  <c:v>33.061886000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.188818000000001</c:v>
+                  <c:v>33.189579000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.16696</c:v>
+                  <c:v>32.990250000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.570141</c:v>
+                  <c:v>37.519649999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.549689999999998</c:v>
+                  <c:v>37.477913000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.718273000000003</c:v>
+                  <c:v>37.431870000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.736449999999998</c:v>
+                  <c:v>37.536411000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.768166000000001</c:v>
+                  <c:v>37.600158999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.814216999999999</c:v>
+                  <c:v>37.764488</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.797150000000002</c:v>
+                  <c:v>37.750587000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.933146000000001</c:v>
+                  <c:v>32.999721999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.153697999999999</c:v>
+                  <c:v>32.989418000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.899647000000002</c:v>
+                  <c:v>32.905132000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.831762000000001</c:v>
+                  <c:v>32.944232999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.786688000000002</c:v>
+                  <c:v>32.892417999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.791183</c:v>
+                  <c:v>32.676471999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.580539999999999</c:v>
+                  <c:v>32.626807999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6A2C-4216-BE11-04657B9942C4}"/>
             </c:ext>
@@ -1868,70 +1863,70 @@
                   <c:v>32.922676000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.792614</c:v>
+                  <c:v>33.977221999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.232483000000002</c:v>
+                  <c:v>34.17915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.418678</c:v>
+                  <c:v>34.373299000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.085417</c:v>
+                  <c:v>33.061886000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.239235000000001</c:v>
+                  <c:v>34.032668999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.238807999999999</c:v>
+                  <c:v>34.421059</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.919419999999999</c:v>
+                  <c:v>23.96011</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.549689999999998</c:v>
+                  <c:v>37.477913000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.256050000000002</c:v>
+                  <c:v>39.012096</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.004283999999998</c:v>
+                  <c:v>39.414776000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.247245999999997</c:v>
+                  <c:v>39.556972999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.814216999999999</c:v>
+                  <c:v>37.764488</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.412365000000001</c:v>
+                  <c:v>39.167709000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.073996999999999</c:v>
+                  <c:v>22.779028</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.352744999999999</c:v>
+                  <c:v>27.471257999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.899647000000002</c:v>
+                  <c:v>32.905132000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.086844999999997</c:v>
+                  <c:v>33.956333000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.393700000000003</c:v>
+                  <c:v>34.035122000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32.549030000000002</c:v>
+                  <c:v>34.061698999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.580539999999999</c:v>
+                  <c:v>32.626807999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6A2C-4216-BE11-04657B9942C4}"/>
             </c:ext>
@@ -1985,70 +1980,70 @@
                   <c:v>32.922676000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.792614</c:v>
+                  <c:v>33.977221999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.232483000000002</c:v>
+                  <c:v>34.17915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.418678</c:v>
+                  <c:v>34.373299000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.284270999999997</c:v>
+                  <c:v>34.428963000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.123874999999998</c:v>
+                  <c:v>34.163581999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.753342000000004</c:v>
+                  <c:v>34.500087999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.994844000000001</c:v>
+                  <c:v>23.703171000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.168758</c:v>
+                  <c:v>28.713322000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.136276000000002</c:v>
+                  <c:v>30.99127</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.205719000000002</c:v>
+                  <c:v>32.092789000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.017895000000003</c:v>
+                  <c:v>32.687973</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.439681999999998</c:v>
+                  <c:v>33.095160999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.759304</c:v>
+                  <c:v>33.323334000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.805440999999998</c:v>
+                  <c:v>22.738938999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.39809</c:v>
+                  <c:v>27.305260000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.031410000000001</c:v>
+                  <c:v>28.801749999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.770468000000001</c:v>
+                  <c:v>29.536162999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.359988999999999</c:v>
+                  <c:v>30.126584999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.705095</c:v>
+                  <c:v>30.388870000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.865494000000002</c:v>
+                  <c:v>30.692335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6A2C-4216-BE11-04657B9942C4}"/>
             </c:ext>
@@ -2100,7 +2095,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2221,7 +2215,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2373,7 +2366,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2421,7 +2414,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2505,70 +2497,70 @@
                   <c:v>32.892646999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.850273000000001</c:v>
+                  <c:v>32.881531000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.829595999999999</c:v>
+                  <c:v>32.986404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.877098</c:v>
+                  <c:v>32.931587</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.718741999999999</c:v>
+                  <c:v>32.914935999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.699404000000001</c:v>
+                  <c:v>32.921638000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.683685000000001</c:v>
+                  <c:v>32.868858000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.040691000000002</c:v>
+                  <c:v>36.172652999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.052055000000003</c:v>
+                  <c:v>36.181156000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.014301000000003</c:v>
+                  <c:v>36.166392999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.010815000000001</c:v>
+                  <c:v>36.141379999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.026440000000001</c:v>
+                  <c:v>36.221694999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.042693999999997</c:v>
+                  <c:v>36.197647000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.995995000000001</c:v>
+                  <c:v>35.967609000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.619909</c:v>
+                  <c:v>32.800026000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.190318999999999</c:v>
+                  <c:v>32.793658999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.182279999999999</c:v>
+                  <c:v>32.833832000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.235727000000001</c:v>
+                  <c:v>32.843178000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.139481</c:v>
+                  <c:v>32.300201000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.256661999999999</c:v>
+                  <c:v>32.285674999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.063071999999998</c:v>
+                  <c:v>32.268013000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-198D-4628-9217-65C85412046C}"/>
             </c:ext>
@@ -2622,70 +2614,70 @@
                   <c:v>32.892646999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.456001000000001</c:v>
+                  <c:v>34.352325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.168976000000001</c:v>
+                  <c:v>35.006332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.502116999999998</c:v>
+                  <c:v>35.557068000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.718741999999999</c:v>
+                  <c:v>32.914935999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.801926000000002</c:v>
+                  <c:v>34.665264000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.135883</c:v>
+                  <c:v>35.458809000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.665482000000001</c:v>
+                  <c:v>23.881233000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.052055000000003</c:v>
+                  <c:v>36.181156000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.925635999999997</c:v>
+                  <c:v>38.439255000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.509425999999998</c:v>
+                  <c:v>39.893386999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.210692999999999</c:v>
+                  <c:v>40.327922999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.042693999999997</c:v>
+                  <c:v>36.197647000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.853518999999999</c:v>
+                  <c:v>38.604725000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.299306999999999</c:v>
+                  <c:v>23.920334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.367775000000002</c:v>
+                  <c:v>28.541819</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.182279999999999</c:v>
+                  <c:v>32.833832000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.058422</c:v>
+                  <c:v>34.511825999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.7729</c:v>
+                  <c:v>34.956394000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.134014000000001</c:v>
+                  <c:v>34.556598999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.063071999999998</c:v>
+                  <c:v>32.268013000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-198D-4628-9217-65C85412046C}"/>
             </c:ext>
@@ -2739,70 +2731,70 @@
                   <c:v>32.892646999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.456001000000001</c:v>
+                  <c:v>34.352325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.168976000000001</c:v>
+                  <c:v>35.006332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.502116999999998</c:v>
+                  <c:v>35.557068000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.494083000000003</c:v>
+                  <c:v>35.637794</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.523617000000002</c:v>
+                  <c:v>35.687389000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.091895999999998</c:v>
+                  <c:v>35.914794999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.018940000000001</c:v>
+                  <c:v>24.539190000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.361965000000001</c:v>
+                  <c:v>28.903199999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.183281000000001</c:v>
+                  <c:v>33.032898000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.727454999999999</c:v>
+                  <c:v>34.301861000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.920475000000003</c:v>
+                  <c:v>34.770195000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.406334000000001</c:v>
+                  <c:v>35.139763000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.957703000000002</c:v>
+                  <c:v>35.203026000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.222179000000001</c:v>
+                  <c:v>23.242861000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.213009</c:v>
+                  <c:v>27.613441000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.358971</c:v>
+                  <c:v>29.790945000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.705147</c:v>
+                  <c:v>30.262892000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.502040999999998</c:v>
+                  <c:v>30.463058</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.806025999999999</c:v>
+                  <c:v>31.125328</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.855761000000001</c:v>
+                  <c:v>31.308893000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-198D-4628-9217-65C85412046C}"/>
             </c:ext>
@@ -2854,7 +2846,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2980,7 +2971,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3055,7 +3045,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3123,7 +3112,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3162,7 +3151,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3238,70 +3226,70 @@
                   <c:v>81342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78199</c:v>
+                  <c:v>79228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81695</c:v>
+                  <c:v>83375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81021</c:v>
+                  <c:v>79187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79009</c:v>
+                  <c:v>83509</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81037</c:v>
+                  <c:v>82348</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79972</c:v>
+                  <c:v>78191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80522</c:v>
+                  <c:v>80028</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79832</c:v>
+                  <c:v>80060</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81977</c:v>
+                  <c:v>81075</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76938</c:v>
+                  <c:v>83297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81716</c:v>
+                  <c:v>71991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73925</c:v>
+                  <c:v>77777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>82606</c:v>
+                  <c:v>73438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>81339</c:v>
+                  <c:v>80727</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80225</c:v>
+                  <c:v>83899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80798</c:v>
+                  <c:v>84656</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>84661</c:v>
+                  <c:v>80427</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82641</c:v>
+                  <c:v>82393</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81634</c:v>
+                  <c:v>81979</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80497</c:v>
+                  <c:v>85330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C7DA-46B0-B3A4-E291B99D355C}"/>
             </c:ext>
@@ -3410,7 +3398,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C7DA-46B0-B3A4-E291B99D355C}"/>
             </c:ext>
@@ -3462,7 +3450,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3582,7 +3569,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3657,7 +3643,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3725,7 +3710,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3764,7 +3749,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3840,70 +3824,70 @@
                   <c:v>32.922676000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.792614</c:v>
+                  <c:v>33.977221999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.232483000000002</c:v>
+                  <c:v>34.17915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.418678</c:v>
+                  <c:v>34.373299000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.284270999999997</c:v>
+                  <c:v>34.428963000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.123874999999998</c:v>
+                  <c:v>34.163581999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.753342000000004</c:v>
+                  <c:v>34.500087999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.994844000000001</c:v>
+                  <c:v>23.703171000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.168758</c:v>
+                  <c:v>28.713322000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.136276000000002</c:v>
+                  <c:v>30.99127</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.205719000000002</c:v>
+                  <c:v>32.092789000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.017895000000003</c:v>
+                  <c:v>32.687973</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.439681999999998</c:v>
+                  <c:v>33.095160999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.759304</c:v>
+                  <c:v>33.323334000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.805440999999998</c:v>
+                  <c:v>22.738938999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.39809</c:v>
+                  <c:v>27.305260000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.031410000000001</c:v>
+                  <c:v>28.801749999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.770468000000001</c:v>
+                  <c:v>29.536162999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.359988999999999</c:v>
+                  <c:v>30.126584999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.705095</c:v>
+                  <c:v>30.388870000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.865494000000002</c:v>
+                  <c:v>30.692335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F713-4D6A-9FA3-E860749E504A}"/>
             </c:ext>
@@ -4012,7 +3996,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F713-4D6A-9FA3-E860749E504A}"/>
             </c:ext>
@@ -4064,7 +4048,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4185,7 +4168,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4260,7 +4242,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7605,7 +7586,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{142B6B42-A60F-40C3-B7D9-6E595AF55735}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142B6B42-A60F-40C3-B7D9-6E595AF55735}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7646,7 +7627,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F6280FB-87F9-405C-A090-61ADA31C9807}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6280FB-87F9-405C-A090-61ADA31C9807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7689,7 +7670,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D04CAEE3-0F90-4EA5-AE66-F3F142605586}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04CAEE3-0F90-4EA5-AE66-F3F142605586}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7732,7 +7713,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2FA466A-6EE6-4C88-8D4D-43D014D8EF0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FA466A-6EE6-4C88-8D4D-43D014D8EF0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7775,7 +7756,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACE3E938-8689-4F50-883F-C57EE6C3B466}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE3E938-8689-4F50-883F-C57EE6C3B466}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7818,7 +7799,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DADDA05-2F4D-4CC4-8AA5-CEAA532A74AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DADDA05-2F4D-4CC4-8AA5-CEAA532A74AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7839,6 +7820,198 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="CIF - bitcount"/>
+      <sheetName val="QCIF- bitcount"/>
+      <sheetName val="CIF - psnr"/>
+      <sheetName val="QCIF - psnr"/>
+      <sheetName val="Constant qp BitCount"/>
+      <sheetName val="Constant qp PSNR"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="3">
+          <cell r="F3">
+            <v>83873</v>
+          </cell>
+          <cell r="P3">
+            <v>81342</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>69603</v>
+          </cell>
+          <cell r="P4">
+            <v>79228</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>64558</v>
+          </cell>
+          <cell r="P5">
+            <v>83375</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>59142</v>
+          </cell>
+          <cell r="P6">
+            <v>79187</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>64302</v>
+          </cell>
+          <cell r="P7">
+            <v>83509</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>65438</v>
+          </cell>
+          <cell r="P8">
+            <v>82348</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>53513</v>
+          </cell>
+          <cell r="P9">
+            <v>78191</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>161619</v>
+          </cell>
+          <cell r="P10">
+            <v>80028</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>44083</v>
+          </cell>
+          <cell r="P11">
+            <v>80060</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>32142</v>
+          </cell>
+          <cell r="P12">
+            <v>81075</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>27760</v>
+          </cell>
+          <cell r="P13">
+            <v>83297</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14">
+            <v>25489</v>
+          </cell>
+          <cell r="P14">
+            <v>71991</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="F15">
+            <v>23290</v>
+          </cell>
+          <cell r="P15">
+            <v>77777</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="F16">
+            <v>21426</v>
+          </cell>
+          <cell r="P16">
+            <v>73438</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17">
+            <v>176026</v>
+          </cell>
+          <cell r="P17">
+            <v>80727</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18">
+            <v>82512</v>
+          </cell>
+          <cell r="P18">
+            <v>83899</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="F19">
+            <v>74467</v>
+          </cell>
+          <cell r="P19">
+            <v>84656</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20">
+            <v>68746</v>
+          </cell>
+          <cell r="P20">
+            <v>80427</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="F21">
+            <v>67903</v>
+          </cell>
+          <cell r="P21">
+            <v>82393</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="F22">
+            <v>65891</v>
+          </cell>
+          <cell r="P22">
+            <v>81979</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="F23">
+            <v>67312</v>
+          </cell>
+          <cell r="P23">
+            <v>85330</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8140,13 +8313,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8157,7 +8330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8177,404 +8350,404 @@
         <v>81342</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>83421</v>
+        <v>84595</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>78199</v>
+        <v>79228</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>78199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>83438</v>
+        <v>80962</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>81695</v>
+        <v>83375</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>81695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>83654</v>
+        <v>82299</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>81021</v>
+        <v>79187</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>81021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>83823</v>
+        <v>80978</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>83823</v>
+        <v>80978</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>79009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>83061</v>
+        <v>83020</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>78171</v>
+        <v>78584</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>81037</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80278</v>
+        <v>80925</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>80134</v>
+        <v>77552</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>79972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>77594</v>
+        <v>77491</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>80059</v>
+        <v>80013</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>80522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>77068</v>
+        <v>75549</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>77068</v>
+        <v>75549</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>79832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80060</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>78766</v>
+        <v>75578</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>74409</v>
+        <v>74458</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>81977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>81075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>78626</v>
+        <v>77700</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>73624</v>
+        <v>68403</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>76938</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>78581</v>
+        <v>76962</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>72091</v>
+        <v>64749</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>81716</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>78908</v>
+        <v>76412</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>78908</v>
+        <v>76412</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>73925</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>78545</v>
+        <v>76591</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>76290</v>
+        <v>73323</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>82606</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82980</v>
+        <v>83125</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>122776</v>
+        <v>80796</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>81339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>80967</v>
+        <v>82578</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>79490</v>
+        <v>81326</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>80225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83880</v>
+        <v>82174</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>83880</v>
+        <v>82174</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>80798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>84656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>79939</v>
+        <v>83413</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>80757</v>
+        <v>81990</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>84661</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>80709</v>
+        <v>83933</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>84001</v>
+        <v>82465</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>82641</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>81513</v>
+        <v>83668</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>83352</v>
+        <v>81220</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>81634</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>81979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>82126</v>
+        <v>80411</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>82126</v>
+        <v>80411</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>80497</v>
+        <v>85330</v>
       </c>
     </row>
   </sheetData>
@@ -8588,12 +8761,12 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8604,7 +8777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8624,404 +8797,404 @@
         <v>31324</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31502</v>
+        <v>30939</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>31651</v>
+        <v>31977</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>31651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31696</v>
+        <v>31214</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>32240</v>
+        <v>31787</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>32240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31765</v>
+        <v>31400</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>31098</v>
+        <v>32347</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>31098</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>32071</v>
+        <v>31764</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>32071</v>
+        <v>31764</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>31407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31714</v>
+        <v>32130</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>30555</v>
+        <v>30874</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>31751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32238</v>
+        <v>31145</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>30749</v>
+        <v>30067</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>32790</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30294</v>
+        <v>31572</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>31997</v>
+        <v>32037</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>32421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30265</v>
+        <v>32031</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>30265</v>
+        <v>32031</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>33397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30907</v>
+        <v>31875</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>32920</v>
+        <v>27933</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>31886</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30705</v>
+        <v>31905</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>28797</v>
+        <v>29900</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>34355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30553</v>
+        <v>31700</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>26747</v>
+        <v>24117</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>32826</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30610</v>
+        <v>31855</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>30610</v>
+        <v>31855</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>30940</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30679</v>
+        <v>30134</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>30576</v>
+        <v>28018</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>26603</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32126</v>
+        <v>31725</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>32500</v>
+        <v>32249</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>52535</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31387</v>
+        <v>31970</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>31960</v>
+        <v>33410</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>32219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32671</v>
+        <v>32078</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>32671</v>
+        <v>32078</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>31424</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32542</v>
+        <v>32381</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>32546</v>
+        <v>32671</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>31743</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30961</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32337</v>
+        <v>31587</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>31626</v>
+        <v>32300</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>33054</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32326</v>
+        <v>31602</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>32290</v>
+        <v>31386</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>32373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32467</v>
+        <v>32207</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>32467</v>
+        <v>32207</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>32286</v>
+        <v>32727</v>
       </c>
     </row>
   </sheetData>
@@ -9035,12 +9208,12 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9051,7 +9224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9071,404 +9244,404 @@
         <v>32.922676000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.373069999999998</v>
+        <v>33.065178000000003</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>32.792614</v>
+        <v>33.977221999999998</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>32.792614</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33.977221999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31.095580999999999</v>
+        <v>33.111407999999997</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>33.232483000000002</v>
+        <v>34.17915</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>33.232483000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34.17915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31.294239000000001</v>
+        <v>33.247089000000003</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>33.418678</v>
+        <v>34.373299000000003</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>33.418678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34.373299000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31.085417</v>
+        <v>33.061886000000001</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>31.085417</v>
+        <v>33.061886000000001</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>33.284270999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34.428963000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31.188818000000001</v>
+        <v>33.189579000000002</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>32.239235000000001</v>
+        <v>34.032668999999999</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>33.123874999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34.163581999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31.16696</v>
+        <v>32.990250000000003</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>33.238807999999999</v>
+        <v>34.421059</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>33.753342000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34.500087999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>36.570141</v>
+        <v>37.519649999999999</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>22.919419999999999</v>
+        <v>23.96011</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>22.994844000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23.703171000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.549689999999998</v>
+        <v>37.477913000000001</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>36.549689999999998</v>
+        <v>37.477913000000001</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>29.168758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28.713322000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.718273000000003</v>
+        <v>37.431870000000004</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>38.256050000000002</v>
+        <v>39.012096</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>32.136276000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30.99127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.736449999999998</v>
+        <v>37.536411000000001</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>39.004283999999998</v>
+        <v>39.414776000000003</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>33.205719000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32.092789000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.768166000000001</v>
+        <v>37.600158999999998</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>39.247245999999997</v>
+        <v>39.556972999999999</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>34.017895000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32.687973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.814216999999999</v>
+        <v>37.764488</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>36.814216999999999</v>
+        <v>37.764488</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>34.439681999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33.095160999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.797150000000002</v>
+        <v>37.750587000000003</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>38.412365000000001</v>
+        <v>39.167709000000002</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>34.759304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33.323334000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.933146000000001</v>
+        <v>32.999721999999998</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>21.073996999999999</v>
+        <v>22.779028</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>20.805440999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22.738938999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.153697999999999</v>
+        <v>32.989418000000001</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>26.352744999999999</v>
+        <v>27.471257999999999</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>25.39809</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27.305260000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.899647000000002</v>
+        <v>32.905132000000002</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>30.899647000000002</v>
+        <v>32.905132000000002</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>27.031410000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28.801749999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.831762000000001</v>
+        <v>32.944232999999997</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>32.086844999999997</v>
+        <v>33.956333000000001</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>28.770468000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29.536162999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.786688000000002</v>
+        <v>32.892417999999999</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>32.393700000000003</v>
+        <v>34.035122000000001</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>29.359988999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30.126584999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.791183</v>
+        <v>32.676471999999997</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>32.549030000000002</v>
+        <v>34.061698999999997</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>29.705095</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30.388870000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.580539999999999</v>
+        <v>32.626807999999997</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>30.580539999999999</v>
+        <v>32.626807999999997</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>29.865494000000002</v>
+        <v>30.692335</v>
       </c>
     </row>
   </sheetData>
@@ -9482,12 +9655,12 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9498,7 +9671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9518,404 +9691,404 @@
         <v>32.892646999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>29.850273000000001</v>
+        <v>32.881531000000003</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>33.456001000000001</v>
+        <v>34.352325</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>33.456001000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34.352325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.829595999999999</v>
+        <v>32.986404</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>34.168976000000001</v>
+        <v>35.006332</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>34.168976000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35.006332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.877098</v>
+        <v>32.931587</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>34.502116999999998</v>
+        <v>35.557068000000001</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>34.502116999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35.557068000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29.718741999999999</v>
+        <v>32.914935999999997</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>29.718741999999999</v>
+        <v>32.914935999999997</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>34.494083000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35.637794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.699404000000001</v>
+        <v>32.921638000000002</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>32.801926000000002</v>
+        <v>34.665264000000001</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>34.523617000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35.687389000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.683685000000001</v>
+        <v>32.868858000000003</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>34.135883</v>
+        <v>35.458809000000002</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>35.091895999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35.914794999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35.040691000000002</v>
+        <v>36.172652999999997</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>23.665482000000001</v>
+        <v>23.881233000000002</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>24.018940000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24.539190000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.052055000000003</v>
+        <v>36.181156000000001</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>35.052055000000003</v>
+        <v>36.181156000000001</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>30.361965000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28.903199999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.014301000000003</v>
+        <v>36.166392999999999</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>37.925635999999997</v>
+        <v>38.439255000000003</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>32.183281000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33.032898000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.010815000000001</v>
+        <v>36.141379999999998</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>39.509425999999998</v>
+        <v>39.893386999999997</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>34.727454999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34.301861000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.026440000000001</v>
+        <v>36.221694999999997</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>40.210692999999999</v>
+        <v>40.327922999999998</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>35.920475000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34.770195000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.042693999999997</v>
+        <v>36.197647000000003</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>35.042693999999997</v>
+        <v>36.197647000000003</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>36.406334000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35.139763000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.995995000000001</v>
+        <v>35.967609000000003</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>37.853518999999999</v>
+        <v>38.604725000000002</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>36.957703000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35.203026000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.619909</v>
+        <v>32.800026000000003</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>20.299306999999999</v>
+        <v>23.920334</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>21.222179000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23.242861000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.190318999999999</v>
+        <v>32.793658999999998</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>24.367775000000002</v>
+        <v>28.541819</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>26.213009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27.613441000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.182279999999999</v>
+        <v>32.833832000000001</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>29.182279999999999</v>
+        <v>32.833832000000001</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>28.358971</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29.790945000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.235727000000001</v>
+        <v>32.843178000000002</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>32.058422</v>
+        <v>34.511825999999999</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>29.705147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30.262892000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.139481</v>
+        <v>32.300201000000001</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>32.7729</v>
+        <v>34.956394000000003</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>30.502040999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30.463058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.256661999999999</v>
+        <v>32.285674999999998</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>33.134014000000001</v>
+        <v>34.556598999999999</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>30.806025999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31.125328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.063071999999998</v>
+        <v>32.268013000000003</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>29.063071999999998</v>
+        <v>32.268013000000003</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>30.855761000000001</v>
+        <v>31.308893000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9928,13 +10101,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -9945,7 +10118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -9986,7 +10159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -10018,7 +10191,7 @@
         <v>81342</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10047,10 +10220,10 @@
         <v>37467</v>
       </c>
       <c r="P4">
-        <v>78199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>79228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -10079,10 +10252,10 @@
         <v>35322</v>
       </c>
       <c r="P5">
-        <v>81695</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>83375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -10111,10 +10284,10 @@
         <v>32589</v>
       </c>
       <c r="P6">
-        <v>81021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>79187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -10143,10 +10316,10 @@
         <v>33020</v>
       </c>
       <c r="P7">
-        <v>79009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>83509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -10175,10 +10348,10 @@
         <v>31872</v>
       </c>
       <c r="P8">
-        <v>81037</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>82348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10207,10 +10380,10 @@
         <v>30227</v>
       </c>
       <c r="P9">
-        <v>79972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>78191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -10239,10 +10412,10 @@
         <v>33008</v>
       </c>
       <c r="P10">
-        <v>80522</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>80028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -10271,10 +10444,10 @@
         <v>24506</v>
       </c>
       <c r="P11">
-        <v>79832</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>80060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -10303,10 +10476,10 @@
         <v>21377</v>
       </c>
       <c r="P12">
-        <v>81977</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>81075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -10335,10 +10508,10 @@
         <v>19422</v>
       </c>
       <c r="P13">
-        <v>76938</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>83297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -10367,10 +10540,10 @@
         <v>17176</v>
       </c>
       <c r="P14">
-        <v>81716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>71991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -10399,10 +10572,10 @@
         <v>17004</v>
       </c>
       <c r="P15">
-        <v>73925</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>77777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -10431,10 +10604,10 @@
         <v>16459</v>
       </c>
       <c r="P16">
-        <v>82606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>73438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -10463,10 +10636,10 @@
         <v>34572</v>
       </c>
       <c r="P17">
-        <v>81339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>80727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -10495,10 +10668,10 @@
         <v>26665</v>
       </c>
       <c r="P18">
-        <v>80225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>83899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -10527,10 +10700,10 @@
         <v>25374</v>
       </c>
       <c r="P19">
-        <v>80798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>84656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -10559,10 +10732,10 @@
         <v>23234</v>
       </c>
       <c r="P20">
-        <v>84661</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>80427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -10591,10 +10764,10 @@
         <v>23376</v>
       </c>
       <c r="P21">
-        <v>82641</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>82393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -10623,10 +10796,10 @@
         <v>21917</v>
       </c>
       <c r="P22">
-        <v>81634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>81979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -10655,10 +10828,10 @@
         <v>23745</v>
       </c>
       <c r="P23">
-        <v>80497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>85330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>SUM(B3:B23)</f>
         <v>7528643</v>
@@ -10717,37 +10890,37 @@
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>1691586</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1694257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25">
         <f>P24/B24</f>
-        <v>0.22468670648880548</v>
+        <v>0.22504148489973558</v>
       </c>
       <c r="C25">
         <f>P24/C24</f>
-        <v>0.32250091655000473</v>
+        <v>0.32301014277208573</v>
       </c>
       <c r="D25">
         <f>P24/D24</f>
-        <v>0.47168894817736273</v>
+        <v>0.47243374104073577</v>
       </c>
       <c r="E25">
         <f>P24/E24</f>
-        <v>0.7301550577986653</v>
+        <v>0.73130796646507668</v>
       </c>
       <c r="F25">
         <f>P24/F24</f>
-        <v>1.2090572834582356</v>
+        <v>1.2109663746922117</v>
       </c>
       <c r="G25">
         <f>P24/G24</f>
-        <v>1.9020283147750234</v>
+        <v>1.9050316014118034</v>
       </c>
       <c r="H25">
         <f>P24/H24</f>
-        <v>2.6355300939955346</v>
+        <v>2.6396915737435713</v>
       </c>
     </row>
   </sheetData>
@@ -10760,13 +10933,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -10777,7 +10950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10788,7 +10961,7 @@
         <v>32.922676000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10796,10 +10969,10 @@
         <v>33.832417</v>
       </c>
       <c r="C3">
-        <v>32.792614</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33.977221999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10807,10 +10980,10 @@
         <v>33.763565</v>
       </c>
       <c r="C4">
-        <v>33.232483000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34.17915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10818,10 +10991,10 @@
         <v>33.776321000000003</v>
       </c>
       <c r="C5">
-        <v>33.418678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34.373299000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10829,10 +11002,10 @@
         <v>33.721691</v>
       </c>
       <c r="C6">
-        <v>33.284270999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34.428963000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10840,10 +11013,10 @@
         <v>33.596901000000003</v>
       </c>
       <c r="C7">
-        <v>33.123874999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34.163581999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10851,10 +11024,10 @@
         <v>33.680523000000001</v>
       </c>
       <c r="C8">
-        <v>33.753342000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34.500087999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10862,10 +11035,10 @@
         <v>28.603543999999999</v>
       </c>
       <c r="C9">
-        <v>22.994844000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23.703171000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10873,10 +11046,10 @@
         <v>30.480953</v>
       </c>
       <c r="C10">
-        <v>29.168758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28.713322000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10884,10 +11057,10 @@
         <v>31.097985999999999</v>
       </c>
       <c r="C11">
-        <v>32.136276000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30.99127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10895,10 +11068,10 @@
         <v>31.399291999999999</v>
       </c>
       <c r="C12">
-        <v>33.205719000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32.092789000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10906,10 +11079,10 @@
         <v>31.589500000000001</v>
       </c>
       <c r="C13">
-        <v>34.017895000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32.687973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10917,10 +11090,10 @@
         <v>31.729956000000001</v>
       </c>
       <c r="C14">
-        <v>34.439681999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33.095160999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10928,10 +11101,10 @@
         <v>31.826536000000001</v>
       </c>
       <c r="C15">
-        <v>34.759304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33.323334000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -10939,10 +11112,10 @@
         <v>28.317527999999999</v>
       </c>
       <c r="C16">
-        <v>20.805440999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22.738938999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10950,10 +11123,10 @@
         <v>29.531122</v>
       </c>
       <c r="C17">
-        <v>25.39809</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27.305260000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -10961,10 +11134,10 @@
         <v>29.914370999999999</v>
       </c>
       <c r="C18">
-        <v>27.031410000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28.801749999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -10972,10 +11145,10 @@
         <v>30.1511</v>
       </c>
       <c r="C19">
-        <v>28.770468000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29.536162999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -10983,10 +11156,10 @@
         <v>30.318769</v>
       </c>
       <c r="C20">
-        <v>29.359988999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30.126584999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -10994,10 +11167,10 @@
         <v>30.407647999999998</v>
       </c>
       <c r="C21">
-        <v>29.705095</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30.388870000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -11005,7 +11178,7 @@
         <v>30.475828</v>
       </c>
       <c r="C22">
-        <v>29.865494000000002</v>
+        <v>30.692335</v>
       </c>
     </row>
   </sheetData>

--- a/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
+++ b/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CIF - bitcount" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="Constant qp BitCount" sheetId="6" r:id="rId5"/>
     <sheet name="Constant qp PSNR" sheetId="7" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -7740,16 +7737,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>121919</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>17144</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7820,198 +7817,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="CIF - bitcount"/>
-      <sheetName val="QCIF- bitcount"/>
-      <sheetName val="CIF - psnr"/>
-      <sheetName val="QCIF - psnr"/>
-      <sheetName val="Constant qp BitCount"/>
-      <sheetName val="Constant qp PSNR"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="3">
-          <cell r="F3">
-            <v>83873</v>
-          </cell>
-          <cell r="P3">
-            <v>81342</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>69603</v>
-          </cell>
-          <cell r="P4">
-            <v>79228</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>64558</v>
-          </cell>
-          <cell r="P5">
-            <v>83375</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>59142</v>
-          </cell>
-          <cell r="P6">
-            <v>79187</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>64302</v>
-          </cell>
-          <cell r="P7">
-            <v>83509</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>65438</v>
-          </cell>
-          <cell r="P8">
-            <v>82348</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>53513</v>
-          </cell>
-          <cell r="P9">
-            <v>78191</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>161619</v>
-          </cell>
-          <cell r="P10">
-            <v>80028</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>44083</v>
-          </cell>
-          <cell r="P11">
-            <v>80060</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>32142</v>
-          </cell>
-          <cell r="P12">
-            <v>81075</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>27760</v>
-          </cell>
-          <cell r="P13">
-            <v>83297</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>25489</v>
-          </cell>
-          <cell r="P14">
-            <v>71991</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>23290</v>
-          </cell>
-          <cell r="P15">
-            <v>77777</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>21426</v>
-          </cell>
-          <cell r="P16">
-            <v>73438</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>176026</v>
-          </cell>
-          <cell r="P17">
-            <v>80727</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>82512</v>
-          </cell>
-          <cell r="P18">
-            <v>83899</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>74467</v>
-          </cell>
-          <cell r="P19">
-            <v>84656</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>68746</v>
-          </cell>
-          <cell r="P20">
-            <v>80427</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>67903</v>
-          </cell>
-          <cell r="P21">
-            <v>82393</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>65891</v>
-          </cell>
-          <cell r="P22">
-            <v>81979</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>67312</v>
-          </cell>
-          <cell r="P23">
-            <v>85330</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8313,7 +8118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F22"/>
     </sheetView>
   </sheetViews>
@@ -10101,8 +9906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:P25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
+++ b/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Source\Repos\ECE1718H\goldendata\Assigment3_E1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CIF - bitcount" sheetId="1" r:id="rId1"/>
@@ -1111,61 +1111,61 @@
                   <c:v>31324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31977</c:v>
+                  <c:v>31918</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31787</c:v>
+                  <c:v>32101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32347</c:v>
+                  <c:v>30173</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>31764</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30874</c:v>
+                  <c:v>31372</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30067</c:v>
+                  <c:v>30102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32037</c:v>
+                  <c:v>32277</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>32031</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27933</c:v>
+                  <c:v>29548</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29900</c:v>
+                  <c:v>28465</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24117</c:v>
+                  <c:v>24692</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>31855</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28018</c:v>
+                  <c:v>28309</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32249</c:v>
+                  <c:v>32375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33410</c:v>
+                  <c:v>32212</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>32078</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32671</c:v>
+                  <c:v>33839</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32300</c:v>
+                  <c:v>32436</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31386</c:v>
+                  <c:v>31848</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>32207</c:v>
@@ -1228,64 +1228,64 @@
                   <c:v>31324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31977</c:v>
+                  <c:v>31918</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31787</c:v>
+                  <c:v>32101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32347</c:v>
+                  <c:v>30173</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31369</c:v>
+                  <c:v>31181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32987</c:v>
+                  <c:v>31110</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30597</c:v>
+                  <c:v>33384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32213</c:v>
+                  <c:v>32182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32296</c:v>
+                  <c:v>32013</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33528</c:v>
+                  <c:v>32690</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35328</c:v>
+                  <c:v>33806</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32199</c:v>
+                  <c:v>29811</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26898</c:v>
+                  <c:v>31731</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23635</c:v>
+                  <c:v>28222</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32362</c:v>
+                  <c:v>32054</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32362</c:v>
+                  <c:v>33260</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34667</c:v>
+                  <c:v>31265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30961</c:v>
+                  <c:v>33514</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31734</c:v>
+                  <c:v>31754</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34462</c:v>
+                  <c:v>34428</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32727</c:v>
+                  <c:v>35800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,61 +2611,61 @@
                   <c:v>32.892646999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.352325</c:v>
+                  <c:v>34.473433999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.006332</c:v>
+                  <c:v>35.063727999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.557068000000001</c:v>
+                  <c:v>35.606003000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>32.914935999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.665264000000001</c:v>
+                  <c:v>34.685744999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.458809000000002</c:v>
+                  <c:v>35.895077000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.881233000000002</c:v>
+                  <c:v>24.453693000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>36.181156000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.439255000000003</c:v>
+                  <c:v>38.478844000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.893386999999997</c:v>
+                  <c:v>39.676200999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.327922999999998</c:v>
+                  <c:v>40.526024</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>36.197647000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.604725000000002</c:v>
+                  <c:v>38.804896999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.920334</c:v>
+                  <c:v>22.685572000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.541819</c:v>
+                  <c:v>27.524833999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>32.833832000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.511825999999999</c:v>
+                  <c:v>34.613486999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.956394000000003</c:v>
+                  <c:v>35.231265999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.556598999999999</c:v>
+                  <c:v>34.911312000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>32.268013000000003</c:v>
@@ -2728,64 +2728,64 @@
                   <c:v>32.892646999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.352325</c:v>
+                  <c:v>34.473433999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.006332</c:v>
+                  <c:v>35.063727999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.557068000000001</c:v>
+                  <c:v>35.606003000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.637794</c:v>
+                  <c:v>36.002941</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.687389000000003</c:v>
+                  <c:v>35.731059999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.914794999999998</c:v>
+                  <c:v>36.374645000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.539190000000001</c:v>
+                  <c:v>24.568617</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.903199999999998</c:v>
+                  <c:v>29.668600000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.032898000000003</c:v>
+                  <c:v>32.127769000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.301861000000002</c:v>
+                  <c:v>34.640506999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.770195000000001</c:v>
+                  <c:v>35.136513000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.139763000000002</c:v>
+                  <c:v>35.589534999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.203026000000001</c:v>
+                  <c:v>35.754691999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.242861000000001</c:v>
+                  <c:v>23.058056000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.613441000000002</c:v>
+                  <c:v>28.079267999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.790945000000001</c:v>
+                  <c:v>29.279686000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.262892000000001</c:v>
+                  <c:v>30.044098000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.463058</c:v>
+                  <c:v>30.239830000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.125328</c:v>
+                  <c:v>30.930401</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.308893000000001</c:v>
+                  <c:v>31.429912999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8119,7 +8119,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F22"/>
+      <selection activeCell="F2" sqref="F2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8566,7 +8566,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F22"/>
+      <selection activeCell="D2" sqref="D2:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8613,13 +8613,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>31977</v>
+        <v>31918</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>31977</v>
+        <v>31918</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8633,13 +8633,13 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>31787</v>
+        <v>32101</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>31787</v>
+        <v>32101</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8653,13 +8653,13 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>32347</v>
+        <v>30173</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>32347</v>
+        <v>30173</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8679,7 +8679,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>31369</v>
+        <v>31181</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8693,13 +8693,13 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>30874</v>
+        <v>31372</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>32987</v>
+        <v>31110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8713,13 +8713,13 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>30067</v>
+        <v>30102</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>30597</v>
+        <v>33384</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8733,13 +8733,13 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>32037</v>
+        <v>32277</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>32213</v>
+        <v>32182</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8759,7 +8759,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>32296</v>
+        <v>32013</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8773,13 +8773,13 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>27933</v>
+        <v>29548</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>33528</v>
+        <v>32690</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8793,13 +8793,13 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>29900</v>
+        <v>28465</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>35328</v>
+        <v>33806</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8813,13 +8813,13 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>24117</v>
+        <v>24692</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>32199</v>
+        <v>29811</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8839,7 +8839,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>26898</v>
+        <v>31731</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8853,13 +8853,13 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>28018</v>
+        <v>28309</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>23635</v>
+        <v>28222</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8873,13 +8873,13 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>32249</v>
+        <v>32375</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>32362</v>
+        <v>32054</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8893,13 +8893,13 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>33410</v>
+        <v>32212</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>32362</v>
+        <v>33260</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8919,7 +8919,7 @@
         <v>16</v>
       </c>
       <c r="F18">
-        <v>34667</v>
+        <v>31265</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8933,13 +8933,13 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>32671</v>
+        <v>33839</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>30961</v>
+        <v>33514</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8953,13 +8953,13 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>32300</v>
+        <v>32436</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>31734</v>
+        <v>31754</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8973,13 +8973,13 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>31386</v>
+        <v>31848</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>34462</v>
+        <v>34428</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8999,7 +8999,7 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>32727</v>
+        <v>35800</v>
       </c>
     </row>
   </sheetData>
@@ -9459,8 +9459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9507,13 +9507,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>34.352325</v>
+        <v>34.473433999999997</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>34.352325</v>
+        <v>34.473433999999997</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9527,13 +9527,13 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>35.006332</v>
+        <v>35.063727999999998</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>35.006332</v>
+        <v>35.063727999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9547,13 +9547,13 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>35.557068000000001</v>
+        <v>35.606003000000001</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>35.557068000000001</v>
+        <v>35.606003000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9573,7 +9573,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>35.637794</v>
+        <v>36.002941</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9587,13 +9587,13 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>34.665264000000001</v>
+        <v>34.685744999999997</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>35.687389000000003</v>
+        <v>35.731059999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9607,13 +9607,13 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>35.458809000000002</v>
+        <v>35.895077000000001</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>35.914794999999998</v>
+        <v>36.374645000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9627,13 +9627,13 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>23.881233000000002</v>
+        <v>24.453693000000001</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>24.539190000000001</v>
+        <v>24.568617</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9653,7 +9653,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>28.903199999999998</v>
+        <v>29.668600000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9667,13 +9667,13 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>38.439255000000003</v>
+        <v>38.478844000000002</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>33.032898000000003</v>
+        <v>32.127769000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9687,13 +9687,13 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>39.893386999999997</v>
+        <v>39.676200999999999</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>34.301861000000002</v>
+        <v>34.640506999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9707,13 +9707,13 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>40.327922999999998</v>
+        <v>40.526024</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>34.770195000000001</v>
+        <v>35.136513000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9733,7 +9733,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>35.139763000000002</v>
+        <v>35.589534999999998</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9747,13 +9747,13 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>38.604725000000002</v>
+        <v>38.804896999999997</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>35.203026000000001</v>
+        <v>35.754691999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9767,13 +9767,13 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>23.920334</v>
+        <v>22.685572000000001</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>23.242861000000001</v>
+        <v>23.058056000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9787,13 +9787,13 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>28.541819</v>
+        <v>27.524833999999998</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>27.613441000000002</v>
+        <v>28.079267999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9813,7 +9813,7 @@
         <v>16</v>
       </c>
       <c r="F18">
-        <v>29.790945000000001</v>
+        <v>29.279686000000002</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9827,13 +9827,13 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>34.511825999999999</v>
+        <v>34.613486999999999</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>30.262892000000001</v>
+        <v>30.044098000000002</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9847,13 +9847,13 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>34.956394000000003</v>
+        <v>35.231265999999998</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>30.463058</v>
+        <v>30.239830000000001</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9867,13 +9867,13 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>34.556598999999999</v>
+        <v>34.911312000000002</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>31.125328</v>
+        <v>30.930401</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9893,7 +9893,7 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>31.308893000000001</v>
+        <v>31.429912999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9906,7 +9906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>

--- a/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
+++ b/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CIF - bitcount" sheetId="1" r:id="rId1"/>
@@ -238,67 +238,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>81342</c:v>
+                  <c:v>81524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84595</c:v>
+                  <c:v>82527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80962</c:v>
+                  <c:v>83618</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82299</c:v>
+                  <c:v>82203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80978</c:v>
+                  <c:v>80734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83020</c:v>
+                  <c:v>80762</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80925</c:v>
+                  <c:v>83760</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77491</c:v>
+                  <c:v>76932</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75549</c:v>
+                  <c:v>77313</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75578</c:v>
+                  <c:v>76893</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77700</c:v>
+                  <c:v>76790</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76962</c:v>
+                  <c:v>76505</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76412</c:v>
+                  <c:v>76416</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76591</c:v>
+                  <c:v>76595</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83125</c:v>
+                  <c:v>81955</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82578</c:v>
+                  <c:v>84058</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>82174</c:v>
+                  <c:v>81613</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83413</c:v>
+                  <c:v>84170</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83933</c:v>
+                  <c:v>82667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>83668</c:v>
+                  <c:v>81232</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80411</c:v>
+                  <c:v>82911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -355,67 +355,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>81342</c:v>
+                  <c:v>81524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79228</c:v>
+                  <c:v>83325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83375</c:v>
+                  <c:v>81810</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79187</c:v>
+                  <c:v>81089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80978</c:v>
+                  <c:v>80734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78584</c:v>
+                  <c:v>79189</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77552</c:v>
+                  <c:v>81146</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80013</c:v>
+                  <c:v>85598</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75549</c:v>
+                  <c:v>77313</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74458</c:v>
+                  <c:v>74491</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68403</c:v>
+                  <c:v>73618</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64749</c:v>
+                  <c:v>64939</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76412</c:v>
+                  <c:v>76416</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73323</c:v>
+                  <c:v>76363</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80796</c:v>
+                  <c:v>85524</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>81326</c:v>
+                  <c:v>81743</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>82174</c:v>
+                  <c:v>81613</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>81990</c:v>
+                  <c:v>83596</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82465</c:v>
+                  <c:v>85688</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81220</c:v>
+                  <c:v>86799</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80411</c:v>
+                  <c:v>82911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -472,67 +472,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>81342</c:v>
+                  <c:v>81524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79228</c:v>
+                  <c:v>83325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83375</c:v>
+                  <c:v>81810</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79187</c:v>
+                  <c:v>81089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83509</c:v>
+                  <c:v>82940</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82348</c:v>
+                  <c:v>80535</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78191</c:v>
+                  <c:v>85019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80028</c:v>
+                  <c:v>85675</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80060</c:v>
+                  <c:v>81952</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81075</c:v>
+                  <c:v>82766</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83297</c:v>
+                  <c:v>82222</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71991</c:v>
+                  <c:v>78872</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>77777</c:v>
+                  <c:v>80207</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73438</c:v>
+                  <c:v>71573</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80727</c:v>
+                  <c:v>83747</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83899</c:v>
+                  <c:v>82772</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>84656</c:v>
+                  <c:v>88240</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>80427</c:v>
+                  <c:v>86108</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82393</c:v>
+                  <c:v>80786</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81979</c:v>
+                  <c:v>81640</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>85330</c:v>
+                  <c:v>80726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,7 +666,8 @@
         <c:axId val="371746904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="60000"/>
+          <c:max val="100000"/>
+          <c:min val="50000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -991,67 +992,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>31324</c:v>
+                  <c:v>31372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30939</c:v>
+                  <c:v>30981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31214</c:v>
+                  <c:v>31244</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31400</c:v>
+                  <c:v>31426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31764</c:v>
+                  <c:v>31805</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32130</c:v>
+                  <c:v>32192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31145</c:v>
+                  <c:v>31200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31572</c:v>
+                  <c:v>31615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32031</c:v>
+                  <c:v>30290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31875</c:v>
+                  <c:v>31918</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31905</c:v>
+                  <c:v>31948</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31700</c:v>
+                  <c:v>31743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31855</c:v>
+                  <c:v>31898</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30134</c:v>
+                  <c:v>30177</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31725</c:v>
+                  <c:v>31779</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31970</c:v>
+                  <c:v>31944</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32078</c:v>
+                  <c:v>32050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32381</c:v>
+                  <c:v>32382</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31587</c:v>
+                  <c:v>31638</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31602</c:v>
+                  <c:v>31616</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32207</c:v>
+                  <c:v>32265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,67 +1109,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>31324</c:v>
+                  <c:v>31372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31977</c:v>
+                  <c:v>30715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31787</c:v>
+                  <c:v>32513</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32347</c:v>
+                  <c:v>33433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31764</c:v>
+                  <c:v>31805</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30874</c:v>
+                  <c:v>31790</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30067</c:v>
+                  <c:v>30417</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32037</c:v>
+                  <c:v>32931</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32031</c:v>
+                  <c:v>30290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27933</c:v>
+                  <c:v>32154</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29900</c:v>
+                  <c:v>30758</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24117</c:v>
+                  <c:v>27836</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31855</c:v>
+                  <c:v>31898</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28018</c:v>
+                  <c:v>29316</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32249</c:v>
+                  <c:v>33903</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33410</c:v>
+                  <c:v>32955</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32078</c:v>
+                  <c:v>32050</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32671</c:v>
+                  <c:v>34923</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32300</c:v>
+                  <c:v>31597</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31386</c:v>
+                  <c:v>32691</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32207</c:v>
+                  <c:v>32265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,67 +1226,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>31324</c:v>
+                  <c:v>31372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31977</c:v>
+                  <c:v>30715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31787</c:v>
+                  <c:v>32513</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32347</c:v>
+                  <c:v>33433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31369</c:v>
+                  <c:v>30774</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32987</c:v>
+                  <c:v>32757</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30597</c:v>
+                  <c:v>32743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32213</c:v>
+                  <c:v>32864</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32296</c:v>
+                  <c:v>32689</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33528</c:v>
+                  <c:v>32968</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35328</c:v>
+                  <c:v>32631</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32199</c:v>
+                  <c:v>31176</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26898</c:v>
+                  <c:v>26791</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23635</c:v>
+                  <c:v>22505</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32362</c:v>
+                  <c:v>33730</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32362</c:v>
+                  <c:v>33063</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34667</c:v>
+                  <c:v>32712</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30961</c:v>
+                  <c:v>34654</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31734</c:v>
+                  <c:v>31291</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34462</c:v>
+                  <c:v>33439</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32727</c:v>
+                  <c:v>32281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,7 +1420,8 @@
         <c:axId val="371753176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="20000"/>
+          <c:max val="40000"/>
+          <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1740,40 +1742,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>32.922676000000003</c:v>
+                  <c:v>33.209225000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.065178000000003</c:v>
+                  <c:v>33.317096999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.111407999999997</c:v>
+                  <c:v>33.416893000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.247089000000003</c:v>
+                  <c:v>33.455269000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.061886000000001</c:v>
+                  <c:v>33.281081999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.189579000000002</c:v>
+                  <c:v>33.240028000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.990250000000003</c:v>
+                  <c:v>33.317065999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.519649999999999</c:v>
+                  <c:v>37.653255000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.477913000000001</c:v>
+                  <c:v>37.681125999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.431870000000004</c:v>
+                  <c:v>37.654274000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.536411000000001</c:v>
+                  <c:v>37.669437000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37.600158999999998</c:v>
+                  <c:v>37.726661999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>37.764488</c:v>
@@ -1782,25 +1784,25 @@
                   <c:v>37.750587000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.999721999999998</c:v>
+                  <c:v>33.185555000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.989418000000001</c:v>
+                  <c:v>33.058132000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.905132000000002</c:v>
+                  <c:v>33.026062000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.944232999999997</c:v>
+                  <c:v>33.071598000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.892417999999999</c:v>
+                  <c:v>32.905875999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32.676471999999997</c:v>
+                  <c:v>32.733367999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.626807999999997</c:v>
+                  <c:v>32.800156000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1857,67 +1859,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>32.922676000000003</c:v>
+                  <c:v>33.209225000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.977221999999998</c:v>
+                  <c:v>34.483046999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.17915</c:v>
+                  <c:v>34.863140000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.373299000000003</c:v>
+                  <c:v>35.179104000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.061886000000001</c:v>
+                  <c:v>33.281081999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.032668999999999</c:v>
+                  <c:v>34.601542999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.421059</c:v>
+                  <c:v>35.082400999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.96011</c:v>
+                  <c:v>20.821190000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.477913000000001</c:v>
+                  <c:v>37.681125999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.012096</c:v>
+                  <c:v>39.673133999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.414776000000003</c:v>
+                  <c:v>40.277572999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.556972999999999</c:v>
+                  <c:v>40.485027000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>37.764488</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.167709000000002</c:v>
+                  <c:v>39.799357999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.779028</c:v>
+                  <c:v>19.615508999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.471257999999999</c:v>
+                  <c:v>25.316632999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.905132000000002</c:v>
+                  <c:v>33.026062000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.956333000000001</c:v>
+                  <c:v>34.251868999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.035122000000001</c:v>
+                  <c:v>34.579552</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.061698999999997</c:v>
+                  <c:v>34.611832</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.626807999999997</c:v>
+                  <c:v>32.800156000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1974,67 +1976,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>32.922676000000003</c:v>
+                  <c:v>33.209225000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.977221999999998</c:v>
+                  <c:v>34.483046999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.17915</c:v>
+                  <c:v>34.863140000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.373299000000003</c:v>
+                  <c:v>35.179104000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.428963000000003</c:v>
+                  <c:v>35.260593</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.163581999999998</c:v>
+                  <c:v>34.979869999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.500087999999998</c:v>
+                  <c:v>35.361503999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.703171000000001</c:v>
+                  <c:v>20.756789999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.713322000000002</c:v>
+                  <c:v>26.126698000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.99127</c:v>
+                  <c:v>33.968029000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.092789000000003</c:v>
+                  <c:v>35.946967999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.687973</c:v>
+                  <c:v>36.622391</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33.095160999999997</c:v>
+                  <c:v>36.980365999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.323334000000003</c:v>
+                  <c:v>37.190429999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.738938999999998</c:v>
+                  <c:v>20.711213999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.305260000000001</c:v>
+                  <c:v>25.701533999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.801749999999998</c:v>
+                  <c:v>32.268374999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.536162999999998</c:v>
+                  <c:v>32.853240999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.126584999999999</c:v>
+                  <c:v>33.024704</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.388870000000001</c:v>
+                  <c:v>33.015647999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.692335</c:v>
+                  <c:v>32.982219999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2515,7 +2517,7 @@
                   <c:v>36.172652999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.181156000000001</c:v>
+                  <c:v>35.941177000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>36.166392999999999</c:v>
@@ -2611,61 +2613,61 @@
                   <c:v>32.892646999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.352325</c:v>
+                  <c:v>34.901854999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.006332</c:v>
+                  <c:v>36.121346000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.557068000000001</c:v>
+                  <c:v>36.705928999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>32.914935999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.665264000000001</c:v>
+                  <c:v>35.235160999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.458809000000002</c:v>
+                  <c:v>36.164538999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.881233000000002</c:v>
+                  <c:v>20.175901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.181156000000001</c:v>
+                  <c:v>35.941177000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.439255000000003</c:v>
+                  <c:v>38.579647000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.893386999999997</c:v>
+                  <c:v>40.258316000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.327922999999998</c:v>
+                  <c:v>40.766452999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>36.197647000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.604725000000002</c:v>
+                  <c:v>38.793564000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.920334</c:v>
+                  <c:v>19.261623</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.541819</c:v>
+                  <c:v>28.103034999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>32.833832000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.511825999999999</c:v>
+                  <c:v>35.069954000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.956394000000003</c:v>
+                  <c:v>35.333832000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.556598999999999</c:v>
+                  <c:v>35.501949000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>32.268013000000003</c:v>
@@ -2728,64 +2730,64 @@
                   <c:v>32.892646999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.352325</c:v>
+                  <c:v>34.901854999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.006332</c:v>
+                  <c:v>36.121346000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.557068000000001</c:v>
+                  <c:v>36.705928999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.637794</c:v>
+                  <c:v>36.634377000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.687389000000003</c:v>
+                  <c:v>36.733952000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.914794999999998</c:v>
+                  <c:v>37.252952999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.539190000000001</c:v>
+                  <c:v>20.594902000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.903199999999998</c:v>
+                  <c:v>29.259143999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.032898000000003</c:v>
+                  <c:v>35.076293999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.301861000000002</c:v>
+                  <c:v>36.930515</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.770195000000001</c:v>
+                  <c:v>37.606681999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.139763000000002</c:v>
+                  <c:v>37.850676999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.203026000000001</c:v>
+                  <c:v>38.088645999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.242861000000001</c:v>
+                  <c:v>19.225525000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.613441000000002</c:v>
+                  <c:v>24.385054</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.790945000000001</c:v>
+                  <c:v>29.188337000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.262892000000001</c:v>
+                  <c:v>33.591358</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.463058</c:v>
+                  <c:v>33.780731000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.125328</c:v>
+                  <c:v>33.748382999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.308893000000001</c:v>
+                  <c:v>33.734763999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3220,67 +3222,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>81342</c:v>
+                  <c:v>81524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79228</c:v>
+                  <c:v>83325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83375</c:v>
+                  <c:v>81810</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79187</c:v>
+                  <c:v>81089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83509</c:v>
+                  <c:v>82940</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82348</c:v>
+                  <c:v>80535</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78191</c:v>
+                  <c:v>85019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80028</c:v>
+                  <c:v>85675</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80060</c:v>
+                  <c:v>81952</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81075</c:v>
+                  <c:v>82766</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83297</c:v>
+                  <c:v>82222</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71991</c:v>
+                  <c:v>78872</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>77777</c:v>
+                  <c:v>80207</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73438</c:v>
+                  <c:v>71573</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80727</c:v>
+                  <c:v>83747</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83899</c:v>
+                  <c:v>82772</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>84656</c:v>
+                  <c:v>88240</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>80427</c:v>
+                  <c:v>86108</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82393</c:v>
+                  <c:v>80786</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81979</c:v>
+                  <c:v>81640</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>85330</c:v>
+                  <c:v>80726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3324,72 +3326,72 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Constant qp BitCount'!$F$3:$F$23</c:f>
+              <c:f>'Constant qp BitCount'!$E$3:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>83873</c:v>
+                  <c:v>141254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69603</c:v>
+                  <c:v>105334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64558</c:v>
+                  <c:v>98473</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59142</c:v>
+                  <c:v>91715</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64302</c:v>
+                  <c:v>97724</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65438</c:v>
+                  <c:v>97256</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53513</c:v>
+                  <c:v>81433</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>161619</c:v>
+                  <c:v>215548</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44083</c:v>
+                  <c:v>62364</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32142</c:v>
+                  <c:v>46443</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27760</c:v>
+                  <c:v>40788</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25489</c:v>
+                  <c:v>40053</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23290</c:v>
+                  <c:v>39462</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21426</c:v>
+                  <c:v>37070</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>176026</c:v>
+                  <c:v>219219</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82512</c:v>
+                  <c:v>122341</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74467</c:v>
+                  <c:v>116305</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>68746</c:v>
+                  <c:v>112679</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67903</c:v>
+                  <c:v>116700</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>65891</c:v>
+                  <c:v>117471</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>67312</c:v>
+                  <c:v>120901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3818,67 +3820,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>32.922676000000003</c:v>
+                  <c:v>33.209225000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.977221999999998</c:v>
+                  <c:v>34.483046999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.17915</c:v>
+                  <c:v>34.863140000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.373299000000003</c:v>
+                  <c:v>35.179104000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.428963000000003</c:v>
+                  <c:v>35.260593</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.163581999999998</c:v>
+                  <c:v>34.979869999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.500087999999998</c:v>
+                  <c:v>35.361503999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.703171000000001</c:v>
+                  <c:v>20.756789999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.713322000000002</c:v>
+                  <c:v>26.126698000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.99127</c:v>
+                  <c:v>33.968029000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.092789000000003</c:v>
+                  <c:v>35.946967999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.687973</c:v>
+                  <c:v>36.622391</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33.095160999999997</c:v>
+                  <c:v>36.980365999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.323334000000003</c:v>
+                  <c:v>37.190429999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.738938999999998</c:v>
+                  <c:v>20.711213999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.305260000000001</c:v>
+                  <c:v>25.701533999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.801749999999998</c:v>
+                  <c:v>32.268374999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.536162999999998</c:v>
+                  <c:v>32.853240999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.126584999999999</c:v>
+                  <c:v>33.024704</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.388870000000001</c:v>
+                  <c:v>33.015647999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.692335</c:v>
+                  <c:v>32.982219999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3927,67 +3929,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33.654021999999998</c:v>
+                  <c:v>36.541454000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.832417</c:v>
+                  <c:v>36.826805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.763565</c:v>
+                  <c:v>36.802345000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.776321000000003</c:v>
+                  <c:v>36.866942999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.721691</c:v>
+                  <c:v>36.864071000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.596901000000003</c:v>
+                  <c:v>36.697563000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.680523000000001</c:v>
+                  <c:v>36.822231000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.603543999999999</c:v>
+                  <c:v>35.770888999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.480953</c:v>
+                  <c:v>36.497013000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.097985999999999</c:v>
+                  <c:v>36.860461999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.399291999999999</c:v>
+                  <c:v>37.069180000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.589500000000001</c:v>
+                  <c:v>37.168762000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.729956000000001</c:v>
+                  <c:v>37.284050000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.826536000000001</c:v>
+                  <c:v>37.350613000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.317527999999999</c:v>
+                  <c:v>34.898707999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.531122</c:v>
+                  <c:v>35.442383</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.914370999999999</c:v>
+                  <c:v>35.476542999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.1511</c:v>
+                  <c:v>35.541428000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.318769</c:v>
+                  <c:v>35.565033</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.407647999999998</c:v>
+                  <c:v>35.543807999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.475828</c:v>
+                  <c:v>35.510756999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7737,15 +7739,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>81915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>17144</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>140969</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8119,7 +8121,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F22"/>
+      <selection activeCell="F2" sqref="F2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8140,19 +8142,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>81342</v>
+        <v>81524</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>81342</v>
+        <v>81524</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>81342</v>
+        <v>81524</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8160,19 +8162,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>84595</v>
+        <v>82527</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>79228</v>
+        <v>83325</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>79228</v>
+        <v>83325</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8180,19 +8182,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>80962</v>
+        <v>83618</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>83375</v>
+        <v>81810</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>83375</v>
+        <v>81810</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8200,19 +8202,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>82299</v>
+        <v>82203</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>79187</v>
+        <v>81089</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>79187</v>
+        <v>81089</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8220,19 +8222,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>80978</v>
+        <v>80734</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>80978</v>
+        <v>80734</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>83509</v>
+        <v>82940</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8240,19 +8242,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>83020</v>
+        <v>80762</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>78584</v>
+        <v>79189</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>82348</v>
+        <v>80535</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8260,19 +8262,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80925</v>
+        <v>83760</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>77552</v>
+        <v>81146</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>78191</v>
+        <v>85019</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8280,19 +8282,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>77491</v>
+        <v>76932</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>80013</v>
+        <v>85598</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>80028</v>
+        <v>85675</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8300,19 +8302,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>75549</v>
+        <v>77313</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>75549</v>
+        <v>77313</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>80060</v>
+        <v>81952</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8320,19 +8322,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>75578</v>
+        <v>76893</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>74458</v>
+        <v>74491</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>81075</v>
+        <v>82766</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8340,19 +8342,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>77700</v>
+        <v>76790</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>68403</v>
+        <v>73618</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>83297</v>
+        <v>82222</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8360,19 +8362,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76962</v>
+        <v>76505</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>64749</v>
+        <v>64939</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>71991</v>
+        <v>78872</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8380,19 +8382,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>76412</v>
+        <v>76416</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>76412</v>
+        <v>76416</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>77777</v>
+        <v>80207</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8400,19 +8402,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76591</v>
+        <v>76595</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>73323</v>
+        <v>76363</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>73438</v>
+        <v>71573</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8420,19 +8422,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>83125</v>
+        <v>81955</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>80796</v>
+        <v>85524</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>80727</v>
+        <v>83747</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8440,19 +8442,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>82578</v>
+        <v>84058</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>81326</v>
+        <v>81743</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>83899</v>
+        <v>82772</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8460,19 +8462,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>82174</v>
+        <v>81613</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>82174</v>
+        <v>81613</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>84656</v>
+        <v>88240</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8480,19 +8482,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83413</v>
+        <v>84170</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>81990</v>
+        <v>83596</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>80427</v>
+        <v>86108</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8500,19 +8502,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>83933</v>
+        <v>82667</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>82465</v>
+        <v>85688</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>82393</v>
+        <v>80786</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8520,19 +8522,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>83668</v>
+        <v>81232</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>81220</v>
+        <v>86799</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>81979</v>
+        <v>81640</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8540,19 +8542,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>80411</v>
+        <v>82911</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>80411</v>
+        <v>82911</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>85330</v>
+        <v>80726</v>
       </c>
     </row>
   </sheetData>
@@ -8565,8 +8567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8587,19 +8589,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31324</v>
+        <v>31372</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>31324</v>
+        <v>31372</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>31324</v>
+        <v>31372</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8607,19 +8609,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30939</v>
+        <v>30981</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>31977</v>
+        <v>30715</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>31977</v>
+        <v>30715</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8627,19 +8629,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31214</v>
+        <v>31244</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>31787</v>
+        <v>32513</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>31787</v>
+        <v>32513</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8647,19 +8649,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31400</v>
+        <v>31426</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>32347</v>
+        <v>33433</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>32347</v>
+        <v>33433</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8667,19 +8669,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31764</v>
+        <v>31805</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>31764</v>
+        <v>31805</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>31369</v>
+        <v>30774</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8687,19 +8689,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>32130</v>
+        <v>32192</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>30874</v>
+        <v>31790</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>32987</v>
+        <v>32757</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8707,19 +8709,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31145</v>
+        <v>31200</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>30067</v>
+        <v>30417</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>30597</v>
+        <v>32743</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8727,19 +8729,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31572</v>
+        <v>31615</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>32037</v>
+        <v>32931</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>32213</v>
+        <v>32864</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8747,19 +8749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32031</v>
+        <v>30290</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>32031</v>
+        <v>30290</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>32296</v>
+        <v>32689</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8767,19 +8769,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31875</v>
+        <v>31918</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>27933</v>
+        <v>32154</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>33528</v>
+        <v>32968</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8787,19 +8789,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31905</v>
+        <v>31948</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>29900</v>
+        <v>30758</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>35328</v>
+        <v>32631</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8807,19 +8809,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31700</v>
+        <v>31743</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>24117</v>
+        <v>27836</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>32199</v>
+        <v>31176</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8827,19 +8829,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31855</v>
+        <v>31898</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>31855</v>
+        <v>31898</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>26898</v>
+        <v>26791</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8847,19 +8849,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30134</v>
+        <v>30177</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>28018</v>
+        <v>29316</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>23635</v>
+        <v>22505</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8867,19 +8869,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31725</v>
+        <v>31779</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>32249</v>
+        <v>33903</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>32362</v>
+        <v>33730</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8887,19 +8889,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31970</v>
+        <v>31944</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>33410</v>
+        <v>32955</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>32362</v>
+        <v>33063</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8907,19 +8909,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32078</v>
+        <v>32050</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>32078</v>
+        <v>32050</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>34667</v>
+        <v>32712</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8927,19 +8929,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32381</v>
+        <v>32382</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>32671</v>
+        <v>34923</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>30961</v>
+        <v>34654</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8947,19 +8949,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31587</v>
+        <v>31638</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>32300</v>
+        <v>31597</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>31734</v>
+        <v>31291</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8967,19 +8969,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31602</v>
+        <v>31616</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>31386</v>
+        <v>32691</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>34462</v>
+        <v>33439</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8987,19 +8989,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32207</v>
+        <v>32265</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>32207</v>
+        <v>32265</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>32727</v>
+        <v>32281</v>
       </c>
     </row>
   </sheetData>
@@ -9013,7 +9015,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F22"/>
+      <selection activeCell="F2" sqref="F2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9034,19 +9036,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.922676000000003</v>
+        <v>33.209225000000004</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>32.922676000000003</v>
+        <v>33.209225000000004</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32.922676000000003</v>
+        <v>33.209225000000004</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9054,19 +9056,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33.065178000000003</v>
+        <v>33.317096999999997</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>33.977221999999998</v>
+        <v>34.483046999999999</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>33.977221999999998</v>
+        <v>34.483046999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9074,19 +9076,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33.111407999999997</v>
+        <v>33.416893000000002</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>34.17915</v>
+        <v>34.863140000000001</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>34.17915</v>
+        <v>34.863140000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9094,19 +9096,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>33.247089000000003</v>
+        <v>33.455269000000001</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>34.373299000000003</v>
+        <v>35.179104000000002</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>34.373299000000003</v>
+        <v>35.179104000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9114,19 +9116,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>33.061886000000001</v>
+        <v>33.281081999999998</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>33.061886000000001</v>
+        <v>33.281081999999998</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>34.428963000000003</v>
+        <v>35.260593</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9134,19 +9136,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>33.189579000000002</v>
+        <v>33.240028000000002</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>34.032668999999999</v>
+        <v>34.601542999999999</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>34.163581999999998</v>
+        <v>34.979869999999998</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9154,19 +9156,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32.990250000000003</v>
+        <v>33.317065999999997</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>34.421059</v>
+        <v>35.082400999999997</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>34.500087999999998</v>
+        <v>35.361503999999996</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9174,19 +9176,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>37.519649999999999</v>
+        <v>37.653255000000001</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>23.96011</v>
+        <v>20.821190000000001</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>23.703171000000001</v>
+        <v>20.756789999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9194,19 +9196,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.477913000000001</v>
+        <v>37.681125999999999</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>37.477913000000001</v>
+        <v>37.681125999999999</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>28.713322000000002</v>
+        <v>26.126698000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9214,19 +9216,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.431870000000004</v>
+        <v>37.654274000000001</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>39.012096</v>
+        <v>39.673133999999997</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>30.99127</v>
+        <v>33.968029000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9234,19 +9236,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.536411000000001</v>
+        <v>37.669437000000002</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>39.414776000000003</v>
+        <v>40.277572999999997</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>32.092789000000003</v>
+        <v>35.946967999999998</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9254,19 +9256,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.600158999999998</v>
+        <v>37.726661999999997</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>39.556972999999999</v>
+        <v>40.485027000000002</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>32.687973</v>
+        <v>36.622391</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9286,7 +9288,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>33.095160999999997</v>
+        <v>36.980365999999997</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9300,13 +9302,13 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>39.167709000000002</v>
+        <v>39.799357999999998</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>33.323334000000003</v>
+        <v>37.190429999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9314,19 +9316,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.999721999999998</v>
+        <v>33.185555000000001</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>22.779028</v>
+        <v>19.615508999999999</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>22.738938999999998</v>
+        <v>20.711213999999998</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9334,19 +9336,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.989418000000001</v>
+        <v>33.058132000000001</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>27.471257999999999</v>
+        <v>25.316632999999999</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>27.305260000000001</v>
+        <v>25.701533999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9354,19 +9356,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.905132000000002</v>
+        <v>33.026062000000003</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>32.905132000000002</v>
+        <v>33.026062000000003</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>28.801749999999998</v>
+        <v>32.268374999999999</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9374,19 +9376,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.944232999999997</v>
+        <v>33.071598000000002</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>33.956333000000001</v>
+        <v>34.251868999999999</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>29.536162999999998</v>
+        <v>32.853240999999997</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9394,19 +9396,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.892417999999999</v>
+        <v>32.905875999999999</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>34.035122000000001</v>
+        <v>34.579552</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>30.126584999999999</v>
+        <v>33.024704</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9414,19 +9416,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.676471999999997</v>
+        <v>32.733367999999999</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>34.061698999999997</v>
+        <v>34.611832</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>30.388870000000001</v>
+        <v>33.015647999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9434,19 +9436,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.626807999999997</v>
+        <v>32.800156000000001</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>32.626807999999997</v>
+        <v>32.800156000000001</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>30.692335</v>
+        <v>32.982219999999998</v>
       </c>
     </row>
   </sheetData>
@@ -9460,7 +9462,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F22"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9507,13 +9509,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>34.352325</v>
+        <v>34.901854999999998</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>34.352325</v>
+        <v>34.901854999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9527,13 +9529,13 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>35.006332</v>
+        <v>36.121346000000003</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>35.006332</v>
+        <v>36.121346000000003</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9547,13 +9549,13 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>35.557068000000001</v>
+        <v>36.705928999999998</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>35.557068000000001</v>
+        <v>36.705928999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9573,7 +9575,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>35.637794</v>
+        <v>36.634377000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9587,13 +9589,13 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>34.665264000000001</v>
+        <v>35.235160999999998</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>35.687389000000003</v>
+        <v>36.733952000000002</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9607,13 +9609,13 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>35.458809000000002</v>
+        <v>36.164538999999998</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>35.914794999999998</v>
+        <v>37.252952999999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9627,13 +9629,13 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>23.881233000000002</v>
+        <v>20.175901</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>24.539190000000001</v>
+        <v>20.594902000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9641,19 +9643,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.181156000000001</v>
+        <v>35.941177000000003</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>36.181156000000001</v>
+        <v>35.941177000000003</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>28.903199999999998</v>
+        <v>29.259143999999999</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9667,13 +9669,13 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>38.439255000000003</v>
+        <v>38.579647000000001</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>33.032898000000003</v>
+        <v>35.076293999999997</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9687,13 +9689,13 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>39.893386999999997</v>
+        <v>40.258316000000001</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>34.301861000000002</v>
+        <v>36.930515</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9707,13 +9709,13 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>40.327922999999998</v>
+        <v>40.766452999999998</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>34.770195000000001</v>
+        <v>37.606681999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9733,7 +9735,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>35.139763000000002</v>
+        <v>37.850676999999997</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9747,13 +9749,13 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>38.604725000000002</v>
+        <v>38.793564000000003</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>35.203026000000001</v>
+        <v>38.088645999999997</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9767,13 +9769,13 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>23.920334</v>
+        <v>19.261623</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>23.242861000000001</v>
+        <v>19.225525000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9787,13 +9789,13 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>28.541819</v>
+        <v>28.103034999999998</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>27.613441000000002</v>
+        <v>24.385054</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9813,7 +9815,7 @@
         <v>16</v>
       </c>
       <c r="F18">
-        <v>29.790945000000001</v>
+        <v>29.188337000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9827,13 +9829,13 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>34.511825999999999</v>
+        <v>35.069954000000003</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>30.262892000000001</v>
+        <v>33.591358</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9847,13 +9849,13 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>34.956394000000003</v>
+        <v>35.333832000000001</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>30.463058</v>
+        <v>33.780731000000003</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9867,13 +9869,13 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>34.556598999999999</v>
+        <v>35.501949000000003</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>31.125328</v>
+        <v>33.748382999999997</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9893,7 +9895,7 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>31.308893000000001</v>
+        <v>33.734763999999998</v>
       </c>
     </row>
   </sheetData>
@@ -9906,8 +9908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9968,709 +9970,307 @@
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>437383</v>
-      </c>
-      <c r="C3">
-        <v>316806</v>
-      </c>
-      <c r="D3">
-        <v>220803</v>
-      </c>
       <c r="E3">
-        <v>141238</v>
+        <v>141254</v>
       </c>
       <c r="F3">
-        <v>83873</v>
-      </c>
-      <c r="G3">
-        <v>50332</v>
-      </c>
-      <c r="H3">
-        <v>31719</v>
-      </c>
-      <c r="I3">
-        <v>21820</v>
+        <v>83903</v>
       </c>
       <c r="P3">
-        <v>81342</v>
+        <v>81524</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>405329</v>
-      </c>
-      <c r="C4">
-        <v>286482</v>
-      </c>
-      <c r="D4">
-        <v>195337</v>
-      </c>
       <c r="E4">
-        <v>126466</v>
+        <v>105334</v>
       </c>
       <c r="F4">
-        <v>69603</v>
-      </c>
-      <c r="G4">
-        <v>49151</v>
-      </c>
-      <c r="H4">
-        <v>39783</v>
-      </c>
-      <c r="I4">
-        <v>37467</v>
+        <v>59482</v>
       </c>
       <c r="P4">
-        <v>79228</v>
+        <v>83325</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>400378</v>
-      </c>
-      <c r="C5">
-        <v>283820</v>
-      </c>
-      <c r="D5">
-        <v>188992</v>
-      </c>
       <c r="E5">
-        <v>115737</v>
+        <v>98473</v>
       </c>
       <c r="F5">
-        <v>64558</v>
-      </c>
-      <c r="G5">
-        <v>43637</v>
-      </c>
-      <c r="H5">
-        <v>35110</v>
-      </c>
-      <c r="I5">
-        <v>35322</v>
+        <v>53449</v>
       </c>
       <c r="P5">
-        <v>83375</v>
+        <v>81810</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>381247</v>
-      </c>
-      <c r="C6">
-        <v>265941</v>
-      </c>
-      <c r="D6">
-        <v>176791</v>
-      </c>
       <c r="E6">
-        <v>104249</v>
+        <v>91715</v>
       </c>
       <c r="F6">
-        <v>59142</v>
-      </c>
-      <c r="G6">
-        <v>38760</v>
-      </c>
-      <c r="H6">
-        <v>33336</v>
-      </c>
-      <c r="I6">
-        <v>32589</v>
+        <v>47518</v>
       </c>
       <c r="P6">
-        <v>79187</v>
+        <v>81089</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>404870</v>
-      </c>
-      <c r="C7">
-        <v>280502</v>
-      </c>
-      <c r="D7">
-        <v>188152</v>
-      </c>
       <c r="E7">
-        <v>114378</v>
+        <v>97724</v>
       </c>
       <c r="F7">
-        <v>64302</v>
-      </c>
-      <c r="G7">
-        <v>39236</v>
-      </c>
-      <c r="H7">
-        <v>31801</v>
-      </c>
-      <c r="I7">
-        <v>33020</v>
+        <v>50026</v>
       </c>
       <c r="P7">
-        <v>83509</v>
+        <v>82940</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>404423</v>
-      </c>
-      <c r="C8">
-        <v>281611</v>
-      </c>
-      <c r="D8">
-        <v>191837</v>
-      </c>
       <c r="E8">
-        <v>116837</v>
+        <v>97256</v>
       </c>
       <c r="F8">
-        <v>65438</v>
-      </c>
-      <c r="G8">
-        <v>38231</v>
-      </c>
-      <c r="H8">
-        <v>32211</v>
-      </c>
-      <c r="I8">
-        <v>31872</v>
+        <v>52165</v>
       </c>
       <c r="P8">
-        <v>82348</v>
+        <v>80535</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>351232</v>
-      </c>
-      <c r="C9">
-        <v>237979</v>
-      </c>
-      <c r="D9">
-        <v>152594</v>
-      </c>
       <c r="E9">
-        <v>92309</v>
+        <v>81433</v>
       </c>
       <c r="F9">
-        <v>53513</v>
-      </c>
-      <c r="G9">
-        <v>37562</v>
-      </c>
-      <c r="H9">
-        <v>30008</v>
-      </c>
-      <c r="I9">
-        <v>30227</v>
+        <v>45079</v>
       </c>
       <c r="P9">
-        <v>78191</v>
+        <v>85019</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>585636</v>
-      </c>
-      <c r="C10">
-        <v>443583</v>
-      </c>
-      <c r="D10">
-        <v>326211</v>
-      </c>
       <c r="E10">
-        <v>236491</v>
+        <v>215548</v>
       </c>
       <c r="F10">
-        <v>161619</v>
-      </c>
-      <c r="G10">
-        <v>99147</v>
-      </c>
-      <c r="H10">
-        <v>55450</v>
-      </c>
-      <c r="I10">
-        <v>33008</v>
+        <v>144573</v>
       </c>
       <c r="P10">
-        <v>80028</v>
+        <v>85675</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>199259</v>
-      </c>
-      <c r="C11">
-        <v>131883</v>
-      </c>
-      <c r="D11">
-        <v>97366</v>
-      </c>
       <c r="E11">
-        <v>63914</v>
+        <v>62364</v>
       </c>
       <c r="F11">
-        <v>44083</v>
-      </c>
-      <c r="G11">
-        <v>33513</v>
-      </c>
-      <c r="H11">
-        <v>28803</v>
-      </c>
-      <c r="I11">
-        <v>24506</v>
+        <v>40597</v>
       </c>
       <c r="P11">
-        <v>80060</v>
+        <v>81952</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>163785</v>
-      </c>
-      <c r="C12">
-        <v>95979</v>
-      </c>
-      <c r="D12">
-        <v>66039</v>
-      </c>
       <c r="E12">
-        <v>43474</v>
+        <v>46443</v>
       </c>
       <c r="F12">
-        <v>32142</v>
-      </c>
-      <c r="G12">
-        <v>25783</v>
-      </c>
-      <c r="H12">
-        <v>23750</v>
-      </c>
-      <c r="I12">
-        <v>21377</v>
+        <v>33020</v>
       </c>
       <c r="P12">
-        <v>81075</v>
+        <v>82766</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>153023</v>
-      </c>
-      <c r="C13">
-        <v>82899</v>
-      </c>
-      <c r="D13">
-        <v>52984</v>
-      </c>
       <c r="E13">
-        <v>37430</v>
+        <v>40788</v>
       </c>
       <c r="F13">
-        <v>27760</v>
-      </c>
-      <c r="G13">
-        <v>23758</v>
-      </c>
-      <c r="H13">
-        <v>20918</v>
-      </c>
-      <c r="I13">
-        <v>19422</v>
+        <v>31159</v>
       </c>
       <c r="P13">
-        <v>83297</v>
+        <v>82222</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>151808</v>
-      </c>
-      <c r="C14">
-        <v>80689</v>
-      </c>
-      <c r="D14">
-        <v>49580</v>
-      </c>
       <c r="E14">
-        <v>35897</v>
+        <v>40053</v>
       </c>
       <c r="F14">
-        <v>25489</v>
-      </c>
-      <c r="G14">
-        <v>22162</v>
-      </c>
-      <c r="H14">
-        <v>19270</v>
-      </c>
-      <c r="I14">
-        <v>17176</v>
+        <v>30320</v>
       </c>
       <c r="P14">
-        <v>71991</v>
+        <v>78872</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>145457</v>
-      </c>
-      <c r="C15">
-        <v>75891</v>
-      </c>
-      <c r="D15">
-        <v>42928</v>
-      </c>
       <c r="E15">
-        <v>30958</v>
+        <v>39462</v>
       </c>
       <c r="F15">
-        <v>23290</v>
-      </c>
-      <c r="G15">
-        <v>19398</v>
-      </c>
-      <c r="H15">
-        <v>17123</v>
-      </c>
-      <c r="I15">
-        <v>17004</v>
+        <v>30151</v>
       </c>
       <c r="P15">
-        <v>77777</v>
+        <v>80207</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>146647</v>
-      </c>
-      <c r="C16">
-        <v>74525</v>
-      </c>
-      <c r="D16">
-        <v>42069</v>
-      </c>
       <c r="E16">
-        <v>27722</v>
+        <v>37070</v>
       </c>
       <c r="F16">
-        <v>21426</v>
-      </c>
-      <c r="G16">
-        <v>18565</v>
-      </c>
-      <c r="H16">
-        <v>16255</v>
-      </c>
-      <c r="I16">
-        <v>16459</v>
+        <v>29050</v>
       </c>
       <c r="P16">
-        <v>73438</v>
+        <v>71573</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>635621</v>
-      </c>
-      <c r="C17">
-        <v>485238</v>
-      </c>
-      <c r="D17">
-        <v>356936</v>
-      </c>
       <c r="E17">
-        <v>257443</v>
+        <v>219219</v>
       </c>
       <c r="F17">
-        <v>176026</v>
-      </c>
-      <c r="G17">
-        <v>107330</v>
-      </c>
-      <c r="H17">
-        <v>58451</v>
-      </c>
-      <c r="I17">
-        <v>34572</v>
+        <v>144110</v>
       </c>
       <c r="P17">
-        <v>80727</v>
+        <v>83747</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18">
-        <v>428841</v>
-      </c>
-      <c r="C18">
-        <v>310415</v>
-      </c>
-      <c r="D18">
-        <v>218245</v>
-      </c>
       <c r="E18">
-        <v>143184</v>
+        <v>122341</v>
       </c>
       <c r="F18">
-        <v>82512</v>
-      </c>
-      <c r="G18">
-        <v>48008</v>
-      </c>
-      <c r="H18">
-        <v>31846</v>
-      </c>
-      <c r="I18">
-        <v>26665</v>
+        <v>68919</v>
       </c>
       <c r="P18">
-        <v>83899</v>
+        <v>82772</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>431949</v>
-      </c>
-      <c r="C19">
-        <v>308809</v>
-      </c>
-      <c r="D19">
-        <v>211765</v>
-      </c>
       <c r="E19">
-        <v>131762</v>
+        <v>116305</v>
       </c>
       <c r="F19">
-        <v>74467</v>
-      </c>
-      <c r="G19">
-        <v>42582</v>
-      </c>
-      <c r="H19">
-        <v>28672</v>
-      </c>
-      <c r="I19">
-        <v>25374</v>
+        <v>62691</v>
       </c>
       <c r="P19">
-        <v>84656</v>
+        <v>88240</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>422521</v>
-      </c>
-      <c r="C20">
-        <v>301904</v>
-      </c>
-      <c r="D20">
-        <v>204743</v>
-      </c>
       <c r="E20">
-        <v>124552</v>
+        <v>112679</v>
       </c>
       <c r="F20">
-        <v>68746</v>
-      </c>
-      <c r="G20">
-        <v>37557</v>
-      </c>
-      <c r="H20">
-        <v>27208</v>
-      </c>
-      <c r="I20">
-        <v>23234</v>
+        <v>62883</v>
       </c>
       <c r="P20">
-        <v>80427</v>
+        <v>86108</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>424918</v>
-      </c>
-      <c r="C21">
-        <v>298756</v>
-      </c>
-      <c r="D21">
-        <v>200171</v>
-      </c>
       <c r="E21">
-        <v>126486</v>
+        <v>116700</v>
       </c>
       <c r="F21">
-        <v>67903</v>
-      </c>
-      <c r="G21">
-        <v>38392</v>
-      </c>
-      <c r="H21">
-        <v>26629</v>
-      </c>
-      <c r="I21">
-        <v>23376</v>
+        <v>60007</v>
       </c>
       <c r="P21">
-        <v>82393</v>
+        <v>80786</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22">
-        <v>422774</v>
-      </c>
-      <c r="C22">
-        <v>299169</v>
-      </c>
-      <c r="D22">
-        <v>200113</v>
-      </c>
       <c r="E22">
-        <v>122565</v>
+        <v>117471</v>
       </c>
       <c r="F22">
-        <v>65891</v>
-      </c>
-      <c r="G22">
-        <v>38226</v>
-      </c>
-      <c r="H22">
-        <v>26597</v>
-      </c>
-      <c r="I22">
-        <v>21917</v>
+        <v>64820</v>
       </c>
       <c r="P22">
-        <v>81979</v>
+        <v>81640</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23">
-        <v>431542</v>
-      </c>
-      <c r="C23">
-        <v>302332</v>
-      </c>
-      <c r="D23">
-        <v>202576</v>
-      </c>
       <c r="E23">
-        <v>123657</v>
+        <v>120901</v>
       </c>
       <c r="F23">
-        <v>67312</v>
-      </c>
-      <c r="G23">
-        <v>38029</v>
-      </c>
-      <c r="H23">
-        <v>26899</v>
-      </c>
-      <c r="I23">
-        <v>23745</v>
+        <v>66290</v>
       </c>
       <c r="P23">
-        <v>85330</v>
+        <v>80726</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <f>SUM(B3:B23)</f>
-        <v>7528643</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24:P24" si="0">SUM(C3:C23)</f>
-        <v>5245213</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>3586232</v>
-      </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>2316749</v>
+        <f>SUM(E2:E23)</f>
+        <v>2120536</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>1399095</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>889359</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>641839</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>550152</v>
+        <f>SUM(F3:F23)</f>
+        <v>1260212</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J24:P24" si="0">SUM(J3:J23)</f>
         <v>0</v>
       </c>
       <c r="K24">
@@ -10695,37 +10295,17 @@
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>1694257</v>
+        <v>1723528</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <f>P24/B24</f>
-        <v>0.22504148489973558</v>
-      </c>
-      <c r="C25">
-        <f>P24/C24</f>
-        <v>0.32301014277208573</v>
-      </c>
-      <c r="D25">
-        <f>P24/D24</f>
-        <v>0.47243374104073577</v>
-      </c>
       <c r="E25">
         <f>P24/E24</f>
-        <v>0.73130796646507668</v>
+        <v>0.81277941048866886</v>
       </c>
       <c r="F25">
         <f>P24/F24</f>
-        <v>1.2109663746922117</v>
-      </c>
-      <c r="G25">
-        <f>P24/G24</f>
-        <v>1.9050316014118034</v>
-      </c>
-      <c r="H25">
-        <f>P24/H24</f>
-        <v>2.6396915737435713</v>
+        <v>1.3676492526654245</v>
       </c>
     </row>
   </sheetData>
@@ -10739,7 +10319,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C22"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10760,10 +10340,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.654021999999998</v>
+        <v>36.541454000000002</v>
       </c>
       <c r="C2">
-        <v>32.922676000000003</v>
+        <v>33.209225000000004</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10771,10 +10351,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33.832417</v>
+        <v>36.826805</v>
       </c>
       <c r="C3">
-        <v>33.977221999999998</v>
+        <v>34.483046999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10782,10 +10362,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33.763565</v>
+        <v>36.802345000000003</v>
       </c>
       <c r="C4">
-        <v>34.17915</v>
+        <v>34.863140000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10793,10 +10373,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>33.776321000000003</v>
+        <v>36.866942999999999</v>
       </c>
       <c r="C5">
-        <v>34.373299000000003</v>
+        <v>35.179104000000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -10804,10 +10384,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>33.721691</v>
+        <v>36.864071000000003</v>
       </c>
       <c r="C6">
-        <v>34.428963000000003</v>
+        <v>35.260593</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -10815,10 +10395,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>33.596901000000003</v>
+        <v>36.697563000000002</v>
       </c>
       <c r="C7">
-        <v>34.163581999999998</v>
+        <v>34.979869999999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -10826,10 +10406,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.680523000000001</v>
+        <v>36.822231000000002</v>
       </c>
       <c r="C8">
-        <v>34.500087999999998</v>
+        <v>35.361503999999996</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -10837,10 +10417,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.603543999999999</v>
+        <v>35.770888999999997</v>
       </c>
       <c r="C9">
-        <v>23.703171000000001</v>
+        <v>20.756789999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -10848,10 +10428,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.480953</v>
+        <v>36.497013000000003</v>
       </c>
       <c r="C10">
-        <v>28.713322000000002</v>
+        <v>26.126698000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -10859,10 +10439,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.097985999999999</v>
+        <v>36.860461999999998</v>
       </c>
       <c r="C11">
-        <v>30.99127</v>
+        <v>33.968029000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -10870,10 +10450,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.399291999999999</v>
+        <v>37.069180000000003</v>
       </c>
       <c r="C12">
-        <v>32.092789000000003</v>
+        <v>35.946967999999998</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -10881,10 +10461,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.589500000000001</v>
+        <v>37.168762000000001</v>
       </c>
       <c r="C13">
-        <v>32.687973</v>
+        <v>36.622391</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -10892,10 +10472,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.729956000000001</v>
+        <v>37.284050000000001</v>
       </c>
       <c r="C14">
-        <v>33.095160999999997</v>
+        <v>36.980365999999997</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -10903,10 +10483,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.826536000000001</v>
+        <v>37.350613000000003</v>
       </c>
       <c r="C15">
-        <v>33.323334000000003</v>
+        <v>37.190429999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -10914,10 +10494,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.317527999999999</v>
+        <v>34.898707999999999</v>
       </c>
       <c r="C16">
-        <v>22.738938999999998</v>
+        <v>20.711213999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -10925,10 +10505,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.531122</v>
+        <v>35.442383</v>
       </c>
       <c r="C17">
-        <v>27.305260000000001</v>
+        <v>25.701533999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -10936,10 +10516,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.914370999999999</v>
+        <v>35.476542999999999</v>
       </c>
       <c r="C18">
-        <v>28.801749999999998</v>
+        <v>32.268374999999999</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -10947,10 +10527,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.1511</v>
+        <v>35.541428000000003</v>
       </c>
       <c r="C19">
-        <v>29.536162999999998</v>
+        <v>32.853240999999997</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -10958,10 +10538,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.318769</v>
+        <v>35.565033</v>
       </c>
       <c r="C20">
-        <v>30.126584999999999</v>
+        <v>33.024704</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -10969,10 +10549,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.407647999999998</v>
+        <v>35.543807999999999</v>
       </c>
       <c r="C21">
-        <v>30.388870000000001</v>
+        <v>33.015647999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -10980,10 +10560,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.475828</v>
+        <v>35.510756999999998</v>
       </c>
       <c r="C22">
-        <v>30.692335</v>
+        <v>32.982219999999998</v>
       </c>
     </row>
   </sheetData>

--- a/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
+++ b/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CIF - bitcount" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>I_PERIOD_1</t>
   </si>
@@ -50,6 +50,24 @@
   </si>
   <si>
     <t>Rate Control</t>
+  </si>
+  <si>
+    <t>QP3</t>
+  </si>
+  <si>
+    <t>QP4</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>Total Bits</t>
+  </si>
+  <si>
+    <t>%Difference =  RC/QP</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -73,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -81,12 +99,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,7 +829,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100000"/>
-          <c:min val="50000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -706,7 +868,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Bitcount</a:t>
+                  <a:t>Bitcount (bits)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1421,7 +1583,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40000"/>
-          <c:min val="10000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1460,7 +1622,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Bitcount</a:t>
+                  <a:t>Bitcount (bits)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3298,7 +3460,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>QP-4</c:v>
+            <c:v>QP-3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -7569,14 +7731,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>33336</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>157161</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>172402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -8121,7 +8283,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F22"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8567,8 +8729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9906,13 +10068,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -10308,9 +10474,53 @@
         <v>1.3676492526654245</v>
       </c>
     </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1723528</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2120536</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1260212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="8">
+        <f>(1-(C28/D28))*100</f>
+        <v>18.722058951133114</v>
+      </c>
+      <c r="E29" s="9">
+        <f>(1-(C28/E28))*100</f>
+        <v>-36.764925266542448</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
+++ b/goldendata/Assigment3_E1/BitcountAndPSNRGraphs.xlsx
@@ -13,11 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="CIF - bitcount" sheetId="1" r:id="rId1"/>
-    <sheet name="QCIF- bitcount" sheetId="2" r:id="rId2"/>
-    <sheet name="CIF - psnr" sheetId="4" r:id="rId3"/>
+    <sheet name="CIF - psnr" sheetId="4" r:id="rId2"/>
+    <sheet name="QCIF- bitcount" sheetId="2" r:id="rId3"/>
     <sheet name="QCIF - psnr" sheetId="5" r:id="rId4"/>
     <sheet name="Constant qp BitCount" sheetId="6" r:id="rId5"/>
     <sheet name="Constant qp PSNR" sheetId="7" r:id="rId6"/>
+    <sheet name="Table" sheetId="8" r:id="rId7"/>
+    <sheet name="CIF_I" sheetId="9" r:id="rId8"/>
+    <sheet name="CIF_IP" sheetId="10" r:id="rId9"/>
+    <sheet name="QCIF_I" sheetId="11" r:id="rId10"/>
+    <sheet name="QCIF_P" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>I_PERIOD_1</t>
   </si>
@@ -69,18 +74,33 @@
   <si>
     <t>n/a</t>
   </si>
+  <si>
+    <t>P-Frames</t>
+  </si>
+  <si>
+    <t>I-FRAMES</t>
+  </si>
+  <si>
+    <t>QP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -234,11 +254,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -249,6 +284,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,67 +442,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>81524</c:v>
+                  <c:v>82336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82527</c:v>
+                  <c:v>81196</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83618</c:v>
+                  <c:v>81192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82203</c:v>
+                  <c:v>82633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80734</c:v>
+                  <c:v>81692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80762</c:v>
+                  <c:v>81780</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83760</c:v>
+                  <c:v>81753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76932</c:v>
+                  <c:v>76353</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77313</c:v>
+                  <c:v>76576</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76893</c:v>
+                  <c:v>76720</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76790</c:v>
+                  <c:v>76558</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76505</c:v>
+                  <c:v>76424</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76416</c:v>
+                  <c:v>76132</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76595</c:v>
+                  <c:v>76151</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>81955</c:v>
+                  <c:v>80256</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84058</c:v>
+                  <c:v>83207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81613</c:v>
+                  <c:v>82531</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>84170</c:v>
+                  <c:v>83144</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82667</c:v>
+                  <c:v>83915</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81232</c:v>
+                  <c:v>80837</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82911</c:v>
+                  <c:v>82357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,67 +559,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>81524</c:v>
+                  <c:v>82336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83325</c:v>
+                  <c:v>79204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81810</c:v>
+                  <c:v>83745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81089</c:v>
+                  <c:v>80466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80734</c:v>
+                  <c:v>81692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79189</c:v>
+                  <c:v>78857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81146</c:v>
+                  <c:v>81767</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85598</c:v>
+                  <c:v>81938</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77313</c:v>
+                  <c:v>76576</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74491</c:v>
+                  <c:v>73226</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73618</c:v>
+                  <c:v>67763</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64939</c:v>
+                  <c:v>57349</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76416</c:v>
+                  <c:v>76132</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76363</c:v>
+                  <c:v>72754</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>85524</c:v>
+                  <c:v>81515</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>81743</c:v>
+                  <c:v>80566</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81613</c:v>
+                  <c:v>82531</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83596</c:v>
+                  <c:v>82795</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>85688</c:v>
+                  <c:v>84406</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>86799</c:v>
+                  <c:v>86943</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82911</c:v>
+                  <c:v>82357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,67 +676,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>81524</c:v>
+                  <c:v>82336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83325</c:v>
+                  <c:v>79204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81810</c:v>
+                  <c:v>83745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81089</c:v>
+                  <c:v>80466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82940</c:v>
+                  <c:v>80350</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80535</c:v>
+                  <c:v>82614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85019</c:v>
+                  <c:v>82222</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85675</c:v>
+                  <c:v>81389</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81952</c:v>
+                  <c:v>79922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82766</c:v>
+                  <c:v>81599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>82222</c:v>
+                  <c:v>80109</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78872</c:v>
+                  <c:v>84530</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80207</c:v>
+                  <c:v>71389</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71573</c:v>
+                  <c:v>63628</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83747</c:v>
+                  <c:v>81849</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82772</c:v>
+                  <c:v>80043</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>88240</c:v>
+                  <c:v>87522</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>86108</c:v>
+                  <c:v>86674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80786</c:v>
+                  <c:v>85832</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81640</c:v>
+                  <c:v>85942</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80726</c:v>
+                  <c:v>84700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,760 +1090,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>QCIF</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Bitcount Per Frame</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Rate Control with</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 960 kbps Target Bitrate</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'QCIF- bitcount'!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I_PERIOD_1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'QCIF- bitcount'!$B$2:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>31372</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30981</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31244</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31426</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31805</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32192</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31615</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30290</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>31918</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31948</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>31743</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>31898</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30177</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31779</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31944</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32050</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>32382</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>31638</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>31616</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>32265</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2401-4774-B09A-99796626A598}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'QCIF- bitcount'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I_PERIOD_4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'QCIF- bitcount'!$D$2:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>31372</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30715</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32513</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33433</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31805</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31790</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30417</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32931</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30290</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32154</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30758</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27836</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>31898</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29316</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33903</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32955</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32050</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>34923</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>31597</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32691</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>32265</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2401-4774-B09A-99796626A598}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'QCIF- bitcount'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I_PERIOD_21</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'QCIF- bitcount'!$F$2:$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>31372</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30715</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32513</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33433</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30774</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32757</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32743</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32864</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32689</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32968</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32631</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>31176</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26791</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22505</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33730</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>33063</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32712</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>34654</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>31291</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>33439</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>32281</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2401-4774-B09A-99796626A598}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="371748080"/>
-        <c:axId val="371753176"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="371748080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Frame</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="371753176"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="371753176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="40000"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Bitcount (bits)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="371748080"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>CIF PSNR per Frame</a:t>
             </a:r>
           </a:p>
@@ -1904,67 +1192,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33.209225000000004</c:v>
+                  <c:v>33.71217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.317096999999997</c:v>
+                  <c:v>33.766463999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.416893000000002</c:v>
+                  <c:v>33.793190000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.455269000000001</c:v>
+                  <c:v>33.979607000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.281081999999998</c:v>
+                  <c:v>33.766025999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.240028000000002</c:v>
+                  <c:v>33.745612999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.317065999999997</c:v>
+                  <c:v>33.734932000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.653255000000001</c:v>
+                  <c:v>38.224742999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.681125999999999</c:v>
+                  <c:v>38.268776000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.654274000000001</c:v>
+                  <c:v>38.242474000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.669437000000002</c:v>
+                  <c:v>38.258220999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37.726661999999997</c:v>
+                  <c:v>38.329963999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.764488</c:v>
+                  <c:v>38.369289000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.750587000000003</c:v>
+                  <c:v>38.350864000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33.185555000000001</c:v>
+                  <c:v>33.685768000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.058132000000001</c:v>
+                  <c:v>33.765453000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33.026062000000003</c:v>
+                  <c:v>33.549362000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.071598000000002</c:v>
+                  <c:v>33.524208000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.905875999999999</c:v>
+                  <c:v>33.436625999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32.733367999999999</c:v>
+                  <c:v>33.295490000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.800156000000001</c:v>
+                  <c:v>33.221184000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2021,67 +1309,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33.209225000000004</c:v>
+                  <c:v>33.71217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.483046999999999</c:v>
+                  <c:v>34.977592000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.863140000000001</c:v>
+                  <c:v>35.601520999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.179104000000002</c:v>
+                  <c:v>36.001018999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.281081999999998</c:v>
+                  <c:v>33.766025999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.601542999999999</c:v>
+                  <c:v>35.033805999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.082400999999997</c:v>
+                  <c:v>35.940314999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.821190000000001</c:v>
+                  <c:v>22.202061</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.681125999999999</c:v>
+                  <c:v>38.268776000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.673133999999997</c:v>
+                  <c:v>40.755611000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.277572999999997</c:v>
+                  <c:v>41.549126000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.485027000000002</c:v>
+                  <c:v>41.748840000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.764488</c:v>
+                  <c:v>38.369289000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.799357999999998</c:v>
+                  <c:v>40.823402000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.615508999999999</c:v>
+                  <c:v>25.740694000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.316632999999999</c:v>
+                  <c:v>29.234182000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33.026062000000003</c:v>
+                  <c:v>33.549362000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.251868999999999</c:v>
+                  <c:v>34.768405999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.579552</c:v>
+                  <c:v>35.233170000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.611832</c:v>
+                  <c:v>35.378216000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.800156000000001</c:v>
+                  <c:v>33.221184000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2138,67 +1426,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33.209225000000004</c:v>
+                  <c:v>33.71217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.483046999999999</c:v>
+                  <c:v>34.977592000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.863140000000001</c:v>
+                  <c:v>35.601520999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.179104000000002</c:v>
+                  <c:v>36.001018999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.260593</c:v>
+                  <c:v>36.042568000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.979869999999998</c:v>
+                  <c:v>35.805176000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.361503999999996</c:v>
+                  <c:v>36.198402000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.756789999999999</c:v>
+                  <c:v>22.215456</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.126698000000001</c:v>
+                  <c:v>29.546431999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.968029000000001</c:v>
+                  <c:v>34.363830999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.946967999999998</c:v>
+                  <c:v>36.397148000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.622391</c:v>
+                  <c:v>37.539963</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.980365999999997</c:v>
+                  <c:v>37.973083000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.190429999999999</c:v>
+                  <c:v>38.185809999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.711213999999998</c:v>
+                  <c:v>22.398741000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.701533999999999</c:v>
+                  <c:v>28.114082</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.268374999999999</c:v>
+                  <c:v>32.893360000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.853240999999997</c:v>
+                  <c:v>33.543633</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.024704</c:v>
+                  <c:v>33.859313999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.015647999999999</c:v>
+                  <c:v>33.948051</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.982219999999998</c:v>
+                  <c:v>33.804161000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2526,6 +1814,760 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>QCIF</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Bitcount Per Frame</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rate Control with</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 960 kbps Target Bitrate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QCIF- bitcount'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_PERIOD_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'QCIF- bitcount'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>32568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30780</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30553</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30682</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30708</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30681</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30660</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31073</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31052</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30802</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31672</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31932</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32269</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2401-4774-B09A-99796626A598}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QCIF- bitcount'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_PERIOD_4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'QCIF- bitcount'!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>32568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30930</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32231</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28312</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25533</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30660</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32471</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30802</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33913</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32041</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32670</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2401-4774-B09A-99796626A598}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'QCIF- bitcount'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I_PERIOD_21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'QCIF- bitcount'!$F$2:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>32568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30930</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32481</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32674</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32526</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33108</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28471</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24426</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17082</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34074</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35404</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35031</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34289</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2401-4774-B09A-99796626A598}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="371748080"/>
+        <c:axId val="371753176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="371748080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frame</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371753176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="371753176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bitcount (bits)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371748080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2655,19 +2697,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>32.892646999999997</c:v>
+                  <c:v>32.999961999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.881531000000003</c:v>
+                  <c:v>32.984993000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.986404</c:v>
+                  <c:v>33.098773999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.931587</c:v>
+                  <c:v>33.047798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.914935999999997</c:v>
+                  <c:v>33.036696999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32.921638000000002</c:v>
@@ -2679,7 +2721,7 @@
                   <c:v>36.172652999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.941177000000003</c:v>
+                  <c:v>36.181156000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>36.166392999999999</c:v>
@@ -2694,7 +2736,7 @@
                   <c:v>36.197647000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.967609000000003</c:v>
+                  <c:v>36.220954999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>32.800026000000003</c:v>
@@ -2709,13 +2751,13 @@
                   <c:v>32.843178000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.300201000000001</c:v>
+                  <c:v>32.711829999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32.285674999999998</c:v>
+                  <c:v>32.816254000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.268013000000003</c:v>
+                  <c:v>32.788055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2772,67 +2814,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>32.892646999999997</c:v>
+                  <c:v>32.999961999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.901854999999998</c:v>
+                  <c:v>35.774169999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.121346000000003</c:v>
+                  <c:v>36.533721999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.705928999999998</c:v>
+                  <c:v>37.351933000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.914935999999997</c:v>
+                  <c:v>33.036696999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.235160999999998</c:v>
+                  <c:v>35.678046999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.164538999999998</c:v>
+                  <c:v>36.944904000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.175901</c:v>
+                  <c:v>25.007159999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.941177000000003</c:v>
+                  <c:v>36.181156000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.579647000000001</c:v>
+                  <c:v>39.171562000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.258316000000001</c:v>
+                  <c:v>40.748443999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.766452999999998</c:v>
+                  <c:v>41.569262999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>36.197647000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.793564000000003</c:v>
+                  <c:v>39.358401999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.261623</c:v>
+                  <c:v>24.780113</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.103034999999998</c:v>
+                  <c:v>28.249725000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>32.833832000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.069954000000003</c:v>
+                  <c:v>35.433033000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.333832000000001</c:v>
+                  <c:v>36.107146999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35.501949000000003</c:v>
+                  <c:v>36.244888000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.268013000000003</c:v>
+                  <c:v>32.788055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2889,67 +2931,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>32.892646999999997</c:v>
+                  <c:v>32.999961999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.901854999999998</c:v>
+                  <c:v>35.774169999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.121346000000003</c:v>
+                  <c:v>36.533721999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.705928999999998</c:v>
+                  <c:v>37.351933000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.634377000000001</c:v>
+                  <c:v>37.387900999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.733952000000002</c:v>
+                  <c:v>37.498863</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.252952999999998</c:v>
+                  <c:v>38.048729000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.594902000000001</c:v>
+                  <c:v>20.135611999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.259143999999999</c:v>
+                  <c:v>26.696548</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.076293999999997</c:v>
+                  <c:v>36.038516999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.930515</c:v>
+                  <c:v>37.644267999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37.606681999999999</c:v>
+                  <c:v>38.122737999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.850676999999997</c:v>
+                  <c:v>38.391993999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.088645999999997</c:v>
+                  <c:v>38.436866999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.225525000000001</c:v>
+                  <c:v>20.958559000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.385054</c:v>
+                  <c:v>30.841889999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.188337000000001</c:v>
+                  <c:v>32.329574999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.591358</c:v>
+                  <c:v>34.520184</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.780731000000003</c:v>
+                  <c:v>34.906128000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.748382999999997</c:v>
+                  <c:v>34.999125999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.734763999999998</c:v>
+                  <c:v>35.017529000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3384,67 +3426,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>81524</c:v>
+                  <c:v>82336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83325</c:v>
+                  <c:v>79204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81810</c:v>
+                  <c:v>83745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81089</c:v>
+                  <c:v>80466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82940</c:v>
+                  <c:v>80350</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80535</c:v>
+                  <c:v>82614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85019</c:v>
+                  <c:v>82222</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85675</c:v>
+                  <c:v>81389</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81952</c:v>
+                  <c:v>79922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82766</c:v>
+                  <c:v>81599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>82222</c:v>
+                  <c:v>80109</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78872</c:v>
+                  <c:v>84530</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80207</c:v>
+                  <c:v>71389</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71573</c:v>
+                  <c:v>63628</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83747</c:v>
+                  <c:v>81849</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82772</c:v>
+                  <c:v>80043</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>88240</c:v>
+                  <c:v>87522</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>86108</c:v>
+                  <c:v>86674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80786</c:v>
+                  <c:v>85832</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81640</c:v>
+                  <c:v>85942</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80726</c:v>
+                  <c:v>84700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3493,67 +3535,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>141254</c:v>
+                  <c:v>136462</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105334</c:v>
+                  <c:v>88852</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98473</c:v>
+                  <c:v>83631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91715</c:v>
+                  <c:v>72681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97724</c:v>
+                  <c:v>77982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97256</c:v>
+                  <c:v>84244</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81433</c:v>
+                  <c:v>60899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>215548</c:v>
+                  <c:v>206806</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62364</c:v>
+                  <c:v>48284</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46443</c:v>
+                  <c:v>32615</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40788</c:v>
+                  <c:v>27082</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40053</c:v>
+                  <c:v>26589</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39462</c:v>
+                  <c:v>25648</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37070</c:v>
+                  <c:v>24636</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>219219</c:v>
+                  <c:v>206661</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>122341</c:v>
+                  <c:v>107319</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>116305</c:v>
+                  <c:v>101849</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>112679</c:v>
+                  <c:v>99817</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>116700</c:v>
+                  <c:v>98488</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>117471</c:v>
+                  <c:v>100435</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120901</c:v>
+                  <c:v>104741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3982,67 +4024,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33.209225000000004</c:v>
+                  <c:v>33.71217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.483046999999999</c:v>
+                  <c:v>34.977592000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.863140000000001</c:v>
+                  <c:v>35.601520999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.179104000000002</c:v>
+                  <c:v>36.001018999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.260593</c:v>
+                  <c:v>36.042568000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.979869999999998</c:v>
+                  <c:v>35.805176000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.361503999999996</c:v>
+                  <c:v>36.198402000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.756789999999999</c:v>
+                  <c:v>22.215456</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.126698000000001</c:v>
+                  <c:v>29.546431999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.968029000000001</c:v>
+                  <c:v>34.363830999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.946967999999998</c:v>
+                  <c:v>36.397148000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.622391</c:v>
+                  <c:v>37.539963</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.980365999999997</c:v>
+                  <c:v>37.973083000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.190429999999999</c:v>
+                  <c:v>38.185809999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.711213999999998</c:v>
+                  <c:v>22.398741000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.701533999999999</c:v>
+                  <c:v>28.114082</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.268374999999999</c:v>
+                  <c:v>32.893360000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.853240999999997</c:v>
+                  <c:v>33.543633</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.024704</c:v>
+                  <c:v>33.859313999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.015647999999999</c:v>
+                  <c:v>33.948051</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.982219999999998</c:v>
+                  <c:v>33.804161000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7772,23 +7814,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>106681</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83819</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6280FB-87F9-405C-A090-61ADA31C9807}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04CAEE3-0F90-4EA5-AE66-F3F142605586}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7815,23 +7857,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>83819</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04CAEE3-0F90-4EA5-AE66-F3F142605586}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6280FB-87F9-405C-A090-61ADA31C9807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8283,7 +8325,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="F2" sqref="F2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8304,19 +8346,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>81524</v>
+        <v>82336</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>81524</v>
+        <v>82336</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>81524</v>
+        <v>82336</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8324,19 +8366,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>82527</v>
+        <v>81196</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>83325</v>
+        <v>79204</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>83325</v>
+        <v>79204</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8344,19 +8386,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>83618</v>
+        <v>81192</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>81810</v>
+        <v>83745</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>81810</v>
+        <v>83745</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8364,19 +8406,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>82203</v>
+        <v>82633</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>81089</v>
+        <v>80466</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>81089</v>
+        <v>80466</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8384,19 +8426,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>80734</v>
+        <v>81692</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>80734</v>
+        <v>81692</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>82940</v>
+        <v>80350</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8404,19 +8446,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>80762</v>
+        <v>81780</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>79189</v>
+        <v>78857</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>80535</v>
+        <v>82614</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8424,19 +8466,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>83760</v>
+        <v>81753</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>81146</v>
+        <v>81767</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>85019</v>
+        <v>82222</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8444,19 +8486,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>76932</v>
+        <v>76353</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>85598</v>
+        <v>81938</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>85675</v>
+        <v>81389</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8464,19 +8506,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>77313</v>
+        <v>76576</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>77313</v>
+        <v>76576</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>81952</v>
+        <v>79922</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8484,19 +8526,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>76893</v>
+        <v>76720</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>74491</v>
+        <v>73226</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>82766</v>
+        <v>81599</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8504,19 +8546,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>76790</v>
+        <v>76558</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>73618</v>
+        <v>67763</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>82222</v>
+        <v>80109</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8524,19 +8566,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76505</v>
+        <v>76424</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>64939</v>
+        <v>57349</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>78872</v>
+        <v>84530</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8544,19 +8586,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>76416</v>
+        <v>76132</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>76416</v>
+        <v>76132</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>80207</v>
+        <v>71389</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8564,19 +8606,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76595</v>
+        <v>76151</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>76363</v>
+        <v>72754</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>71573</v>
+        <v>63628</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8584,19 +8626,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>81955</v>
+        <v>80256</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>85524</v>
+        <v>81515</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>83747</v>
+        <v>81849</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8604,19 +8646,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>84058</v>
+        <v>83207</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>81743</v>
+        <v>80566</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>82772</v>
+        <v>80043</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8624,19 +8666,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>81613</v>
+        <v>82531</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>81613</v>
+        <v>82531</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>88240</v>
+        <v>87522</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8644,19 +8686,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>84170</v>
+        <v>83144</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>83596</v>
+        <v>82795</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>86108</v>
+        <v>86674</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8664,19 +8706,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>82667</v>
+        <v>83915</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>85688</v>
+        <v>84406</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>80786</v>
+        <v>85832</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8684,19 +8726,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>81232</v>
+        <v>80837</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>86799</v>
+        <v>86943</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>81640</v>
+        <v>85942</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8704,24 +8746,1832 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>82911</v>
+        <v>82357</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>82911</v>
+        <v>82357</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>80726</v>
+        <v>84700</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>13138</v>
+      </c>
+      <c r="C2">
+        <v>9958</v>
+      </c>
+      <c r="D2">
+        <v>7331</v>
+      </c>
+      <c r="E2">
+        <v>5012</v>
+      </c>
+      <c r="F2">
+        <v>3167</v>
+      </c>
+      <c r="G2">
+        <v>1800</v>
+      </c>
+      <c r="H2">
+        <v>938</v>
+      </c>
+      <c r="I2">
+        <v>405</v>
+      </c>
+      <c r="J2">
+        <v>174</v>
+      </c>
+      <c r="K2">
+        <v>78</v>
+      </c>
+      <c r="L2">
+        <v>42</v>
+      </c>
+      <c r="M2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>13078</v>
+      </c>
+      <c r="C3">
+        <v>9914</v>
+      </c>
+      <c r="D3">
+        <v>7273</v>
+      </c>
+      <c r="E3">
+        <v>4988</v>
+      </c>
+      <c r="F3">
+        <v>3113</v>
+      </c>
+      <c r="G3">
+        <v>1794</v>
+      </c>
+      <c r="H3">
+        <v>926</v>
+      </c>
+      <c r="I3">
+        <v>416</v>
+      </c>
+      <c r="J3">
+        <v>169</v>
+      </c>
+      <c r="K3">
+        <v>77</v>
+      </c>
+      <c r="L3">
+        <v>42</v>
+      </c>
+      <c r="M3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>13097</v>
+      </c>
+      <c r="C4">
+        <v>9887</v>
+      </c>
+      <c r="D4">
+        <v>7256</v>
+      </c>
+      <c r="E4">
+        <v>4959</v>
+      </c>
+      <c r="F4">
+        <v>3125</v>
+      </c>
+      <c r="G4">
+        <v>1836</v>
+      </c>
+      <c r="H4">
+        <v>914</v>
+      </c>
+      <c r="I4">
+        <v>424</v>
+      </c>
+      <c r="J4">
+        <v>176</v>
+      </c>
+      <c r="K4">
+        <v>76</v>
+      </c>
+      <c r="L4">
+        <v>42</v>
+      </c>
+      <c r="M4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>13140</v>
+      </c>
+      <c r="C5">
+        <v>9895</v>
+      </c>
+      <c r="D5">
+        <v>7325</v>
+      </c>
+      <c r="E5">
+        <v>4979</v>
+      </c>
+      <c r="F5">
+        <v>3159</v>
+      </c>
+      <c r="G5">
+        <v>1838</v>
+      </c>
+      <c r="H5">
+        <v>951</v>
+      </c>
+      <c r="I5">
+        <v>401</v>
+      </c>
+      <c r="J5">
+        <v>172</v>
+      </c>
+      <c r="K5">
+        <v>77</v>
+      </c>
+      <c r="L5">
+        <v>42</v>
+      </c>
+      <c r="M5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>13205</v>
+      </c>
+      <c r="C6">
+        <v>9986</v>
+      </c>
+      <c r="D6">
+        <v>7374</v>
+      </c>
+      <c r="E6">
+        <v>5073</v>
+      </c>
+      <c r="F6">
+        <v>3167</v>
+      </c>
+      <c r="G6">
+        <v>1839</v>
+      </c>
+      <c r="H6">
+        <v>934</v>
+      </c>
+      <c r="I6">
+        <v>402</v>
+      </c>
+      <c r="J6">
+        <v>163</v>
+      </c>
+      <c r="K6">
+        <v>79</v>
+      </c>
+      <c r="L6">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>13244</v>
+      </c>
+      <c r="C7">
+        <v>9995</v>
+      </c>
+      <c r="D7">
+        <v>7393</v>
+      </c>
+      <c r="E7">
+        <v>5080</v>
+      </c>
+      <c r="F7">
+        <v>3220</v>
+      </c>
+      <c r="G7">
+        <v>1830</v>
+      </c>
+      <c r="H7">
+        <v>957</v>
+      </c>
+      <c r="I7">
+        <v>409</v>
+      </c>
+      <c r="J7">
+        <v>171</v>
+      </c>
+      <c r="K7">
+        <v>85</v>
+      </c>
+      <c r="L7">
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>13335</v>
+      </c>
+      <c r="C8">
+        <v>10047</v>
+      </c>
+      <c r="D8">
+        <v>7424</v>
+      </c>
+      <c r="E8">
+        <v>5081</v>
+      </c>
+      <c r="F8">
+        <v>3241</v>
+      </c>
+      <c r="G8">
+        <v>1888</v>
+      </c>
+      <c r="H8">
+        <v>962</v>
+      </c>
+      <c r="I8">
+        <v>401</v>
+      </c>
+      <c r="J8">
+        <v>179</v>
+      </c>
+      <c r="K8">
+        <v>79</v>
+      </c>
+      <c r="L8">
+        <v>41</v>
+      </c>
+      <c r="M8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>10410</v>
+      </c>
+      <c r="C9">
+        <v>7484</v>
+      </c>
+      <c r="D9">
+        <v>5195</v>
+      </c>
+      <c r="E9">
+        <v>3618</v>
+      </c>
+      <c r="F9">
+        <v>2355</v>
+      </c>
+      <c r="G9">
+        <v>1307</v>
+      </c>
+      <c r="H9">
+        <v>592</v>
+      </c>
+      <c r="I9">
+        <v>256</v>
+      </c>
+      <c r="J9">
+        <v>120</v>
+      </c>
+      <c r="K9">
+        <v>76</v>
+      </c>
+      <c r="L9">
+        <v>57</v>
+      </c>
+      <c r="M9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>10435</v>
+      </c>
+      <c r="C10">
+        <v>7492</v>
+      </c>
+      <c r="D10">
+        <v>5189</v>
+      </c>
+      <c r="E10">
+        <v>3620</v>
+      </c>
+      <c r="F10">
+        <v>2371</v>
+      </c>
+      <c r="G10">
+        <v>1303</v>
+      </c>
+      <c r="H10">
+        <v>588</v>
+      </c>
+      <c r="I10">
+        <v>254</v>
+      </c>
+      <c r="J10">
+        <v>121</v>
+      </c>
+      <c r="K10">
+        <v>76</v>
+      </c>
+      <c r="L10">
+        <v>57</v>
+      </c>
+      <c r="M10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10412</v>
+      </c>
+      <c r="C11">
+        <v>7483</v>
+      </c>
+      <c r="D11">
+        <v>5210</v>
+      </c>
+      <c r="E11">
+        <v>3632</v>
+      </c>
+      <c r="F11">
+        <v>2363</v>
+      </c>
+      <c r="G11">
+        <v>1317</v>
+      </c>
+      <c r="H11">
+        <v>597</v>
+      </c>
+      <c r="I11">
+        <v>266</v>
+      </c>
+      <c r="J11">
+        <v>120</v>
+      </c>
+      <c r="K11">
+        <v>76</v>
+      </c>
+      <c r="L11">
+        <v>57</v>
+      </c>
+      <c r="M11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10448</v>
+      </c>
+      <c r="C12">
+        <v>7478</v>
+      </c>
+      <c r="D12">
+        <v>5202</v>
+      </c>
+      <c r="E12">
+        <v>3617</v>
+      </c>
+      <c r="F12">
+        <v>2365</v>
+      </c>
+      <c r="G12">
+        <v>1308</v>
+      </c>
+      <c r="H12">
+        <v>593</v>
+      </c>
+      <c r="I12">
+        <v>262</v>
+      </c>
+      <c r="J12">
+        <v>120</v>
+      </c>
+      <c r="K12">
+        <v>76</v>
+      </c>
+      <c r="L12">
+        <v>57</v>
+      </c>
+      <c r="M12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10446</v>
+      </c>
+      <c r="C13">
+        <v>7515</v>
+      </c>
+      <c r="D13">
+        <v>5194</v>
+      </c>
+      <c r="E13">
+        <v>3614</v>
+      </c>
+      <c r="F13">
+        <v>2367</v>
+      </c>
+      <c r="G13">
+        <v>1321</v>
+      </c>
+      <c r="H13">
+        <v>597</v>
+      </c>
+      <c r="I13">
+        <v>260</v>
+      </c>
+      <c r="J13">
+        <v>120</v>
+      </c>
+      <c r="K13">
+        <v>76</v>
+      </c>
+      <c r="L13">
+        <v>57</v>
+      </c>
+      <c r="M13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10404</v>
+      </c>
+      <c r="C14">
+        <v>7466</v>
+      </c>
+      <c r="D14">
+        <v>5208</v>
+      </c>
+      <c r="E14">
+        <v>3633</v>
+      </c>
+      <c r="F14">
+        <v>2376</v>
+      </c>
+      <c r="G14">
+        <v>1309</v>
+      </c>
+      <c r="H14">
+        <v>596</v>
+      </c>
+      <c r="I14">
+        <v>255</v>
+      </c>
+      <c r="J14">
+        <v>119</v>
+      </c>
+      <c r="K14">
+        <v>76</v>
+      </c>
+      <c r="L14">
+        <v>55</v>
+      </c>
+      <c r="M14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>10399</v>
+      </c>
+      <c r="C15">
+        <v>7462</v>
+      </c>
+      <c r="D15">
+        <v>5198</v>
+      </c>
+      <c r="E15">
+        <v>3637</v>
+      </c>
+      <c r="F15">
+        <v>2357</v>
+      </c>
+      <c r="G15">
+        <v>1299</v>
+      </c>
+      <c r="H15">
+        <v>593</v>
+      </c>
+      <c r="I15">
+        <v>258</v>
+      </c>
+      <c r="J15">
+        <v>119</v>
+      </c>
+      <c r="K15">
+        <v>76</v>
+      </c>
+      <c r="L15">
+        <v>55</v>
+      </c>
+      <c r="M15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13372</v>
+      </c>
+      <c r="C16">
+        <v>10084</v>
+      </c>
+      <c r="D16">
+        <v>7442</v>
+      </c>
+      <c r="E16">
+        <v>5125</v>
+      </c>
+      <c r="F16">
+        <v>3256</v>
+      </c>
+      <c r="G16">
+        <v>1887</v>
+      </c>
+      <c r="H16">
+        <v>938</v>
+      </c>
+      <c r="I16">
+        <v>415</v>
+      </c>
+      <c r="J16">
+        <v>192</v>
+      </c>
+      <c r="K16">
+        <v>72</v>
+      </c>
+      <c r="L16">
+        <v>41</v>
+      </c>
+      <c r="M16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>13297</v>
+      </c>
+      <c r="C17">
+        <v>10073</v>
+      </c>
+      <c r="D17">
+        <v>7404</v>
+      </c>
+      <c r="E17">
+        <v>5111</v>
+      </c>
+      <c r="F17">
+        <v>3252</v>
+      </c>
+      <c r="G17">
+        <v>1871</v>
+      </c>
+      <c r="H17">
+        <v>965</v>
+      </c>
+      <c r="I17">
+        <v>422</v>
+      </c>
+      <c r="J17">
+        <v>187</v>
+      </c>
+      <c r="K17">
+        <v>74</v>
+      </c>
+      <c r="L17">
+        <v>41</v>
+      </c>
+      <c r="M17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>13423</v>
+      </c>
+      <c r="C18">
+        <v>10143</v>
+      </c>
+      <c r="D18">
+        <v>7488</v>
+      </c>
+      <c r="E18">
+        <v>5135</v>
+      </c>
+      <c r="F18">
+        <v>3232</v>
+      </c>
+      <c r="G18">
+        <v>1851</v>
+      </c>
+      <c r="H18">
+        <v>959</v>
+      </c>
+      <c r="I18">
+        <v>417</v>
+      </c>
+      <c r="J18">
+        <v>178</v>
+      </c>
+      <c r="K18">
+        <v>82</v>
+      </c>
+      <c r="L18">
+        <v>41</v>
+      </c>
+      <c r="M18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>13498</v>
+      </c>
+      <c r="C19">
+        <v>10236</v>
+      </c>
+      <c r="D19">
+        <v>7539</v>
+      </c>
+      <c r="E19">
+        <v>5164</v>
+      </c>
+      <c r="F19">
+        <v>3327</v>
+      </c>
+      <c r="G19">
+        <v>1898</v>
+      </c>
+      <c r="H19">
+        <v>965</v>
+      </c>
+      <c r="I19">
+        <v>440</v>
+      </c>
+      <c r="J19">
+        <v>183</v>
+      </c>
+      <c r="K19">
+        <v>85</v>
+      </c>
+      <c r="L19">
+        <v>41</v>
+      </c>
+      <c r="M19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>13479</v>
+      </c>
+      <c r="C20">
+        <v>10227</v>
+      </c>
+      <c r="D20">
+        <v>7560</v>
+      </c>
+      <c r="E20">
+        <v>5202</v>
+      </c>
+      <c r="F20">
+        <v>3346</v>
+      </c>
+      <c r="G20">
+        <v>1921</v>
+      </c>
+      <c r="H20">
+        <v>960</v>
+      </c>
+      <c r="I20">
+        <v>451</v>
+      </c>
+      <c r="J20">
+        <v>172</v>
+      </c>
+      <c r="K20">
+        <v>85</v>
+      </c>
+      <c r="L20">
+        <v>41</v>
+      </c>
+      <c r="M20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>13512</v>
+      </c>
+      <c r="C21">
+        <v>10282</v>
+      </c>
+      <c r="D21">
+        <v>7564</v>
+      </c>
+      <c r="E21">
+        <v>5236</v>
+      </c>
+      <c r="F21">
+        <v>3378</v>
+      </c>
+      <c r="G21">
+        <v>1935</v>
+      </c>
+      <c r="H21">
+        <v>971</v>
+      </c>
+      <c r="I21">
+        <v>452</v>
+      </c>
+      <c r="J21">
+        <v>186</v>
+      </c>
+      <c r="K21">
+        <v>85</v>
+      </c>
+      <c r="L21">
+        <v>42</v>
+      </c>
+      <c r="M21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>13521</v>
+      </c>
+      <c r="C22">
+        <v>10280</v>
+      </c>
+      <c r="D22">
+        <v>7599</v>
+      </c>
+      <c r="E22">
+        <v>5264</v>
+      </c>
+      <c r="F22">
+        <v>3377</v>
+      </c>
+      <c r="G22">
+        <v>1956</v>
+      </c>
+      <c r="H22">
+        <v>1006</v>
+      </c>
+      <c r="I22">
+        <v>468</v>
+      </c>
+      <c r="J22">
+        <v>168</v>
+      </c>
+      <c r="K22">
+        <v>84</v>
+      </c>
+      <c r="L22">
+        <v>42</v>
+      </c>
+      <c r="M22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>AVERAGE(B3:B22)</f>
+        <v>12307.75</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:M23" si="0">AVERAGE(C3:C22)</f>
+        <v>9171.4500000000007</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>6651.85</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>4588.3999999999996</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>2937.35</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1675.4</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>828.2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>366.45</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>156.75</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>78.599999999999994</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>46.75</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>13138</v>
+      </c>
+      <c r="C2">
+        <v>9958</v>
+      </c>
+      <c r="D2">
+        <v>7331</v>
+      </c>
+      <c r="E2">
+        <v>5012</v>
+      </c>
+      <c r="F2">
+        <v>3167</v>
+      </c>
+      <c r="G2">
+        <v>1800</v>
+      </c>
+      <c r="H2">
+        <v>938</v>
+      </c>
+      <c r="I2">
+        <v>405</v>
+      </c>
+      <c r="J2">
+        <v>174</v>
+      </c>
+      <c r="K2">
+        <v>78</v>
+      </c>
+      <c r="L2">
+        <v>42</v>
+      </c>
+      <c r="M2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>9494</v>
+      </c>
+      <c r="C3">
+        <v>6754</v>
+      </c>
+      <c r="D3">
+        <v>4540</v>
+      </c>
+      <c r="E3">
+        <v>2753</v>
+      </c>
+      <c r="F3">
+        <v>1510</v>
+      </c>
+      <c r="G3">
+        <v>884</v>
+      </c>
+      <c r="H3">
+        <v>603</v>
+      </c>
+      <c r="I3">
+        <v>607</v>
+      </c>
+      <c r="J3">
+        <v>106</v>
+      </c>
+      <c r="K3">
+        <v>83</v>
+      </c>
+      <c r="L3">
+        <v>68</v>
+      </c>
+      <c r="M3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>9485</v>
+      </c>
+      <c r="C4">
+        <v>6722</v>
+      </c>
+      <c r="D4">
+        <v>4492</v>
+      </c>
+      <c r="E4">
+        <v>2694</v>
+      </c>
+      <c r="F4">
+        <v>1487</v>
+      </c>
+      <c r="G4">
+        <v>842</v>
+      </c>
+      <c r="H4">
+        <v>632</v>
+      </c>
+      <c r="I4">
+        <v>578</v>
+      </c>
+      <c r="J4">
+        <v>72</v>
+      </c>
+      <c r="K4">
+        <v>64</v>
+      </c>
+      <c r="L4">
+        <v>74</v>
+      </c>
+      <c r="M4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>8769</v>
+      </c>
+      <c r="C5">
+        <v>6106</v>
+      </c>
+      <c r="D5">
+        <v>3974</v>
+      </c>
+      <c r="E5">
+        <v>2287</v>
+      </c>
+      <c r="F5">
+        <v>1318</v>
+      </c>
+      <c r="G5">
+        <v>791</v>
+      </c>
+      <c r="H5">
+        <v>622</v>
+      </c>
+      <c r="I5">
+        <v>574</v>
+      </c>
+      <c r="J5">
+        <v>72</v>
+      </c>
+      <c r="K5">
+        <v>60</v>
+      </c>
+      <c r="L5">
+        <v>62</v>
+      </c>
+      <c r="M5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>9318</v>
+      </c>
+      <c r="C6">
+        <v>6485</v>
+      </c>
+      <c r="D6">
+        <v>4287</v>
+      </c>
+      <c r="E6">
+        <v>2566</v>
+      </c>
+      <c r="F6">
+        <v>1302</v>
+      </c>
+      <c r="G6">
+        <v>806</v>
+      </c>
+      <c r="H6">
+        <v>608</v>
+      </c>
+      <c r="I6">
+        <v>591</v>
+      </c>
+      <c r="J6">
+        <v>81</v>
+      </c>
+      <c r="K6">
+        <v>60</v>
+      </c>
+      <c r="L6">
+        <v>59</v>
+      </c>
+      <c r="M6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>9153</v>
+      </c>
+      <c r="C7">
+        <v>6495</v>
+      </c>
+      <c r="D7">
+        <v>4287</v>
+      </c>
+      <c r="E7">
+        <v>2602</v>
+      </c>
+      <c r="F7">
+        <v>1406</v>
+      </c>
+      <c r="G7">
+        <v>754</v>
+      </c>
+      <c r="H7">
+        <v>597</v>
+      </c>
+      <c r="I7">
+        <v>567</v>
+      </c>
+      <c r="J7">
+        <v>78</v>
+      </c>
+      <c r="K7">
+        <v>60</v>
+      </c>
+      <c r="L7">
+        <v>59</v>
+      </c>
+      <c r="M7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>8064</v>
+      </c>
+      <c r="C8">
+        <v>5365</v>
+      </c>
+      <c r="D8">
+        <v>3379</v>
+      </c>
+      <c r="E8">
+        <v>2005</v>
+      </c>
+      <c r="F8">
+        <v>1165</v>
+      </c>
+      <c r="G8">
+        <v>732</v>
+      </c>
+      <c r="H8">
+        <v>568</v>
+      </c>
+      <c r="I8">
+        <v>570</v>
+      </c>
+      <c r="J8">
+        <v>62</v>
+      </c>
+      <c r="K8">
+        <v>59</v>
+      </c>
+      <c r="L8">
+        <v>59</v>
+      </c>
+      <c r="M8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>15977</v>
+      </c>
+      <c r="C9">
+        <v>12273</v>
+      </c>
+      <c r="D9">
+        <v>9196</v>
+      </c>
+      <c r="E9">
+        <v>6673</v>
+      </c>
+      <c r="F9">
+        <v>4594</v>
+      </c>
+      <c r="G9">
+        <v>2905</v>
+      </c>
+      <c r="H9">
+        <v>1702</v>
+      </c>
+      <c r="I9">
+        <v>1076</v>
+      </c>
+      <c r="J9">
+        <v>255</v>
+      </c>
+      <c r="K9">
+        <v>191</v>
+      </c>
+      <c r="L9">
+        <v>129</v>
+      </c>
+      <c r="M9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>4311</v>
+      </c>
+      <c r="C10">
+        <v>2830</v>
+      </c>
+      <c r="D10">
+        <v>1680</v>
+      </c>
+      <c r="E10">
+        <v>1116</v>
+      </c>
+      <c r="F10">
+        <v>823</v>
+      </c>
+      <c r="G10">
+        <v>643</v>
+      </c>
+      <c r="H10">
+        <v>642</v>
+      </c>
+      <c r="I10">
+        <v>658</v>
+      </c>
+      <c r="J10">
+        <v>209</v>
+      </c>
+      <c r="K10">
+        <v>127</v>
+      </c>
+      <c r="L10">
+        <v>94</v>
+      </c>
+      <c r="M10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>3617</v>
+      </c>
+      <c r="C11">
+        <v>1987</v>
+      </c>
+      <c r="D11">
+        <v>1012</v>
+      </c>
+      <c r="E11">
+        <v>686</v>
+      </c>
+      <c r="F11">
+        <v>539</v>
+      </c>
+      <c r="G11">
+        <v>518</v>
+      </c>
+      <c r="H11">
+        <v>594</v>
+      </c>
+      <c r="I11">
+        <v>615</v>
+      </c>
+      <c r="J11">
+        <v>190</v>
+      </c>
+      <c r="K11">
+        <v>103</v>
+      </c>
+      <c r="L11">
+        <v>82</v>
+      </c>
+      <c r="M11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3233</v>
+      </c>
+      <c r="C12">
+        <v>1585</v>
+      </c>
+      <c r="D12">
+        <v>816</v>
+      </c>
+      <c r="E12">
+        <v>543</v>
+      </c>
+      <c r="F12">
+        <v>495</v>
+      </c>
+      <c r="G12">
+        <v>490</v>
+      </c>
+      <c r="H12">
+        <v>567</v>
+      </c>
+      <c r="I12">
+        <v>622</v>
+      </c>
+      <c r="J12">
+        <v>179</v>
+      </c>
+      <c r="K12">
+        <v>91</v>
+      </c>
+      <c r="L12">
+        <v>79</v>
+      </c>
+      <c r="M12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>3255</v>
+      </c>
+      <c r="C13">
+        <v>1751</v>
+      </c>
+      <c r="D13">
+        <v>909</v>
+      </c>
+      <c r="E13">
+        <v>603</v>
+      </c>
+      <c r="F13">
+        <v>536</v>
+      </c>
+      <c r="G13">
+        <v>506</v>
+      </c>
+      <c r="H13">
+        <v>577</v>
+      </c>
+      <c r="I13">
+        <v>589</v>
+      </c>
+      <c r="J13">
+        <v>163</v>
+      </c>
+      <c r="K13">
+        <v>97</v>
+      </c>
+      <c r="L13">
+        <v>72</v>
+      </c>
+      <c r="M13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3275</v>
+      </c>
+      <c r="C14">
+        <v>1688</v>
+      </c>
+      <c r="D14">
+        <v>954</v>
+      </c>
+      <c r="E14">
+        <v>630</v>
+      </c>
+      <c r="F14">
+        <v>554</v>
+      </c>
+      <c r="G14">
+        <v>535</v>
+      </c>
+      <c r="H14">
+        <v>572</v>
+      </c>
+      <c r="I14">
+        <v>593</v>
+      </c>
+      <c r="J14">
+        <v>167</v>
+      </c>
+      <c r="K14">
+        <v>90</v>
+      </c>
+      <c r="L14">
+        <v>67</v>
+      </c>
+      <c r="M14">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3127</v>
+      </c>
+      <c r="C15">
+        <v>1524</v>
+      </c>
+      <c r="D15">
+        <v>772</v>
+      </c>
+      <c r="E15">
+        <v>523</v>
+      </c>
+      <c r="F15">
+        <v>446</v>
+      </c>
+      <c r="G15">
+        <v>471</v>
+      </c>
+      <c r="H15">
+        <v>539</v>
+      </c>
+      <c r="I15">
+        <v>583</v>
+      </c>
+      <c r="J15">
+        <v>174</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="L15">
+        <v>66</v>
+      </c>
+      <c r="M15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>16426</v>
+      </c>
+      <c r="C16">
+        <v>12485</v>
+      </c>
+      <c r="D16">
+        <v>9451</v>
+      </c>
+      <c r="E16">
+        <v>6972</v>
+      </c>
+      <c r="F16">
+        <v>4797</v>
+      </c>
+      <c r="G16">
+        <v>3008</v>
+      </c>
+      <c r="H16">
+        <v>1673</v>
+      </c>
+      <c r="I16">
+        <v>1004</v>
+      </c>
+      <c r="J16">
+        <v>356</v>
+      </c>
+      <c r="K16">
+        <v>183</v>
+      </c>
+      <c r="L16">
+        <v>135</v>
+      </c>
+      <c r="M16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>10971</v>
+      </c>
+      <c r="C17">
+        <v>7901</v>
+      </c>
+      <c r="D17">
+        <v>5351</v>
+      </c>
+      <c r="E17">
+        <v>3442</v>
+      </c>
+      <c r="F17">
+        <v>2047</v>
+      </c>
+      <c r="G17">
+        <v>1164</v>
+      </c>
+      <c r="H17">
+        <v>774</v>
+      </c>
+      <c r="I17">
+        <v>676</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>129</v>
+      </c>
+      <c r="L17">
+        <v>122</v>
+      </c>
+      <c r="M17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>10998</v>
+      </c>
+      <c r="C18">
+        <v>7900</v>
+      </c>
+      <c r="D18">
+        <v>5463</v>
+      </c>
+      <c r="E18">
+        <v>3398</v>
+      </c>
+      <c r="F18">
+        <v>1986</v>
+      </c>
+      <c r="G18">
+        <v>1054</v>
+      </c>
+      <c r="H18">
+        <v>689</v>
+      </c>
+      <c r="I18">
+        <v>618</v>
+      </c>
+      <c r="J18">
+        <v>93</v>
+      </c>
+      <c r="K18">
+        <v>97</v>
+      </c>
+      <c r="L18">
+        <v>87</v>
+      </c>
+      <c r="M18">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>10901</v>
+      </c>
+      <c r="C19">
+        <v>7783</v>
+      </c>
+      <c r="D19">
+        <v>5212</v>
+      </c>
+      <c r="E19">
+        <v>3310</v>
+      </c>
+      <c r="F19">
+        <v>1851</v>
+      </c>
+      <c r="G19">
+        <v>1004</v>
+      </c>
+      <c r="H19">
+        <v>677</v>
+      </c>
+      <c r="I19">
+        <v>634</v>
+      </c>
+      <c r="J19">
+        <v>79</v>
+      </c>
+      <c r="K19">
+        <v>82</v>
+      </c>
+      <c r="L19">
+        <v>86</v>
+      </c>
+      <c r="M19">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>11115</v>
+      </c>
+      <c r="C20">
+        <v>7965</v>
+      </c>
+      <c r="D20">
+        <v>5445</v>
+      </c>
+      <c r="E20">
+        <v>3335</v>
+      </c>
+      <c r="F20">
+        <v>1935</v>
+      </c>
+      <c r="G20">
+        <v>957</v>
+      </c>
+      <c r="H20">
+        <v>628</v>
+      </c>
+      <c r="I20">
+        <v>614</v>
+      </c>
+      <c r="J20">
+        <v>82</v>
+      </c>
+      <c r="K20">
+        <v>93</v>
+      </c>
+      <c r="L20">
+        <v>70</v>
+      </c>
+      <c r="M20">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>11081</v>
+      </c>
+      <c r="C21">
+        <v>7958</v>
+      </c>
+      <c r="D21">
+        <v>5466</v>
+      </c>
+      <c r="E21">
+        <v>3528</v>
+      </c>
+      <c r="F21">
+        <v>1986</v>
+      </c>
+      <c r="G21">
+        <v>1004</v>
+      </c>
+      <c r="H21">
+        <v>663</v>
+      </c>
+      <c r="I21">
+        <v>611</v>
+      </c>
+      <c r="J21">
+        <v>117</v>
+      </c>
+      <c r="K21">
+        <v>85</v>
+      </c>
+      <c r="L21">
+        <v>67</v>
+      </c>
+      <c r="M21">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>11245</v>
+      </c>
+      <c r="C22">
+        <v>8226</v>
+      </c>
+      <c r="D22">
+        <v>5573</v>
+      </c>
+      <c r="E22">
+        <v>3613</v>
+      </c>
+      <c r="F22">
+        <v>2079</v>
+      </c>
+      <c r="G22">
+        <v>1163</v>
+      </c>
+      <c r="H22">
+        <v>719</v>
+      </c>
+      <c r="I22">
+        <v>609</v>
+      </c>
+      <c r="J22">
+        <v>88</v>
+      </c>
+      <c r="K22">
+        <v>74</v>
+      </c>
+      <c r="L22">
+        <v>62</v>
+      </c>
+      <c r="M22">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>AVERAGE(B2:B22)</f>
+        <v>8902.5238095238092</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:M23" si="0">AVERAGE(C2:C22)</f>
+        <v>6273.3809523809523</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>4266.1904761904761</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>2775.7619047619046</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1715.3809523809523</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1049.0952380952381</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>742.09523809523807</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>637.80952380952385</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>137.95238095238096</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>95.047619047619051</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>78.142857142857139</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>69.952380952380949</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8730,7 +10580,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F2" sqref="F2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8751,19 +10601,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31372</v>
+        <v>33.71217</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>31372</v>
+        <v>33.71217</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>31372</v>
+        <v>33.71217</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8771,19 +10621,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30981</v>
+        <v>33.766463999999999</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>30715</v>
+        <v>34.977592000000001</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>30715</v>
+        <v>34.977592000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8791,19 +10641,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31244</v>
+        <v>33.793190000000003</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>32513</v>
+        <v>35.601520999999998</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>32513</v>
+        <v>35.601520999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8811,19 +10661,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31426</v>
+        <v>33.979607000000001</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>33433</v>
+        <v>36.001018999999999</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>33433</v>
+        <v>36.001018999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8831,19 +10681,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31805</v>
+        <v>33.766025999999997</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>31805</v>
+        <v>33.766025999999997</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>30774</v>
+        <v>36.042568000000003</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8851,19 +10701,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>32192</v>
+        <v>33.745612999999999</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>31790</v>
+        <v>35.033805999999998</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>32757</v>
+        <v>35.805176000000003</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8871,19 +10721,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31200</v>
+        <v>33.734932000000001</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>30417</v>
+        <v>35.940314999999998</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>32743</v>
+        <v>36.198402000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8891,19 +10741,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31615</v>
+        <v>38.224742999999997</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>32931</v>
+        <v>22.202061</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>32864</v>
+        <v>22.215456</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8911,19 +10761,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30290</v>
+        <v>38.268776000000003</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>30290</v>
+        <v>38.268776000000003</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>32689</v>
+        <v>29.546431999999999</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8931,19 +10781,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31918</v>
+        <v>38.242474000000001</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>32154</v>
+        <v>40.755611000000002</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>32968</v>
+        <v>34.363830999999998</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8951,19 +10801,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31948</v>
+        <v>38.258220999999999</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>30758</v>
+        <v>41.549126000000001</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>32631</v>
+        <v>36.397148000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8971,19 +10821,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31743</v>
+        <v>38.329963999999997</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>27836</v>
+        <v>41.748840000000001</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>31176</v>
+        <v>37.539963</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8991,19 +10841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31898</v>
+        <v>38.369289000000002</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>31898</v>
+        <v>38.369289000000002</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>26791</v>
+        <v>37.973083000000003</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9011,19 +10861,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30177</v>
+        <v>38.350864000000001</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>29316</v>
+        <v>40.823402000000002</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>22505</v>
+        <v>38.185809999999996</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9031,19 +10881,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31779</v>
+        <v>33.685768000000003</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>33903</v>
+        <v>25.740694000000001</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>33730</v>
+        <v>22.398741000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9051,19 +10901,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31944</v>
+        <v>33.765453000000001</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>32955</v>
+        <v>29.234182000000001</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>33063</v>
+        <v>28.114082</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9071,19 +10921,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32050</v>
+        <v>33.549362000000002</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>32050</v>
+        <v>33.549362000000002</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>32712</v>
+        <v>32.893360000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9091,19 +10941,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32382</v>
+        <v>33.524208000000002</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>34923</v>
+        <v>34.768405999999999</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>34654</v>
+        <v>33.543633</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9111,19 +10961,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31638</v>
+        <v>33.436625999999997</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>31597</v>
+        <v>35.233170000000001</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>31291</v>
+        <v>33.859313999999998</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9131,19 +10981,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31616</v>
+        <v>33.295490000000001</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>32691</v>
+        <v>35.378216000000002</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>33439</v>
+        <v>33.948051</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9151,19 +11001,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32265</v>
+        <v>33.221184000000001</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>32265</v>
+        <v>33.221184000000001</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>32281</v>
+        <v>33.804161000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9198,19 +11048,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.209225000000004</v>
+        <v>32568</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>33.209225000000004</v>
+        <v>32568</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>33.209225000000004</v>
+        <v>32568</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9218,19 +11068,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33.317096999999997</v>
+        <v>32023</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>34.483046999999999</v>
+        <v>30711</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>34.483046999999999</v>
+        <v>30711</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9238,19 +11088,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33.416893000000002</v>
+        <v>32107</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>34.863140000000001</v>
+        <v>30930</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>34.863140000000001</v>
+        <v>30930</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9258,19 +11108,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>33.455269000000001</v>
+        <v>32515</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>35.179104000000002</v>
+        <v>33799</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>35.179104000000002</v>
+        <v>33799</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9278,19 +11128,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>33.281081999999998</v>
+        <v>32600</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>33.281081999999998</v>
+        <v>32600</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>35.260593</v>
+        <v>30139</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9298,19 +11148,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>33.240028000000002</v>
+        <v>30780</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>34.601542999999999</v>
+        <v>30159</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>34.979869999999998</v>
+        <v>32481</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9318,19 +11168,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.317065999999997</v>
+        <v>30842</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>35.082400999999997</v>
+        <v>32231</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>35.361503999999996</v>
+        <v>31152</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9338,19 +11188,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>37.653255000000001</v>
+        <v>30553</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>20.821190000000001</v>
+        <v>32534</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>20.756789999999999</v>
+        <v>32674</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9358,19 +11208,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.681125999999999</v>
+        <v>30658</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>37.681125999999999</v>
+        <v>30658</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>26.126698000000001</v>
+        <v>32526</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9378,19 +11228,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.654274000000001</v>
+        <v>30682</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>39.673133999999997</v>
+        <v>30272</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>33.968029000000001</v>
+        <v>34893</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9398,19 +11248,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.669437000000002</v>
+        <v>30708</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>40.277572999999997</v>
+        <v>28312</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>35.946967999999998</v>
+        <v>33108</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9418,19 +11268,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.726661999999997</v>
+        <v>30681</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>40.485027000000002</v>
+        <v>25533</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>36.622391</v>
+        <v>28471</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9438,19 +11288,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.764488</v>
+        <v>30660</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>37.764488</v>
+        <v>30660</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>36.980365999999997</v>
+        <v>24426</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9458,19 +11308,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.750587000000003</v>
+        <v>30699</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>39.799357999999998</v>
+        <v>30572</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>37.190429999999999</v>
+        <v>17082</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9478,19 +11328,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.185555000000001</v>
+        <v>31073</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>19.615508999999999</v>
+        <v>32471</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>20.711213999999998</v>
+        <v>32957</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9498,19 +11348,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.058132000000001</v>
+        <v>31052</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>25.316632999999999</v>
+        <v>32461</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>25.701533999999999</v>
+        <v>34074</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9518,19 +11368,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.026062000000003</v>
+        <v>30802</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>33.026062000000003</v>
+        <v>30802</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18">
-        <v>32.268374999999999</v>
+        <v>31746</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9538,19 +11388,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.071598000000002</v>
+        <v>31672</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>34.251868999999999</v>
+        <v>33913</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>32.853240999999997</v>
+        <v>35404</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9558,19 +11408,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.905875999999999</v>
+        <v>31932</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>34.579552</v>
+        <v>32041</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>33.024704</v>
+        <v>35031</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9578,19 +11428,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.733367999999999</v>
+        <v>32269</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>34.611832</v>
+        <v>32670</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>33.015647999999999</v>
+        <v>34289</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9598,19 +11448,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.800156000000001</v>
+        <v>32371</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>32.800156000000001</v>
+        <v>32371</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>32.982219999999998</v>
+        <v>33607</v>
       </c>
     </row>
   </sheetData>
@@ -9624,7 +11474,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9645,19 +11495,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.892646999999997</v>
+        <v>32.999961999999996</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>32.892646999999997</v>
+        <v>32.999961999999996</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32.892646999999997</v>
+        <v>32.999961999999996</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9665,19 +11515,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>32.881531000000003</v>
+        <v>32.984993000000003</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>34.901854999999998</v>
+        <v>35.774169999999998</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>34.901854999999998</v>
+        <v>35.774169999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9685,19 +11535,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32.986404</v>
+        <v>33.098773999999999</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>36.121346000000003</v>
+        <v>36.533721999999997</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>36.121346000000003</v>
+        <v>36.533721999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9705,19 +11555,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32.931587</v>
+        <v>33.047798</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>36.705928999999998</v>
+        <v>37.351933000000002</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>36.705928999999998</v>
+        <v>37.351933000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9725,19 +11575,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>32.914935999999997</v>
+        <v>33.036696999999997</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>32.914935999999997</v>
+        <v>33.036696999999997</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>36.634377000000001</v>
+        <v>37.387900999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9751,13 +11601,13 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>35.235160999999998</v>
+        <v>35.678046999999999</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>36.733952000000002</v>
+        <v>37.498863</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9771,13 +11621,13 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>36.164538999999998</v>
+        <v>36.944904000000001</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>37.252952999999998</v>
+        <v>38.048729000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9791,13 +11641,13 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>20.175901</v>
+        <v>25.007159999999999</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>20.594902000000001</v>
+        <v>20.135611999999998</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9805,19 +11655,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.941177000000003</v>
+        <v>36.181156000000001</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>35.941177000000003</v>
+        <v>36.181156000000001</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>29.259143999999999</v>
+        <v>26.696548</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9831,13 +11681,13 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>38.579647000000001</v>
+        <v>39.171562000000002</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>35.076293999999997</v>
+        <v>36.038516999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9851,13 +11701,13 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>40.258316000000001</v>
+        <v>40.748443999999999</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>36.930515</v>
+        <v>37.644267999999997</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9871,13 +11721,13 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>40.766452999999998</v>
+        <v>41.569262999999999</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>37.606681999999999</v>
+        <v>38.122737999999998</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9897,7 +11747,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>37.850676999999997</v>
+        <v>38.391993999999997</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9905,19 +11755,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.967609000000003</v>
+        <v>36.220954999999996</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>38.793564000000003</v>
+        <v>39.358401999999998</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.088645999999997</v>
+        <v>38.436866999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9931,13 +11781,13 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>19.261623</v>
+        <v>24.780113</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>19.225525000000001</v>
+        <v>20.958559000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9951,13 +11801,13 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>28.103034999999998</v>
+        <v>28.249725000000002</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>24.385054</v>
+        <v>30.841889999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9977,7 +11827,7 @@
         <v>16</v>
       </c>
       <c r="F18">
-        <v>29.188337000000001</v>
+        <v>32.329574999999998</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9991,13 +11841,13 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>35.069954000000003</v>
+        <v>35.433033000000002</v>
       </c>
       <c r="E19">
         <v>17</v>
       </c>
       <c r="F19">
-        <v>33.591358</v>
+        <v>34.520184</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10005,19 +11855,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.300201000000001</v>
+        <v>32.711829999999999</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>35.333832000000001</v>
+        <v>36.107146999999998</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>33.780731000000003</v>
+        <v>34.906128000000002</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -10025,19 +11875,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.285674999999998</v>
+        <v>32.816254000000001</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>35.501949000000003</v>
+        <v>36.244888000000003</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21">
-        <v>33.748382999999997</v>
+        <v>34.999125999999997</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -10045,19 +11895,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.268013000000003</v>
+        <v>32.788055</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>32.268013000000003</v>
+        <v>32.788055</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
       <c r="F22">
-        <v>33.734763999999998</v>
+        <v>35.017529000000003</v>
       </c>
     </row>
   </sheetData>
@@ -10070,8 +11920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10137,13 +11987,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>141254</v>
+        <v>136462</v>
       </c>
       <c r="F3">
-        <v>83903</v>
+        <v>77157</v>
       </c>
       <c r="P3">
-        <v>81524</v>
+        <v>82336</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -10151,13 +12001,13 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>105334</v>
+        <v>88852</v>
       </c>
       <c r="F4">
-        <v>59482</v>
+        <v>46742</v>
       </c>
       <c r="P4">
-        <v>83325</v>
+        <v>79204</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -10165,13 +12015,13 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>98473</v>
+        <v>83631</v>
       </c>
       <c r="F5">
-        <v>53449</v>
+        <v>44073</v>
       </c>
       <c r="P5">
-        <v>81810</v>
+        <v>83745</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -10179,13 +12029,13 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>91715</v>
+        <v>72681</v>
       </c>
       <c r="F6">
-        <v>47518</v>
+        <v>38482</v>
       </c>
       <c r="P6">
-        <v>81089</v>
+        <v>80466</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -10193,13 +12043,13 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>97724</v>
+        <v>77982</v>
       </c>
       <c r="F7">
-        <v>50026</v>
+        <v>40362</v>
       </c>
       <c r="P7">
-        <v>82940</v>
+        <v>80350</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -10207,13 +12057,13 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>97256</v>
+        <v>84244</v>
       </c>
       <c r="F8">
-        <v>52165</v>
+        <v>43071</v>
       </c>
       <c r="P8">
-        <v>80535</v>
+        <v>82614</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -10221,13 +12071,13 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <v>81433</v>
+        <v>60899</v>
       </c>
       <c r="F9">
-        <v>45079</v>
+        <v>34307</v>
       </c>
       <c r="P9">
-        <v>85019</v>
+        <v>82222</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -10235,13 +12085,13 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>215548</v>
+        <v>206806</v>
       </c>
       <c r="F10">
-        <v>144573</v>
+        <v>135441</v>
       </c>
       <c r="P10">
-        <v>85675</v>
+        <v>81389</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -10249,13 +12099,13 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>62364</v>
+        <v>48284</v>
       </c>
       <c r="F11">
-        <v>40597</v>
+        <v>32775</v>
       </c>
       <c r="P11">
-        <v>81952</v>
+        <v>79922</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -10263,13 +12113,13 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <v>46443</v>
+        <v>32615</v>
       </c>
       <c r="F12">
-        <v>33020</v>
+        <v>23768</v>
       </c>
       <c r="P12">
-        <v>82766</v>
+        <v>81599</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -10277,13 +12127,13 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <v>40788</v>
+        <v>27082</v>
       </c>
       <c r="F13">
-        <v>31159</v>
+        <v>21537</v>
       </c>
       <c r="P13">
-        <v>82222</v>
+        <v>80109</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -10291,13 +12141,13 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <v>40053</v>
+        <v>26589</v>
       </c>
       <c r="F14">
-        <v>30320</v>
+        <v>21712</v>
       </c>
       <c r="P14">
-        <v>78872</v>
+        <v>84530</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -10305,13 +12155,13 @@
         <v>12</v>
       </c>
       <c r="E15">
-        <v>39462</v>
+        <v>25648</v>
       </c>
       <c r="F15">
-        <v>30151</v>
+        <v>20885</v>
       </c>
       <c r="P15">
-        <v>80207</v>
+        <v>71389</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -10319,13 +12169,13 @@
         <v>13</v>
       </c>
       <c r="E16">
-        <v>37070</v>
+        <v>24636</v>
       </c>
       <c r="F16">
-        <v>29050</v>
+        <v>19768</v>
       </c>
       <c r="P16">
-        <v>71573</v>
+        <v>63628</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -10333,13 +12183,13 @@
         <v>14</v>
       </c>
       <c r="E17">
-        <v>219219</v>
+        <v>206661</v>
       </c>
       <c r="F17">
-        <v>144110</v>
+        <v>130952</v>
       </c>
       <c r="P17">
-        <v>83747</v>
+        <v>81849</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -10347,13 +12197,13 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>122341</v>
+        <v>107319</v>
       </c>
       <c r="F18">
-        <v>68919</v>
+        <v>57991</v>
       </c>
       <c r="P18">
-        <v>82772</v>
+        <v>80043</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -10361,13 +12211,13 @@
         <v>16</v>
       </c>
       <c r="E19">
-        <v>116305</v>
+        <v>101849</v>
       </c>
       <c r="F19">
-        <v>62691</v>
+        <v>55021</v>
       </c>
       <c r="P19">
-        <v>88240</v>
+        <v>87522</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -10375,13 +12225,13 @@
         <v>17</v>
       </c>
       <c r="E20">
-        <v>112679</v>
+        <v>99817</v>
       </c>
       <c r="F20">
-        <v>62883</v>
+        <v>52107</v>
       </c>
       <c r="P20">
-        <v>86108</v>
+        <v>86674</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -10389,13 +12239,13 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <v>116700</v>
+        <v>98488</v>
       </c>
       <c r="F21">
-        <v>60007</v>
+        <v>50277</v>
       </c>
       <c r="P21">
-        <v>80786</v>
+        <v>85832</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -10403,13 +12253,13 @@
         <v>19</v>
       </c>
       <c r="E22">
-        <v>117471</v>
+        <v>100435</v>
       </c>
       <c r="F22">
-        <v>64820</v>
+        <v>51230</v>
       </c>
       <c r="P22">
-        <v>81640</v>
+        <v>85942</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -10417,23 +12267,23 @@
         <v>20</v>
       </c>
       <c r="E23">
-        <v>120901</v>
+        <v>104741</v>
       </c>
       <c r="F23">
-        <v>66290</v>
+        <v>56700</v>
       </c>
       <c r="P23">
-        <v>80726</v>
+        <v>84700</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E24">
         <f>SUM(E2:E23)</f>
-        <v>2120536</v>
+        <v>1815724</v>
       </c>
       <c r="F24">
         <f>SUM(F3:F23)</f>
-        <v>1260212</v>
+        <v>1054358</v>
       </c>
       <c r="J24">
         <f t="shared" ref="J24:P24" si="0">SUM(J3:J23)</f>
@@ -10461,17 +12311,17 @@
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>1723528</v>
+        <v>1706065</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E25">
         <f>P24/E24</f>
-        <v>0.81277941048866886</v>
+        <v>0.93960590926814869</v>
       </c>
       <c r="F25">
         <f>P24/F24</f>
-        <v>1.3676492526654245</v>
+        <v>1.6181078912475648</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -10492,13 +12342,13 @@
         <v>10</v>
       </c>
       <c r="C28" s="1">
-        <v>1723528</v>
+        <v>1706065</v>
       </c>
       <c r="D28" s="1">
-        <v>2120536</v>
+        <v>1815724</v>
       </c>
       <c r="E28" s="6">
-        <v>1260212</v>
+        <v>1054358</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10510,11 +12360,11 @@
       </c>
       <c r="D29" s="8">
         <f>(1-(C28/D28))*100</f>
-        <v>18.722058951133114</v>
+        <v>6.0394090731851318</v>
       </c>
       <c r="E29" s="9">
         <f>(1-(C28/E28))*100</f>
-        <v>-36.764925266542448</v>
+        <v>-61.810789124756482</v>
       </c>
     </row>
   </sheetData>
@@ -10528,8 +12378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10553,7 +12403,7 @@
         <v>36.541454000000002</v>
       </c>
       <c r="C2">
-        <v>33.209225000000004</v>
+        <v>33.71217</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10564,7 +12414,7 @@
         <v>36.826805</v>
       </c>
       <c r="C3">
-        <v>34.483046999999999</v>
+        <v>34.977592000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10575,7 +12425,7 @@
         <v>36.802345000000003</v>
       </c>
       <c r="C4">
-        <v>34.863140000000001</v>
+        <v>35.601520999999998</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10586,7 +12436,7 @@
         <v>36.866942999999999</v>
       </c>
       <c r="C5">
-        <v>35.179104000000002</v>
+        <v>36.001018999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -10597,7 +12447,7 @@
         <v>36.864071000000003</v>
       </c>
       <c r="C6">
-        <v>35.260593</v>
+        <v>36.042568000000003</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -10608,7 +12458,7 @@
         <v>36.697563000000002</v>
       </c>
       <c r="C7">
-        <v>34.979869999999998</v>
+        <v>35.805176000000003</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -10619,7 +12469,7 @@
         <v>36.822231000000002</v>
       </c>
       <c r="C8">
-        <v>35.361503999999996</v>
+        <v>36.198402000000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -10630,7 +12480,7 @@
         <v>35.770888999999997</v>
       </c>
       <c r="C9">
-        <v>20.756789999999999</v>
+        <v>22.215456</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -10641,7 +12491,7 @@
         <v>36.497013000000003</v>
       </c>
       <c r="C10">
-        <v>26.126698000000001</v>
+        <v>29.546431999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -10652,7 +12502,7 @@
         <v>36.860461999999998</v>
       </c>
       <c r="C11">
-        <v>33.968029000000001</v>
+        <v>34.363830999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -10663,7 +12513,7 @@
         <v>37.069180000000003</v>
       </c>
       <c r="C12">
-        <v>35.946967999999998</v>
+        <v>36.397148000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -10674,7 +12524,7 @@
         <v>37.168762000000001</v>
       </c>
       <c r="C13">
-        <v>36.622391</v>
+        <v>37.539963</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -10685,7 +12535,7 @@
         <v>37.284050000000001</v>
       </c>
       <c r="C14">
-        <v>36.980365999999997</v>
+        <v>37.973083000000003</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -10696,7 +12546,7 @@
         <v>37.350613000000003</v>
       </c>
       <c r="C15">
-        <v>37.190429999999999</v>
+        <v>38.185809999999996</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -10707,7 +12557,7 @@
         <v>34.898707999999999</v>
       </c>
       <c r="C16">
-        <v>20.711213999999998</v>
+        <v>22.398741000000001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -10718,7 +12568,7 @@
         <v>35.442383</v>
       </c>
       <c r="C17">
-        <v>25.701533999999999</v>
+        <v>28.114082</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -10729,7 +12579,7 @@
         <v>35.476542999999999</v>
       </c>
       <c r="C18">
-        <v>32.268374999999999</v>
+        <v>32.893360000000001</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -10740,7 +12590,7 @@
         <v>35.541428000000003</v>
       </c>
       <c r="C19">
-        <v>32.853240999999997</v>
+        <v>33.543633</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -10751,7 +12601,7 @@
         <v>35.565033</v>
       </c>
       <c r="C20">
-        <v>33.024704</v>
+        <v>33.859313999999998</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -10762,7 +12612,7 @@
         <v>35.543807999999999</v>
       </c>
       <c r="C21">
-        <v>33.015647999999999</v>
+        <v>33.948051</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -10773,11 +12623,2202 @@
         <v>35.510756999999998</v>
       </c>
       <c r="C22">
-        <v>32.982219999999998</v>
+        <v>33.804161000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10">
+        <v>18582</v>
+      </c>
+      <c r="C2" s="10">
+        <v>12991</v>
+      </c>
+      <c r="D2" s="10">
+        <v>8739</v>
+      </c>
+      <c r="E2" s="10">
+        <v>5497</v>
+      </c>
+      <c r="F2" s="10">
+        <v>3267</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2102</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1623</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1507</v>
+      </c>
+      <c r="J2" s="10">
+        <v>279</v>
+      </c>
+      <c r="K2" s="10">
+        <v>238</v>
+      </c>
+      <c r="L2" s="10">
+        <v>161</v>
+      </c>
+      <c r="M2" s="10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10">
+        <v>22089</v>
+      </c>
+      <c r="C3" s="10">
+        <v>15756</v>
+      </c>
+      <c r="D3" s="10">
+        <v>10715</v>
+      </c>
+      <c r="E3" s="10">
+        <v>6911</v>
+      </c>
+      <c r="F3" s="10">
+        <v>4224</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2634</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1675</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1181</v>
+      </c>
+      <c r="J3" s="10">
+        <v>892</v>
+      </c>
+      <c r="K3" s="10">
+        <v>678</v>
+      </c>
+      <c r="L3" s="10">
+        <v>212</v>
+      </c>
+      <c r="M3" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="10">
+        <v>9264</v>
+      </c>
+      <c r="C4" s="10">
+        <v>6628</v>
+      </c>
+      <c r="D4" s="10">
+        <v>4658</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3108</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1988</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1218</v>
+      </c>
+      <c r="H4" s="10">
+        <v>809</v>
+      </c>
+      <c r="I4" s="10">
+        <v>708</v>
+      </c>
+      <c r="J4" s="10">
+        <v>197</v>
+      </c>
+      <c r="K4" s="10">
+        <v>147</v>
+      </c>
+      <c r="L4" s="10">
+        <v>120</v>
+      </c>
+      <c r="M4" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="10">
+        <v>12449</v>
+      </c>
+      <c r="C5" s="10">
+        <v>9309</v>
+      </c>
+      <c r="D5" s="10">
+        <v>6788</v>
+      </c>
+      <c r="E5" s="10">
+        <v>4726</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3073</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1877</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1090</v>
+      </c>
+      <c r="I5" s="10">
+        <v>683</v>
+      </c>
+      <c r="J5" s="10">
+        <v>528</v>
+      </c>
+      <c r="K5" s="10">
+        <v>326</v>
+      </c>
+      <c r="L5" s="10">
+        <v>122</v>
+      </c>
+      <c r="M5" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12">
+        <v>17819.619047619046</v>
+      </c>
+      <c r="C7" s="12">
+        <v>12157.476190476191</v>
+      </c>
+      <c r="D7" s="12">
+        <v>7925.4285714285716</v>
+      </c>
+      <c r="E7" s="12">
+        <v>4803.0476190476193</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2788.8095238095239</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1824.6666666666667</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1412.2857142857142</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1250.0952380952381</v>
+      </c>
+      <c r="J7" s="12">
+        <v>221.1904761904762</v>
+      </c>
+      <c r="K7" s="12">
+        <v>158.28571428571428</v>
+      </c>
+      <c r="L7" s="12">
+        <v>134.33333333333334</v>
+      </c>
+      <c r="M7" s="12">
+        <v>123.0952380952381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10">
+        <v>21895</v>
+      </c>
+      <c r="C8" s="10">
+        <v>15549</v>
+      </c>
+      <c r="D8" s="10">
+        <v>10462</v>
+      </c>
+      <c r="E8" s="10">
+        <v>6609</v>
+      </c>
+      <c r="F8" s="10">
+        <v>3838</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2148</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1099</v>
+      </c>
+      <c r="I8" s="10">
+        <v>527</v>
+      </c>
+      <c r="J8" s="10">
+        <v>264</v>
+      </c>
+      <c r="K8" s="10">
+        <v>155</v>
+      </c>
+      <c r="L8" s="10">
+        <v>84</v>
+      </c>
+      <c r="M8" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="12">
+        <v>8902.5238095238092</v>
+      </c>
+      <c r="C9" s="12">
+        <v>6273.3809523809523</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4266.1904761904761</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2775.7619047619046</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1715.3809523809523</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1049.0952380952381</v>
+      </c>
+      <c r="H9" s="12">
+        <v>742.09523809523807</v>
+      </c>
+      <c r="I9" s="12">
+        <v>637.80952380952385</v>
+      </c>
+      <c r="J9" s="12">
+        <v>137.95238095238096</v>
+      </c>
+      <c r="K9" s="12">
+        <v>95.047619047619051</v>
+      </c>
+      <c r="L9" s="12">
+        <v>78.142857142857139</v>
+      </c>
+      <c r="M9" s="12">
+        <v>69.952380952380949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="12">
+        <v>12307.75</v>
+      </c>
+      <c r="C10" s="12">
+        <v>9171.4500000000007</v>
+      </c>
+      <c r="D10" s="12">
+        <v>6651.85</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4588.3999999999996</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2937.35</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1675.4</v>
+      </c>
+      <c r="H10" s="12">
+        <v>828.2</v>
+      </c>
+      <c r="I10" s="12">
+        <v>366.45</v>
+      </c>
+      <c r="J10" s="12">
+        <v>156.75</v>
+      </c>
+      <c r="K10" s="12">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="L10" s="12">
+        <v>46.75</v>
+      </c>
+      <c r="M10" s="12">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>24080</v>
+      </c>
+      <c r="C2">
+        <v>17392</v>
+      </c>
+      <c r="D2">
+        <v>12071</v>
+      </c>
+      <c r="E2">
+        <v>7581</v>
+      </c>
+      <c r="F2">
+        <v>4286</v>
+      </c>
+      <c r="G2">
+        <v>2325</v>
+      </c>
+      <c r="H2">
+        <v>1223</v>
+      </c>
+      <c r="I2">
+        <v>584</v>
+      </c>
+      <c r="J2">
+        <v>303</v>
+      </c>
+      <c r="K2">
+        <v>173</v>
+      </c>
+      <c r="L2">
+        <v>83</v>
+      </c>
+      <c r="M2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>23851</v>
+      </c>
+      <c r="C3">
+        <v>17165</v>
+      </c>
+      <c r="D3">
+        <v>11875</v>
+      </c>
+      <c r="E3">
+        <v>7468</v>
+      </c>
+      <c r="F3">
+        <v>4203</v>
+      </c>
+      <c r="G3">
+        <v>2338</v>
+      </c>
+      <c r="H3">
+        <v>1229</v>
+      </c>
+      <c r="I3">
+        <v>599</v>
+      </c>
+      <c r="J3">
+        <v>311</v>
+      </c>
+      <c r="K3">
+        <v>168</v>
+      </c>
+      <c r="L3">
+        <v>83</v>
+      </c>
+      <c r="M3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>23784</v>
+      </c>
+      <c r="C4">
+        <v>17105</v>
+      </c>
+      <c r="D4">
+        <v>11843</v>
+      </c>
+      <c r="E4">
+        <v>7418</v>
+      </c>
+      <c r="F4">
+        <v>4205</v>
+      </c>
+      <c r="G4">
+        <v>2342</v>
+      </c>
+      <c r="H4">
+        <v>1234</v>
+      </c>
+      <c r="I4">
+        <v>594</v>
+      </c>
+      <c r="J4">
+        <v>306</v>
+      </c>
+      <c r="K4">
+        <v>162</v>
+      </c>
+      <c r="L4">
+        <v>82</v>
+      </c>
+      <c r="M4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>23892</v>
+      </c>
+      <c r="C5">
+        <v>17245</v>
+      </c>
+      <c r="D5">
+        <v>11906</v>
+      </c>
+      <c r="E5">
+        <v>7437</v>
+      </c>
+      <c r="F5">
+        <v>4206</v>
+      </c>
+      <c r="G5">
+        <v>2342</v>
+      </c>
+      <c r="H5">
+        <v>1226</v>
+      </c>
+      <c r="I5">
+        <v>580</v>
+      </c>
+      <c r="J5">
+        <v>309</v>
+      </c>
+      <c r="K5">
+        <v>159</v>
+      </c>
+      <c r="L5">
+        <v>82</v>
+      </c>
+      <c r="M5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>23981</v>
+      </c>
+      <c r="C6">
+        <v>17316</v>
+      </c>
+      <c r="D6">
+        <v>11966</v>
+      </c>
+      <c r="E6">
+        <v>7487</v>
+      </c>
+      <c r="F6">
+        <v>4223</v>
+      </c>
+      <c r="G6">
+        <v>2348</v>
+      </c>
+      <c r="H6">
+        <v>1230</v>
+      </c>
+      <c r="I6">
+        <v>587</v>
+      </c>
+      <c r="J6">
+        <v>304</v>
+      </c>
+      <c r="K6">
+        <v>167</v>
+      </c>
+      <c r="L6">
+        <v>83</v>
+      </c>
+      <c r="M6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>24053</v>
+      </c>
+      <c r="C7">
+        <v>17345</v>
+      </c>
+      <c r="D7">
+        <v>12048</v>
+      </c>
+      <c r="E7">
+        <v>7500</v>
+      </c>
+      <c r="F7">
+        <v>4240</v>
+      </c>
+      <c r="G7">
+        <v>2340</v>
+      </c>
+      <c r="H7">
+        <v>1213</v>
+      </c>
+      <c r="I7">
+        <v>600</v>
+      </c>
+      <c r="J7">
+        <v>297</v>
+      </c>
+      <c r="K7">
+        <v>163</v>
+      </c>
+      <c r="L7">
+        <v>82</v>
+      </c>
+      <c r="M7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>24222</v>
+      </c>
+      <c r="C8">
+        <v>17435</v>
+      </c>
+      <c r="D8">
+        <v>12112</v>
+      </c>
+      <c r="E8">
+        <v>7532</v>
+      </c>
+      <c r="F8">
+        <v>4240</v>
+      </c>
+      <c r="G8">
+        <v>2338</v>
+      </c>
+      <c r="H8">
+        <v>1206</v>
+      </c>
+      <c r="I8">
+        <v>587</v>
+      </c>
+      <c r="J8">
+        <v>293</v>
+      </c>
+      <c r="K8">
+        <v>162</v>
+      </c>
+      <c r="L8">
+        <v>82</v>
+      </c>
+      <c r="M8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>17188</v>
+      </c>
+      <c r="C9">
+        <v>11617</v>
+      </c>
+      <c r="D9">
+        <v>7027</v>
+      </c>
+      <c r="E9">
+        <v>4605</v>
+      </c>
+      <c r="F9">
+        <v>2909</v>
+      </c>
+      <c r="G9">
+        <v>1676</v>
+      </c>
+      <c r="H9">
+        <v>807</v>
+      </c>
+      <c r="I9">
+        <v>389</v>
+      </c>
+      <c r="J9">
+        <v>187</v>
+      </c>
+      <c r="K9">
+        <v>130</v>
+      </c>
+      <c r="L9">
+        <v>91</v>
+      </c>
+      <c r="M9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>17187</v>
+      </c>
+      <c r="C10">
+        <v>11603</v>
+      </c>
+      <c r="D10">
+        <v>7041</v>
+      </c>
+      <c r="E10">
+        <v>4611</v>
+      </c>
+      <c r="F10">
+        <v>2910</v>
+      </c>
+      <c r="G10">
+        <v>1680</v>
+      </c>
+      <c r="H10">
+        <v>809</v>
+      </c>
+      <c r="I10">
+        <v>383</v>
+      </c>
+      <c r="J10">
+        <v>186</v>
+      </c>
+      <c r="K10">
+        <v>128</v>
+      </c>
+      <c r="L10">
+        <v>91</v>
+      </c>
+      <c r="M10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>17196</v>
+      </c>
+      <c r="C11">
+        <v>11600</v>
+      </c>
+      <c r="D11">
+        <v>7043</v>
+      </c>
+      <c r="E11">
+        <v>4619</v>
+      </c>
+      <c r="F11">
+        <v>2904</v>
+      </c>
+      <c r="G11">
+        <v>1689</v>
+      </c>
+      <c r="H11">
+        <v>816</v>
+      </c>
+      <c r="I11">
+        <v>385</v>
+      </c>
+      <c r="J11">
+        <v>187</v>
+      </c>
+      <c r="K11">
+        <v>128</v>
+      </c>
+      <c r="L11">
+        <v>91</v>
+      </c>
+      <c r="M11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>17214</v>
+      </c>
+      <c r="C12">
+        <v>11602</v>
+      </c>
+      <c r="D12">
+        <v>7057</v>
+      </c>
+      <c r="E12">
+        <v>4602</v>
+      </c>
+      <c r="F12">
+        <v>2912</v>
+      </c>
+      <c r="G12">
+        <v>1669</v>
+      </c>
+      <c r="H12">
+        <v>817</v>
+      </c>
+      <c r="I12">
+        <v>393</v>
+      </c>
+      <c r="J12">
+        <v>186</v>
+      </c>
+      <c r="K12">
+        <v>128</v>
+      </c>
+      <c r="L12">
+        <v>91</v>
+      </c>
+      <c r="M12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>17188</v>
+      </c>
+      <c r="C13">
+        <v>11589</v>
+      </c>
+      <c r="D13">
+        <v>7039</v>
+      </c>
+      <c r="E13">
+        <v>4604</v>
+      </c>
+      <c r="F13">
+        <v>2884</v>
+      </c>
+      <c r="G13">
+        <v>1673</v>
+      </c>
+      <c r="H13">
+        <v>812</v>
+      </c>
+      <c r="I13">
+        <v>386</v>
+      </c>
+      <c r="J13">
+        <v>186</v>
+      </c>
+      <c r="K13">
+        <v>129</v>
+      </c>
+      <c r="L13">
+        <v>91</v>
+      </c>
+      <c r="M13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>17120</v>
+      </c>
+      <c r="C14">
+        <v>11561</v>
+      </c>
+      <c r="D14">
+        <v>7016</v>
+      </c>
+      <c r="E14">
+        <v>4572</v>
+      </c>
+      <c r="F14">
+        <v>2865</v>
+      </c>
+      <c r="G14">
+        <v>1675</v>
+      </c>
+      <c r="H14">
+        <v>808</v>
+      </c>
+      <c r="I14">
+        <v>379</v>
+      </c>
+      <c r="J14">
+        <v>187</v>
+      </c>
+      <c r="K14">
+        <v>128</v>
+      </c>
+      <c r="L14">
+        <v>91</v>
+      </c>
+      <c r="M14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>17117</v>
+      </c>
+      <c r="C15">
+        <v>11538</v>
+      </c>
+      <c r="D15">
+        <v>7017</v>
+      </c>
+      <c r="E15">
+        <v>4579</v>
+      </c>
+      <c r="F15">
+        <v>2874</v>
+      </c>
+      <c r="G15">
+        <v>1654</v>
+      </c>
+      <c r="H15">
+        <v>813</v>
+      </c>
+      <c r="I15">
+        <v>388</v>
+      </c>
+      <c r="J15">
+        <v>186</v>
+      </c>
+      <c r="K15">
+        <v>129</v>
+      </c>
+      <c r="L15">
+        <v>91</v>
+      </c>
+      <c r="M15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>24277</v>
+      </c>
+      <c r="C16">
+        <v>17569</v>
+      </c>
+      <c r="D16">
+        <v>12155</v>
+      </c>
+      <c r="E16">
+        <v>7574</v>
+      </c>
+      <c r="F16">
+        <v>4333</v>
+      </c>
+      <c r="G16">
+        <v>2378</v>
+      </c>
+      <c r="H16">
+        <v>1234</v>
+      </c>
+      <c r="I16">
+        <v>592</v>
+      </c>
+      <c r="J16">
+        <v>307</v>
+      </c>
+      <c r="K16">
+        <v>160</v>
+      </c>
+      <c r="L16">
+        <v>81</v>
+      </c>
+      <c r="M16">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>24273</v>
+      </c>
+      <c r="C17">
+        <v>17500</v>
+      </c>
+      <c r="D17">
+        <v>12202</v>
+      </c>
+      <c r="E17">
+        <v>7645</v>
+      </c>
+      <c r="F17">
+        <v>4305</v>
+      </c>
+      <c r="G17">
+        <v>2381</v>
+      </c>
+      <c r="H17">
+        <v>1262</v>
+      </c>
+      <c r="I17">
+        <v>597</v>
+      </c>
+      <c r="J17">
+        <v>304</v>
+      </c>
+      <c r="K17">
+        <v>166</v>
+      </c>
+      <c r="L17">
+        <v>79</v>
+      </c>
+      <c r="M17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>24537</v>
+      </c>
+      <c r="C18">
+        <v>17741</v>
+      </c>
+      <c r="D18">
+        <v>12351</v>
+      </c>
+      <c r="E18">
+        <v>7654</v>
+      </c>
+      <c r="F18">
+        <v>4336</v>
+      </c>
+      <c r="G18">
+        <v>2401</v>
+      </c>
+      <c r="H18">
+        <v>1237</v>
+      </c>
+      <c r="I18">
+        <v>605</v>
+      </c>
+      <c r="J18">
+        <v>311</v>
+      </c>
+      <c r="K18">
+        <v>165</v>
+      </c>
+      <c r="L18">
+        <v>79</v>
+      </c>
+      <c r="M18">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>24659</v>
+      </c>
+      <c r="C19">
+        <v>17880</v>
+      </c>
+      <c r="D19">
+        <v>12457</v>
+      </c>
+      <c r="E19">
+        <v>7773</v>
+      </c>
+      <c r="F19">
+        <v>4362</v>
+      </c>
+      <c r="G19">
+        <v>2427</v>
+      </c>
+      <c r="H19">
+        <v>1272</v>
+      </c>
+      <c r="I19">
+        <v>611</v>
+      </c>
+      <c r="J19">
+        <v>293</v>
+      </c>
+      <c r="K19">
+        <v>174</v>
+      </c>
+      <c r="L19">
+        <v>81</v>
+      </c>
+      <c r="M19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>24631</v>
+      </c>
+      <c r="C20">
+        <v>17899</v>
+      </c>
+      <c r="D20">
+        <v>12492</v>
+      </c>
+      <c r="E20">
+        <v>7781</v>
+      </c>
+      <c r="F20">
+        <v>4391</v>
+      </c>
+      <c r="G20">
+        <v>2434</v>
+      </c>
+      <c r="H20">
+        <v>1268</v>
+      </c>
+      <c r="I20">
+        <v>613</v>
+      </c>
+      <c r="J20">
+        <v>304</v>
+      </c>
+      <c r="K20">
+        <v>177</v>
+      </c>
+      <c r="L20">
+        <v>82</v>
+      </c>
+      <c r="M20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>24628</v>
+      </c>
+      <c r="C21">
+        <v>17884</v>
+      </c>
+      <c r="D21">
+        <v>12504</v>
+      </c>
+      <c r="E21">
+        <v>7849</v>
+      </c>
+      <c r="F21">
+        <v>4478</v>
+      </c>
+      <c r="G21">
+        <v>2497</v>
+      </c>
+      <c r="H21">
+        <v>1283</v>
+      </c>
+      <c r="I21">
+        <v>604</v>
+      </c>
+      <c r="J21">
+        <v>294</v>
+      </c>
+      <c r="K21">
+        <v>179</v>
+      </c>
+      <c r="L21">
+        <v>84</v>
+      </c>
+      <c r="M21">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>24735</v>
+      </c>
+      <c r="C22">
+        <v>17949</v>
+      </c>
+      <c r="D22">
+        <v>12485</v>
+      </c>
+      <c r="E22">
+        <v>7906</v>
+      </c>
+      <c r="F22">
+        <v>4543</v>
+      </c>
+      <c r="G22">
+        <v>2519</v>
+      </c>
+      <c r="H22">
+        <v>1298</v>
+      </c>
+      <c r="I22">
+        <v>611</v>
+      </c>
+      <c r="J22">
+        <v>305</v>
+      </c>
+      <c r="K22">
+        <v>184</v>
+      </c>
+      <c r="L22">
+        <v>84</v>
+      </c>
+      <c r="M22">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>AVERAGE(B2:B22)</f>
+        <v>21895.857142857141</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:M23" si="0">AVERAGE(C2:C22)</f>
+        <v>15549.285714285714</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>10462.238095238095</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>6609.3809523809523</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>3838.5238095238096</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>2148.8571428571427</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1099.8571428571429</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>527</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>264.09523809523807</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>155.1904761904762</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>84.952380952380949</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>24080</v>
+      </c>
+      <c r="C2">
+        <v>17392</v>
+      </c>
+      <c r="D2">
+        <v>12071</v>
+      </c>
+      <c r="E2">
+        <v>7581</v>
+      </c>
+      <c r="F2">
+        <v>4286</v>
+      </c>
+      <c r="G2">
+        <v>2325</v>
+      </c>
+      <c r="H2">
+        <v>1223</v>
+      </c>
+      <c r="I2">
+        <v>584</v>
+      </c>
+      <c r="J2">
+        <v>303</v>
+      </c>
+      <c r="K2">
+        <v>173</v>
+      </c>
+      <c r="L2">
+        <v>83</v>
+      </c>
+      <c r="M2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>20216</v>
+      </c>
+      <c r="C3">
+        <v>13729</v>
+      </c>
+      <c r="D3">
+        <v>8748</v>
+      </c>
+      <c r="E3">
+        <v>4936</v>
+      </c>
+      <c r="F3">
+        <v>2596</v>
+      </c>
+      <c r="G3">
+        <v>1532</v>
+      </c>
+      <c r="H3">
+        <v>1239</v>
+      </c>
+      <c r="I3">
+        <v>1045</v>
+      </c>
+      <c r="J3">
+        <v>183</v>
+      </c>
+      <c r="K3">
+        <v>138</v>
+      </c>
+      <c r="L3">
+        <v>131</v>
+      </c>
+      <c r="M3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>19894</v>
+      </c>
+      <c r="C4">
+        <v>13524</v>
+      </c>
+      <c r="D4">
+        <v>8452</v>
+      </c>
+      <c r="E4">
+        <v>4646</v>
+      </c>
+      <c r="F4">
+        <v>2448</v>
+      </c>
+      <c r="G4">
+        <v>1510</v>
+      </c>
+      <c r="H4">
+        <v>1238</v>
+      </c>
+      <c r="I4">
+        <v>1118</v>
+      </c>
+      <c r="J4">
+        <v>191</v>
+      </c>
+      <c r="K4">
+        <v>130</v>
+      </c>
+      <c r="L4">
+        <v>129</v>
+      </c>
+      <c r="M4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>18725</v>
+      </c>
+      <c r="C5">
+        <v>12441</v>
+      </c>
+      <c r="D5">
+        <v>7442</v>
+      </c>
+      <c r="E5">
+        <v>4037</v>
+      </c>
+      <c r="F5">
+        <v>2137</v>
+      </c>
+      <c r="G5">
+        <v>1416</v>
+      </c>
+      <c r="H5">
+        <v>1230</v>
+      </c>
+      <c r="I5">
+        <v>1111</v>
+      </c>
+      <c r="J5">
+        <v>191</v>
+      </c>
+      <c r="K5">
+        <v>130</v>
+      </c>
+      <c r="L5">
+        <v>115</v>
+      </c>
+      <c r="M5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>19925</v>
+      </c>
+      <c r="C6">
+        <v>13307</v>
+      </c>
+      <c r="D6">
+        <v>8087</v>
+      </c>
+      <c r="E6">
+        <v>4332</v>
+      </c>
+      <c r="F6">
+        <v>2242</v>
+      </c>
+      <c r="G6">
+        <v>1477</v>
+      </c>
+      <c r="H6">
+        <v>1213</v>
+      </c>
+      <c r="I6">
+        <v>1147</v>
+      </c>
+      <c r="J6">
+        <v>160</v>
+      </c>
+      <c r="K6">
+        <v>129</v>
+      </c>
+      <c r="L6">
+        <v>112</v>
+      </c>
+      <c r="M6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>20157</v>
+      </c>
+      <c r="C7">
+        <v>13586</v>
+      </c>
+      <c r="D7">
+        <v>8551</v>
+      </c>
+      <c r="E7">
+        <v>4680</v>
+      </c>
+      <c r="F7">
+        <v>2392</v>
+      </c>
+      <c r="G7">
+        <v>1510</v>
+      </c>
+      <c r="H7">
+        <v>1201</v>
+      </c>
+      <c r="I7">
+        <v>1151</v>
+      </c>
+      <c r="J7">
+        <v>170</v>
+      </c>
+      <c r="K7">
+        <v>129</v>
+      </c>
+      <c r="L7">
+        <v>112</v>
+      </c>
+      <c r="M7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>16990</v>
+      </c>
+      <c r="C8">
+        <v>10924</v>
+      </c>
+      <c r="D8">
+        <v>6254</v>
+      </c>
+      <c r="E8">
+        <v>3383</v>
+      </c>
+      <c r="F8">
+        <v>1905</v>
+      </c>
+      <c r="G8">
+        <v>1373</v>
+      </c>
+      <c r="H8">
+        <v>1190</v>
+      </c>
+      <c r="I8">
+        <v>1136</v>
+      </c>
+      <c r="J8">
+        <v>160</v>
+      </c>
+      <c r="K8">
+        <v>127</v>
+      </c>
+      <c r="L8">
+        <v>112</v>
+      </c>
+      <c r="M8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>30064</v>
+      </c>
+      <c r="C9">
+        <v>22626</v>
+      </c>
+      <c r="D9">
+        <v>16593</v>
+      </c>
+      <c r="E9">
+        <v>11489</v>
+      </c>
+      <c r="F9">
+        <v>7524</v>
+      </c>
+      <c r="G9">
+        <v>4720</v>
+      </c>
+      <c r="H9">
+        <v>2854</v>
+      </c>
+      <c r="I9">
+        <v>1915</v>
+      </c>
+      <c r="J9">
+        <v>447</v>
+      </c>
+      <c r="K9">
+        <v>301</v>
+      </c>
+      <c r="L9">
+        <v>240</v>
+      </c>
+      <c r="M9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8916</v>
+      </c>
+      <c r="C10">
+        <v>5847</v>
+      </c>
+      <c r="D10">
+        <v>4033</v>
+      </c>
+      <c r="E10">
+        <v>2682</v>
+      </c>
+      <c r="F10">
+        <v>1820</v>
+      </c>
+      <c r="G10">
+        <v>1435</v>
+      </c>
+      <c r="H10">
+        <v>1289</v>
+      </c>
+      <c r="I10">
+        <v>1298</v>
+      </c>
+      <c r="J10">
+        <v>251</v>
+      </c>
+      <c r="K10">
+        <v>175</v>
+      </c>
+      <c r="L10">
+        <v>151</v>
+      </c>
+      <c r="M10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7571</v>
+      </c>
+      <c r="C11">
+        <v>4429</v>
+      </c>
+      <c r="D11">
+        <v>2797</v>
+      </c>
+      <c r="E11">
+        <v>1811</v>
+      </c>
+      <c r="F11">
+        <v>1320</v>
+      </c>
+      <c r="G11">
+        <v>1198</v>
+      </c>
+      <c r="H11">
+        <v>1216</v>
+      </c>
+      <c r="I11">
+        <v>1244</v>
+      </c>
+      <c r="J11">
+        <v>227</v>
+      </c>
+      <c r="K11">
+        <v>193</v>
+      </c>
+      <c r="L11">
+        <v>146</v>
+      </c>
+      <c r="M11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6893</v>
+      </c>
+      <c r="C12">
+        <v>3827</v>
+      </c>
+      <c r="D12">
+        <v>2291</v>
+      </c>
+      <c r="E12">
+        <v>1504</v>
+      </c>
+      <c r="F12">
+        <v>1196</v>
+      </c>
+      <c r="G12">
+        <v>1165</v>
+      </c>
+      <c r="H12">
+        <v>1203</v>
+      </c>
+      <c r="I12">
+        <v>1257</v>
+      </c>
+      <c r="J12">
+        <v>199</v>
+      </c>
+      <c r="K12">
+        <v>131</v>
+      </c>
+      <c r="L12">
+        <v>131</v>
+      </c>
+      <c r="M12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>6879</v>
+      </c>
+      <c r="C13">
+        <v>3815</v>
+      </c>
+      <c r="D13">
+        <v>2210</v>
+      </c>
+      <c r="E13">
+        <v>1477</v>
+      </c>
+      <c r="F13">
+        <v>1206</v>
+      </c>
+      <c r="G13">
+        <v>1163</v>
+      </c>
+      <c r="H13">
+        <v>1187</v>
+      </c>
+      <c r="I13">
+        <v>1222</v>
+      </c>
+      <c r="J13">
+        <v>182</v>
+      </c>
+      <c r="K13">
+        <v>130</v>
+      </c>
+      <c r="L13">
+        <v>128</v>
+      </c>
+      <c r="M13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>6713</v>
+      </c>
+      <c r="C14">
+        <v>3589</v>
+      </c>
+      <c r="D14">
+        <v>2047</v>
+      </c>
+      <c r="E14">
+        <v>1424</v>
+      </c>
+      <c r="F14">
+        <v>1160</v>
+      </c>
+      <c r="G14">
+        <v>1160</v>
+      </c>
+      <c r="H14">
+        <v>1173</v>
+      </c>
+      <c r="I14">
+        <v>1220</v>
+      </c>
+      <c r="J14">
+        <v>170</v>
+      </c>
+      <c r="K14">
+        <v>126</v>
+      </c>
+      <c r="L14">
+        <v>128</v>
+      </c>
+      <c r="M14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>6687</v>
+      </c>
+      <c r="C15">
+        <v>3633</v>
+      </c>
+      <c r="D15">
+        <v>1992</v>
+      </c>
+      <c r="E15">
+        <v>1368</v>
+      </c>
+      <c r="F15">
+        <v>1098</v>
+      </c>
+      <c r="G15">
+        <v>1117</v>
+      </c>
+      <c r="H15">
+        <v>1165</v>
+      </c>
+      <c r="I15">
+        <v>1215</v>
+      </c>
+      <c r="J15">
+        <v>144</v>
+      </c>
+      <c r="K15">
+        <v>123</v>
+      </c>
+      <c r="L15">
+        <v>126</v>
+      </c>
+      <c r="M15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>29832</v>
+      </c>
+      <c r="C16">
+        <v>22423</v>
+      </c>
+      <c r="D16">
+        <v>16416</v>
+      </c>
+      <c r="E16">
+        <v>11481</v>
+      </c>
+      <c r="F16">
+        <v>7275</v>
+      </c>
+      <c r="G16">
+        <v>4464</v>
+      </c>
+      <c r="H16">
+        <v>2767</v>
+      </c>
+      <c r="I16">
+        <v>1857</v>
+      </c>
+      <c r="J16">
+        <v>475</v>
+      </c>
+      <c r="K16">
+        <v>334</v>
+      </c>
+      <c r="L16">
+        <v>221</v>
+      </c>
+      <c r="M16">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>21473</v>
+      </c>
+      <c r="C17">
+        <v>14909</v>
+      </c>
+      <c r="D17">
+        <v>9835</v>
+      </c>
+      <c r="E17">
+        <v>5962</v>
+      </c>
+      <c r="F17">
+        <v>3221</v>
+      </c>
+      <c r="G17">
+        <v>1957</v>
+      </c>
+      <c r="H17">
+        <v>1465</v>
+      </c>
+      <c r="I17">
+        <v>1339</v>
+      </c>
+      <c r="J17">
+        <v>242</v>
+      </c>
+      <c r="K17">
+        <v>171</v>
+      </c>
+      <c r="L17">
+        <v>152</v>
+      </c>
+      <c r="M17">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>21671</v>
+      </c>
+      <c r="C18">
+        <v>15066</v>
+      </c>
+      <c r="D18">
+        <v>9784</v>
+      </c>
+      <c r="E18">
+        <v>5658</v>
+      </c>
+      <c r="F18">
+        <v>3056</v>
+      </c>
+      <c r="G18">
+        <v>1819</v>
+      </c>
+      <c r="H18">
+        <v>1385</v>
+      </c>
+      <c r="I18">
+        <v>1296</v>
+      </c>
+      <c r="J18">
+        <v>182</v>
+      </c>
+      <c r="K18">
+        <v>142</v>
+      </c>
+      <c r="L18">
+        <v>137</v>
+      </c>
+      <c r="M18">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>21602</v>
+      </c>
+      <c r="C19">
+        <v>14881</v>
+      </c>
+      <c r="D19">
+        <v>9552</v>
+      </c>
+      <c r="E19">
+        <v>5545</v>
+      </c>
+      <c r="F19">
+        <v>2894</v>
+      </c>
+      <c r="G19">
+        <v>1747</v>
+      </c>
+      <c r="H19">
+        <v>1368</v>
+      </c>
+      <c r="I19">
+        <v>1281</v>
+      </c>
+      <c r="J19">
+        <v>194</v>
+      </c>
+      <c r="K19">
+        <v>137</v>
+      </c>
+      <c r="L19">
+        <v>118</v>
+      </c>
+      <c r="M19">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>21595</v>
+      </c>
+      <c r="C20">
+        <v>14821</v>
+      </c>
+      <c r="D20">
+        <v>9496</v>
+      </c>
+      <c r="E20">
+        <v>5471</v>
+      </c>
+      <c r="F20">
+        <v>2793</v>
+      </c>
+      <c r="G20">
+        <v>1684</v>
+      </c>
+      <c r="H20">
+        <v>1331</v>
+      </c>
+      <c r="I20">
+        <v>1276</v>
+      </c>
+      <c r="J20">
+        <v>190</v>
+      </c>
+      <c r="K20">
+        <v>133</v>
+      </c>
+      <c r="L20">
+        <v>116</v>
+      </c>
+      <c r="M20">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>21991</v>
+      </c>
+      <c r="C21">
+        <v>15122</v>
+      </c>
+      <c r="D21">
+        <v>9753</v>
+      </c>
+      <c r="E21">
+        <v>5579</v>
+      </c>
+      <c r="F21">
+        <v>2846</v>
+      </c>
+      <c r="G21">
+        <v>1744</v>
+      </c>
+      <c r="H21">
+        <v>1367</v>
+      </c>
+      <c r="I21">
+        <v>1278</v>
+      </c>
+      <c r="J21">
+        <v>169</v>
+      </c>
+      <c r="K21">
+        <v>136</v>
+      </c>
+      <c r="L21">
+        <v>116</v>
+      </c>
+      <c r="M21">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>22338</v>
+      </c>
+      <c r="C22">
+        <v>15416</v>
+      </c>
+      <c r="D22">
+        <v>10030</v>
+      </c>
+      <c r="E22">
+        <v>5818</v>
+      </c>
+      <c r="F22">
+        <v>3150</v>
+      </c>
+      <c r="G22">
+        <v>1802</v>
+      </c>
+      <c r="H22">
+        <v>1354</v>
+      </c>
+      <c r="I22">
+        <v>1262</v>
+      </c>
+      <c r="J22">
+        <v>215</v>
+      </c>
+      <c r="K22">
+        <v>136</v>
+      </c>
+      <c r="L22">
+        <v>117</v>
+      </c>
+      <c r="M22">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <f>AVERAGE(B2:B22)</f>
+        <v>17819.619047619046</v>
+      </c>
+      <c r="C23" s="11">
+        <f t="shared" ref="C23:M23" si="0">AVERAGE(C2:C22)</f>
+        <v>12157.476190476191</v>
+      </c>
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
+        <v>7925.4285714285716</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="0"/>
+        <v>4803.0476190476193</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="0"/>
+        <v>2788.8095238095239</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="0"/>
+        <v>1824.6666666666667</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" si="0"/>
+        <v>1412.2857142857142</v>
+      </c>
+      <c r="I23" s="11">
+        <f t="shared" si="0"/>
+        <v>1250.0952380952381</v>
+      </c>
+      <c r="J23" s="11">
+        <f t="shared" si="0"/>
+        <v>221.1904761904762</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" si="0"/>
+        <v>158.28571428571428</v>
+      </c>
+      <c r="L23" s="11">
+        <f t="shared" si="0"/>
+        <v>134.33333333333334</v>
+      </c>
+      <c r="M23" s="11">
+        <f t="shared" si="0"/>
+        <v>123.0952380952381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>